--- a/docs/UltraRareCards.xlsx
+++ b/docs/UltraRareCards.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\PHP\TCG\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671A9E28-475F-49F6-AEAA-BD7607873E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4BA302-1160-4519-BF92-5A100CF906B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{E655B03A-0615-48A1-906C-9E73CC102A05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{E655B03A-0615-48A1-906C-9E73CC102A05}"/>
   </bookViews>
   <sheets>
     <sheet name="SV OBF" sheetId="1" r:id="rId1"/>
     <sheet name="SV MEW" sheetId="2" r:id="rId2"/>
     <sheet name="SV PAR" sheetId="3" r:id="rId3"/>
     <sheet name="SV PAF" sheetId="4" r:id="rId4"/>
-    <sheet name="Blad2" sheetId="5" r:id="rId5"/>
+    <sheet name="SVP" sheetId="5" r:id="rId5"/>
+    <sheet name="SV TEF" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="474">
   <si>
     <t>Grass</t>
   </si>
@@ -1267,6 +1268,201 @@
   </si>
   <si>
     <t>ex_SV_Future_Shiny_Full_Art</t>
+  </si>
+  <si>
+    <t>Shiftry</t>
+  </si>
+  <si>
+    <t>Grotle</t>
+  </si>
+  <si>
+    <t>Deerling</t>
+  </si>
+  <si>
+    <t>Sawsbuck</t>
+  </si>
+  <si>
+    <t>Litten</t>
+  </si>
+  <si>
+    <t>Snom</t>
+  </si>
+  <si>
+    <t>Charjabug</t>
+  </si>
+  <si>
+    <t>Bronzor</t>
+  </si>
+  <si>
+    <t>Reuniclus</t>
+  </si>
+  <si>
+    <t>Cutiefly</t>
+  </si>
+  <si>
+    <t>Relicanth</t>
+  </si>
+  <si>
+    <t>Excadrill</t>
+  </si>
+  <si>
+    <t>Mudsdale</t>
+  </si>
+  <si>
+    <t>Gastly</t>
+  </si>
+  <si>
+    <t>Metagross</t>
+  </si>
+  <si>
+    <t>Meltan</t>
+  </si>
+  <si>
+    <t>Lickitung</t>
+  </si>
+  <si>
+    <t>Chatot</t>
+  </si>
+  <si>
+    <t>Minccino</t>
+  </si>
+  <si>
+    <t>Cinccino</t>
+  </si>
+  <si>
+    <t>Drampa</t>
+  </si>
+  <si>
+    <t>Awakening Drum</t>
+  </si>
+  <si>
+    <t>Bianca's Devotion</t>
+  </si>
+  <si>
+    <t>Ciphermaniac's Codebreaking</t>
+  </si>
+  <si>
+    <t>Eri</t>
+  </si>
+  <si>
+    <t>Explorer's Guidance</t>
+  </si>
+  <si>
+    <t>Hero's Cape</t>
+  </si>
+  <si>
+    <t>Master Ball</t>
+  </si>
+  <si>
+    <t>Maximum Belt</t>
+  </si>
+  <si>
+    <t>Morty's Conviction</t>
+  </si>
+  <si>
+    <t>Prime Catcher</t>
+  </si>
+  <si>
+    <t>Reboot Pod</t>
+  </si>
+  <si>
+    <t>Salvatore</t>
+  </si>
+  <si>
+    <t>Neo Upper Energy</t>
+  </si>
+  <si>
+    <t>Torterra ex</t>
+  </si>
+  <si>
+    <t>Torterra</t>
+  </si>
+  <si>
+    <t>Scovillain ex</t>
+  </si>
+  <si>
+    <t>Iron Leaves ex</t>
+  </si>
+  <si>
+    <t>Incineroar ex</t>
+  </si>
+  <si>
+    <t>Incineroar</t>
+  </si>
+  <si>
+    <t>Gouging Fire ex</t>
+  </si>
+  <si>
+    <t>Walking Wake ex</t>
+  </si>
+  <si>
+    <t>Wugtrio ex</t>
+  </si>
+  <si>
+    <t>Iron Crown ex</t>
+  </si>
+  <si>
+    <t>Iron Boulder ex</t>
+  </si>
+  <si>
+    <t>Gengar ex</t>
+  </si>
+  <si>
+    <t>Gengar</t>
+  </si>
+  <si>
+    <t>Farigiraf ex</t>
+  </si>
+  <si>
+    <t>Farigiraf</t>
+  </si>
+  <si>
+    <t>Scizor ex</t>
+  </si>
+  <si>
+    <t>Raging Bolt ex</t>
+  </si>
+  <si>
+    <t>Iron_Leaves</t>
+  </si>
+  <si>
+    <t>Gouging_Fire</t>
+  </si>
+  <si>
+    <t>Walking_Wake</t>
+  </si>
+  <si>
+    <t>Iron_Crown</t>
+  </si>
+  <si>
+    <t>Iron_Boulder</t>
+  </si>
+  <si>
+    <t>Raging_Bolt</t>
+  </si>
+  <si>
+    <t>Temporal_Forces</t>
+  </si>
+  <si>
+    <t>Ace_Spec_SV_Ancient</t>
+  </si>
+  <si>
+    <t>Ace_Spec_SV_Future</t>
+  </si>
+  <si>
+    <t>Ace_Spec_SV</t>
+  </si>
+  <si>
+    <t>Full_Art_Trainer_SV_Future</t>
+  </si>
+  <si>
+    <t>Full_Art_Trainer_SV_Ancient</t>
+  </si>
+  <si>
+    <t>ex_SV_Ancient_Special_Art</t>
+  </si>
+  <si>
+    <t>ex_SV_Future_Special_Art</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1817,7 @@
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1653,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="T1" t="str">
-        <f t="shared" ref="T1:T4" si="0">IF(OR(S1 = "Common",S1 = "Uncommon", S1 = "Rare"), "", "&lt;- DEZE")</f>
+        <f t="shared" ref="T1:T3" si="0">IF(OR(S1 = "Common",S1 = "Uncommon", S1 = "Rare"), "", "&lt;- DEZE")</f>
         <v/>
       </c>
     </row>
@@ -1805,7 +2001,7 @@
         <v>Absol ex</v>
       </c>
       <c r="U6" t="str">
-        <f>IF(RIGHT(S6, 2) = "ex", LEFT(S6, LEN(S6) - 2), S6)</f>
+        <f>SUBSTITUTE(IF(RIGHT(S6, 2) = "ex", LEFT(S6, LEN(S6) - 2), S6), " ", "_")</f>
         <v>Absol</v>
       </c>
     </row>
@@ -1840,7 +2036,7 @@
         <v>Absol</v>
       </c>
       <c r="U7" t="str">
-        <f>IF(RIGHT(S7, 2) = "ex", LEFT(S7, LEN(S7) - 2), S7)</f>
+        <f>SUBSTITUTE(IF(RIGHT(S7, 2) = "ex", LEFT(S7, LEN(S7) - 2), S7), " ", "_")</f>
         <v>Absol</v>
       </c>
     </row>
@@ -10789,8 +10985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5F96F9-1156-44CE-8686-B127A4E0F488}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11182,4 +11378,1891 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF03968-F52C-4A27-B811-3AC9359A3C1B}">
+  <dimension ref="A1:G78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G64" si="0">"new Card(""" &amp; B1 &amp; """, Pokedex." &amp; C1 &amp; ", Rarity." &amp; F1 &amp; ", Types." &amp; D1 &amp; ", Sets." &amp; E1 &amp; ", " &amp; A1 &amp; "),"</f>
+        <v>new Card("Torterra ex", Pokedex.Torterra, Rarity.ex_SV, Types.Grass, Sets.Temporal_Forces, 12),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Scovillain ex", Pokedex.Scovillain, Rarity.ex_SV, Types.Grass, Sets.Temporal_Forces, 22),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Iron Leaves ex", Pokedex.Iron_Leaves, Rarity.ex_SV_Future, Types.Grass, Sets.Temporal_Forces, 25),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Incineroar ex", Pokedex.Incineroar, Rarity.ex_SV, Types.Fire, Sets.Temporal_Forces, 34),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C5" t="s">
+        <v>461</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>466</v>
+      </c>
+      <c r="F5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Gouging Fire ex", Pokedex.Gouging_Fire, Rarity.ex_SV_Ancient, Types.Fire, Sets.Temporal_Forces, 38),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Walking Wake ex", Pokedex.Walking_Wake, Rarity.ex_SV_Ancient, Types.Water, Sets.Temporal_Forces, 50),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Wugtrio ex", Pokedex.Wugtrio, Rarity.ex_SV_Tera, Types.Tera_Electric, Sets.Temporal_Forces, 60),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Iron Crown ex", Pokedex.Iron_Crown, Rarity.ex_SV_Future, Types.Psychic, Sets.Temporal_Forces, 81),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>466</v>
+      </c>
+      <c r="F9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Iron Boulder ex", Pokedex.Iron_Boulder, Rarity.ex_SV_Future, Types.Fighting, Sets.Temporal_Forces, 99),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10" t="s">
+        <v>455</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>466</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Gengar ex", Pokedex.Gengar, Rarity.ex_SV, Types.Darkness, Sets.Temporal_Forces, 104),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>456</v>
+      </c>
+      <c r="C11" t="s">
+        <v>457</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>466</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Farigiraf ex", Pokedex.Farigiraf, Rarity.ex_SV_Tera, Types.Tera_Dark, Sets.Temporal_Forces, 108),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>466</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Scizor ex", Pokedex.Scizor, Rarity.ex_SV, Types.Metal, Sets.Temporal_Forces, 111),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" t="s">
+        <v>466</v>
+      </c>
+      <c r="F13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Koraidon ex", Pokedex.Koraidon, Rarity.ex_SV_Ancient, Types.Dragon, Sets.Temporal_Forces, 120),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" t="s">
+        <v>466</v>
+      </c>
+      <c r="F14" t="s">
+        <v>236</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Miraidon ex", Pokedex.Miraidon, Rarity.ex_SV_Future, Types.Dragon, Sets.Temporal_Forces, 122),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>123</v>
+      </c>
+      <c r="B15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" t="s">
+        <v>466</v>
+      </c>
+      <c r="F15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Raging Bolt ex", Pokedex.Raging_Bolt, Rarity.ex_SV_Ancient, Types.Dragon, Sets.Temporal_Forces, 123),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>141</v>
+      </c>
+      <c r="B16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="s">
+        <v>466</v>
+      </c>
+      <c r="F16" t="s">
+        <v>467</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Awakening Drum", Pokedex.NVT, Rarity.Ace_Spec_SV_Ancient, Types.Item, Sets.Temporal_Forces, 141),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>152</v>
+      </c>
+      <c r="B17" t="s">
+        <v>435</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" t="s">
+        <v>466</v>
+      </c>
+      <c r="F17" t="s">
+        <v>469</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Hero's Cape", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Tool, Sets.Temporal_Forces, 152),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s">
+        <v>436</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" t="s">
+        <v>466</v>
+      </c>
+      <c r="F18" t="s">
+        <v>469</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Master Ball", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Item, Sets.Temporal_Forces, 153),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>154</v>
+      </c>
+      <c r="B19" t="s">
+        <v>437</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" t="s">
+        <v>466</v>
+      </c>
+      <c r="F19" t="s">
+        <v>469</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Maximum Belt", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Tool, Sets.Temporal_Forces, 154),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>157</v>
+      </c>
+      <c r="B20" t="s">
+        <v>439</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" t="s">
+        <v>466</v>
+      </c>
+      <c r="F20" t="s">
+        <v>469</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Prime Catcher", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Item, Sets.Temporal_Forces, 157),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>158</v>
+      </c>
+      <c r="B21" t="s">
+        <v>440</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" t="s">
+        <v>466</v>
+      </c>
+      <c r="F21" t="s">
+        <v>468</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Reboot Pod", Pokedex.NVT, Rarity.Ace_Spec_SV_Future, Types.Item, Sets.Temporal_Forces, 158),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>162</v>
+      </c>
+      <c r="B22" t="s">
+        <v>442</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>243</v>
+      </c>
+      <c r="E22" t="s">
+        <v>466</v>
+      </c>
+      <c r="F22" t="s">
+        <v>469</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Neo Upper Energy", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Special_Energy, Sets.Temporal_Forces, 162),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>163</v>
+      </c>
+      <c r="B23" t="s">
+        <v>409</v>
+      </c>
+      <c r="C23" t="s">
+        <v>409</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>466</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Shiftry", Pokedex.Shiftry, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Temporal_Forces, 163),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>164</v>
+      </c>
+      <c r="B24" t="s">
+        <v>410</v>
+      </c>
+      <c r="C24" t="s">
+        <v>410</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>466</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Grotle", Pokedex.Grotle, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Temporal_Forces, 164),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>165</v>
+      </c>
+      <c r="B25" t="s">
+        <v>411</v>
+      </c>
+      <c r="C25" t="s">
+        <v>411</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>466</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Deerling", Pokedex.Deerling, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Temporal_Forces, 165),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>166</v>
+      </c>
+      <c r="B26" t="s">
+        <v>412</v>
+      </c>
+      <c r="C26" t="s">
+        <v>412</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>466</v>
+      </c>
+      <c r="F26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Sawsbuck", Pokedex.Sawsbuck, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Temporal_Forces, 166),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>167</v>
+      </c>
+      <c r="B27" t="s">
+        <v>413</v>
+      </c>
+      <c r="C27" t="s">
+        <v>413</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>466</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Litten", Pokedex.Litten, Rarity.Special_Art_Pokemon_SV, Types.Fire, Sets.Temporal_Forces, 167),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s">
+        <v>414</v>
+      </c>
+      <c r="C28" t="s">
+        <v>414</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>466</v>
+      </c>
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Snom", Pokedex.Snom, Rarity.Special_Art_Pokemon_SV, Types.Water, Sets.Temporal_Forces, 168),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>169</v>
+      </c>
+      <c r="B29" t="s">
+        <v>415</v>
+      </c>
+      <c r="C29" t="s">
+        <v>415</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>466</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Charjabug", Pokedex.Charjabug, Rarity.Special_Art_Pokemon_SV, Types.Lightning, Sets.Temporal_Forces, 169),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>170</v>
+      </c>
+      <c r="B30" t="s">
+        <v>416</v>
+      </c>
+      <c r="C30" t="s">
+        <v>416</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>466</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Bronzor", Pokedex.Bronzor, Rarity.Special_Art_Pokemon_SV, Types.Psychic, Sets.Temporal_Forces, 170),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>171</v>
+      </c>
+      <c r="B31" t="s">
+        <v>417</v>
+      </c>
+      <c r="C31" t="s">
+        <v>417</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>466</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Reuniclus", Pokedex.Reuniclus, Rarity.Special_Art_Pokemon_SV, Types.Psychic, Sets.Temporal_Forces, 171),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>172</v>
+      </c>
+      <c r="B32" t="s">
+        <v>418</v>
+      </c>
+      <c r="C32" t="s">
+        <v>418</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>466</v>
+      </c>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Cutiefly", Pokedex.Cutiefly, Rarity.Special_Art_Pokemon_SV, Types.Psychic, Sets.Temporal_Forces, 172),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>173</v>
+      </c>
+      <c r="B33" t="s">
+        <v>419</v>
+      </c>
+      <c r="C33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>466</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Relicanth", Pokedex.Relicanth, Rarity.Special_Art_Pokemon_SV, Types.Fighting, Sets.Temporal_Forces, 173),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>174</v>
+      </c>
+      <c r="B34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C34" t="s">
+        <v>420</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>466</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Excadrill", Pokedex.Excadrill, Rarity.Special_Art_Pokemon_SV, Types.Fighting, Sets.Temporal_Forces, 174),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>175</v>
+      </c>
+      <c r="B35" t="s">
+        <v>421</v>
+      </c>
+      <c r="C35" t="s">
+        <v>421</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>466</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Mudsdale", Pokedex.Mudsdale, Rarity.Special_Art_Pokemon_SV, Types.Fighting, Sets.Temporal_Forces, 175),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>176</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>466</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Arbok", Pokedex.Arbok, Rarity.Special_Art_Pokemon_SV, Types.Darkness, Sets.Temporal_Forces, 176),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>177</v>
+      </c>
+      <c r="B37" t="s">
+        <v>422</v>
+      </c>
+      <c r="C37" t="s">
+        <v>422</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>466</v>
+      </c>
+      <c r="F37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Gastly", Pokedex.Gastly, Rarity.Special_Art_Pokemon_SV, Types.Darkness, Sets.Temporal_Forces, 177),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>178</v>
+      </c>
+      <c r="B38" t="s">
+        <v>423</v>
+      </c>
+      <c r="C38" t="s">
+        <v>423</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s">
+        <v>466</v>
+      </c>
+      <c r="F38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Metagross", Pokedex.Metagross, Rarity.Special_Art_Pokemon_SV, Types.Metal, Sets.Temporal_Forces, 178),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>179</v>
+      </c>
+      <c r="B39" t="s">
+        <v>424</v>
+      </c>
+      <c r="C39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>466</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Meltan", Pokedex.Meltan, Rarity.Special_Art_Pokemon_SV, Types.Metal, Sets.Temporal_Forces, 179),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>180</v>
+      </c>
+      <c r="B40" t="s">
+        <v>425</v>
+      </c>
+      <c r="C40" t="s">
+        <v>425</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>466</v>
+      </c>
+      <c r="F40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Lickitung", Pokedex.Lickitung, Rarity.Special_Art_Pokemon_SV, Types.Colorless, Sets.Temporal_Forces, 180),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>181</v>
+      </c>
+      <c r="B41" t="s">
+        <v>426</v>
+      </c>
+      <c r="C41" t="s">
+        <v>426</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>466</v>
+      </c>
+      <c r="F41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Chatot", Pokedex.Chatot, Rarity.Special_Art_Pokemon_SV, Types.Colorless, Sets.Temporal_Forces, 181),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>182</v>
+      </c>
+      <c r="B42" t="s">
+        <v>427</v>
+      </c>
+      <c r="C42" t="s">
+        <v>427</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>466</v>
+      </c>
+      <c r="F42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Minccino", Pokedex.Minccino, Rarity.Special_Art_Pokemon_SV, Types.Colorless, Sets.Temporal_Forces, 182),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>183</v>
+      </c>
+      <c r="B43" t="s">
+        <v>428</v>
+      </c>
+      <c r="C43" t="s">
+        <v>428</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>466</v>
+      </c>
+      <c r="F43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Cinccino", Pokedex.Cinccino, Rarity.Special_Art_Pokemon_SV, Types.Colorless, Sets.Temporal_Forces, 183),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>184</v>
+      </c>
+      <c r="B44" t="s">
+        <v>429</v>
+      </c>
+      <c r="C44" t="s">
+        <v>429</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>466</v>
+      </c>
+      <c r="F44" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Drampa", Pokedex.Drampa, Rarity.Special_Art_Pokemon_SV, Types.Colorless, Sets.Temporal_Forces, 184),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>185</v>
+      </c>
+      <c r="B45" t="s">
+        <v>443</v>
+      </c>
+      <c r="C45" t="s">
+        <v>444</v>
+      </c>
+      <c r="D45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>466</v>
+      </c>
+      <c r="F45" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Torterra ex", Pokedex.Torterra, Rarity.ex_SV_Full_Art, Types.Grass, Sets.Temporal_Forces, 185),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>186</v>
+      </c>
+      <c r="B46" t="s">
+        <v>446</v>
+      </c>
+      <c r="C46" t="s">
+        <v>460</v>
+      </c>
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>466</v>
+      </c>
+      <c r="F46" t="s">
+        <v>239</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Iron Leaves ex", Pokedex.Iron_Leaves, Rarity.ex_SV_Future_Full_Art, Types.Grass, Sets.Temporal_Forces, 186),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>187</v>
+      </c>
+      <c r="B47" t="s">
+        <v>447</v>
+      </c>
+      <c r="C47" t="s">
+        <v>448</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>466</v>
+      </c>
+      <c r="F47" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Incineroar ex", Pokedex.Incineroar, Rarity.ex_SV_Full_Art, Types.Fire, Sets.Temporal_Forces, 187),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>188</v>
+      </c>
+      <c r="B48" t="s">
+        <v>449</v>
+      </c>
+      <c r="C48" t="s">
+        <v>461</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>466</v>
+      </c>
+      <c r="F48" t="s">
+        <v>240</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Gouging Fire ex", Pokedex.Gouging_Fire, Rarity.ex_SV_Ancient_Full_Art, Types.Fire, Sets.Temporal_Forces, 188),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>189</v>
+      </c>
+      <c r="B49" t="s">
+        <v>450</v>
+      </c>
+      <c r="C49" t="s">
+        <v>462</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>466</v>
+      </c>
+      <c r="F49" t="s">
+        <v>240</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Walking Wake ex", Pokedex.Walking_Wake, Rarity.ex_SV_Ancient_Full_Art, Types.Water, Sets.Temporal_Forces, 189),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>190</v>
+      </c>
+      <c r="B50" t="s">
+        <v>451</v>
+      </c>
+      <c r="C50" t="s">
+        <v>306</v>
+      </c>
+      <c r="D50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" t="s">
+        <v>466</v>
+      </c>
+      <c r="F50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Wugtrio ex", Pokedex.Wugtrio, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Electric, Sets.Temporal_Forces, 190),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>191</v>
+      </c>
+      <c r="B51" t="s">
+        <v>452</v>
+      </c>
+      <c r="C51" t="s">
+        <v>463</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>466</v>
+      </c>
+      <c r="F51" t="s">
+        <v>239</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Iron Crown ex", Pokedex.Iron_Crown, Rarity.ex_SV_Future_Full_Art, Types.Psychic, Sets.Temporal_Forces, 191),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>192</v>
+      </c>
+      <c r="B52" t="s">
+        <v>453</v>
+      </c>
+      <c r="C52" t="s">
+        <v>464</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>466</v>
+      </c>
+      <c r="F52" t="s">
+        <v>239</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Iron Boulder ex", Pokedex.Iron_Boulder, Rarity.ex_SV_Future_Full_Art, Types.Fighting, Sets.Temporal_Forces, 192),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>193</v>
+      </c>
+      <c r="B53" t="s">
+        <v>454</v>
+      </c>
+      <c r="C53" t="s">
+        <v>455</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>466</v>
+      </c>
+      <c r="F53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Gengar ex", Pokedex.Gengar, Rarity.ex_SV_Full_Art, Types.Darkness, Sets.Temporal_Forces, 193),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>194</v>
+      </c>
+      <c r="B54" t="s">
+        <v>456</v>
+      </c>
+      <c r="C54" t="s">
+        <v>457</v>
+      </c>
+      <c r="D54" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" t="s">
+        <v>466</v>
+      </c>
+      <c r="F54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Farigiraf ex", Pokedex.Farigiraf, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Dark, Sets.Temporal_Forces, 194),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>195</v>
+      </c>
+      <c r="B55" t="s">
+        <v>458</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" t="s">
+        <v>466</v>
+      </c>
+      <c r="F55" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Scizor ex", Pokedex.Scizor, Rarity.ex_SV_Full_Art, Types.Metal, Sets.Temporal_Forces, 195),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>196</v>
+      </c>
+      <c r="B56" t="s">
+        <v>459</v>
+      </c>
+      <c r="C56" t="s">
+        <v>465</v>
+      </c>
+      <c r="D56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" t="s">
+        <v>466</v>
+      </c>
+      <c r="F56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Raging Bolt ex", Pokedex.Raging_Bolt, Rarity.ex_SV_Ancient_Full_Art, Types.Dragon, Sets.Temporal_Forces, 196),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>197</v>
+      </c>
+      <c r="B57" t="s">
+        <v>431</v>
+      </c>
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" t="s">
+        <v>466</v>
+      </c>
+      <c r="F57" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Bianca's Devotion", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Temporal_Forces, 197),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>198</v>
+      </c>
+      <c r="B58" t="s">
+        <v>432</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" t="s">
+        <v>466</v>
+      </c>
+      <c r="F58" t="s">
+        <v>470</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Ciphermaniac's Codebreaking", Pokedex.NVT, Rarity.Full_Art_Trainer_SV_Future, Types.Supporter, Sets.Temporal_Forces, 198),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>199</v>
+      </c>
+      <c r="B59" t="s">
+        <v>433</v>
+      </c>
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" t="s">
+        <v>466</v>
+      </c>
+      <c r="F59" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Eri", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Temporal_Forces, 199),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>200</v>
+      </c>
+      <c r="B60" t="s">
+        <v>434</v>
+      </c>
+      <c r="C60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" t="s">
+        <v>466</v>
+      </c>
+      <c r="F60" t="s">
+        <v>471</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Explorer's Guidance", Pokedex.NVT, Rarity.Full_Art_Trainer_SV_Ancient, Types.Supporter, Sets.Temporal_Forces, 200),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>201</v>
+      </c>
+      <c r="B61" t="s">
+        <v>438</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" t="s">
+        <v>466</v>
+      </c>
+      <c r="F61" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Morty's Conviction", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Temporal_Forces, 201),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>202</v>
+      </c>
+      <c r="B62" t="s">
+        <v>441</v>
+      </c>
+      <c r="C62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" t="s">
+        <v>466</v>
+      </c>
+      <c r="F62" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Salvatore", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Temporal_Forces, 202),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>203</v>
+      </c>
+      <c r="B63" t="s">
+        <v>446</v>
+      </c>
+      <c r="C63" t="s">
+        <v>460</v>
+      </c>
+      <c r="D63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>466</v>
+      </c>
+      <c r="F63" t="s">
+        <v>473</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Iron Leaves ex", Pokedex.Iron_Leaves, Rarity.ex_SV_Future_Special_Art, Types.Grass, Sets.Temporal_Forces, 203),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>204</v>
+      </c>
+      <c r="B64" t="s">
+        <v>449</v>
+      </c>
+      <c r="C64" t="s">
+        <v>461</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>466</v>
+      </c>
+      <c r="F64" t="s">
+        <v>472</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Gouging Fire ex", Pokedex.Gouging_Fire, Rarity.ex_SV_Ancient_Special_Art, Types.Fire, Sets.Temporal_Forces, 204),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>205</v>
+      </c>
+      <c r="B65" t="s">
+        <v>450</v>
+      </c>
+      <c r="C65" t="s">
+        <v>462</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>466</v>
+      </c>
+      <c r="F65" t="s">
+        <v>472</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" ref="G65:G78" si="1">"new Card(""" &amp; B65 &amp; """, Pokedex." &amp; C65 &amp; ", Rarity." &amp; F65 &amp; ", Types." &amp; D65 &amp; ", Sets." &amp; E65 &amp; ", " &amp; A65 &amp; "),"</f>
+        <v>new Card("Walking Wake ex", Pokedex.Walking_Wake, Rarity.ex_SV_Ancient_Special_Art, Types.Water, Sets.Temporal_Forces, 205),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>206</v>
+      </c>
+      <c r="B66" t="s">
+        <v>452</v>
+      </c>
+      <c r="C66" t="s">
+        <v>463</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>466</v>
+      </c>
+      <c r="F66" t="s">
+        <v>473</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Iron Crown ex", Pokedex.Iron_Crown, Rarity.ex_SV_Future_Special_Art, Types.Psychic, Sets.Temporal_Forces, 206),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>207</v>
+      </c>
+      <c r="B67" t="s">
+        <v>453</v>
+      </c>
+      <c r="C67" t="s">
+        <v>464</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>466</v>
+      </c>
+      <c r="F67" t="s">
+        <v>473</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Iron Boulder ex", Pokedex.Iron_Boulder, Rarity.ex_SV_Future_Special_Art, Types.Fighting, Sets.Temporal_Forces, 207),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>208</v>
+      </c>
+      <c r="B68" t="s">
+        <v>459</v>
+      </c>
+      <c r="C68" t="s">
+        <v>465</v>
+      </c>
+      <c r="D68" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" t="s">
+        <v>466</v>
+      </c>
+      <c r="F68" t="s">
+        <v>472</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Raging Bolt ex", Pokedex.Raging_Bolt, Rarity.ex_SV_Ancient_Special_Art, Types.Dragon, Sets.Temporal_Forces, 208),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>209</v>
+      </c>
+      <c r="B69" t="s">
+        <v>431</v>
+      </c>
+      <c r="C69" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" t="s">
+        <v>466</v>
+      </c>
+      <c r="F69" t="s">
+        <v>86</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Bianca's Devotion", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Temporal_Forces, 209),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>210</v>
+      </c>
+      <c r="B70" t="s">
+        <v>433</v>
+      </c>
+      <c r="C70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" t="s">
+        <v>466</v>
+      </c>
+      <c r="F70" t="s">
+        <v>86</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Eri", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Temporal_Forces, 210),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>211</v>
+      </c>
+      <c r="B71" t="s">
+        <v>438</v>
+      </c>
+      <c r="C71" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" t="s">
+        <v>466</v>
+      </c>
+      <c r="F71" t="s">
+        <v>86</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Morty's Conviction", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Temporal_Forces, 211),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>212</v>
+      </c>
+      <c r="B72" t="s">
+        <v>441</v>
+      </c>
+      <c r="C72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" t="s">
+        <v>466</v>
+      </c>
+      <c r="F72" t="s">
+        <v>86</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Salvatore", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Temporal_Forces, 212),</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>213</v>
+      </c>
+      <c r="B73" t="s">
+        <v>446</v>
+      </c>
+      <c r="C73" t="s">
+        <v>460</v>
+      </c>
+      <c r="D73" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>466</v>
+      </c>
+      <c r="F73" t="s">
+        <v>241</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Iron Leaves ex", Pokedex.Iron_Leaves, Rarity.ex_SV_Future_Gold, Types.Grass, Sets.Temporal_Forces, 213),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>214</v>
+      </c>
+      <c r="B74" t="s">
+        <v>449</v>
+      </c>
+      <c r="C74" t="s">
+        <v>461</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>466</v>
+      </c>
+      <c r="F74" t="s">
+        <v>242</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Gouging Fire ex", Pokedex.Gouging_Fire, Rarity.ex_SV_Ancient_Gold, Types.Fire, Sets.Temporal_Forces, 214),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>215</v>
+      </c>
+      <c r="B75" t="s">
+        <v>450</v>
+      </c>
+      <c r="C75" t="s">
+        <v>462</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>466</v>
+      </c>
+      <c r="F75" t="s">
+        <v>242</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Walking Wake ex", Pokedex.Walking_Wake, Rarity.ex_SV_Ancient_Gold, Types.Water, Sets.Temporal_Forces, 215),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>216</v>
+      </c>
+      <c r="B76" t="s">
+        <v>452</v>
+      </c>
+      <c r="C76" t="s">
+        <v>463</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s">
+        <v>466</v>
+      </c>
+      <c r="F76" t="s">
+        <v>241</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Iron Crown ex", Pokedex.Iron_Crown, Rarity.ex_SV_Future_Gold, Types.Psychic, Sets.Temporal_Forces, 216),</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>217</v>
+      </c>
+      <c r="B77" t="s">
+        <v>453</v>
+      </c>
+      <c r="C77" t="s">
+        <v>464</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>466</v>
+      </c>
+      <c r="F77" t="s">
+        <v>241</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Iron Boulder ex", Pokedex.Iron_Boulder, Rarity.ex_SV_Future_Gold, Types.Fighting, Sets.Temporal_Forces, 217),</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>218</v>
+      </c>
+      <c r="B78" t="s">
+        <v>459</v>
+      </c>
+      <c r="C78" t="s">
+        <v>465</v>
+      </c>
+      <c r="D78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E78" t="s">
+        <v>466</v>
+      </c>
+      <c r="F78" t="s">
+        <v>242</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Raging Bolt ex", Pokedex.Raging_Bolt, Rarity.ex_SV_Ancient_Gold, Types.Dragon, Sets.Temporal_Forces, 218),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/UltraRareCards.xlsx
+++ b/docs/UltraRareCards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\PHP\TCG\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4BA302-1160-4519-BF92-5A100CF906B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E72807-BC1F-4503-9E78-A81D76A67332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{E655B03A-0615-48A1-906C-9E73CC102A05}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="SV MEW" sheetId="2" r:id="rId2"/>
     <sheet name="SV PAR" sheetId="3" r:id="rId3"/>
     <sheet name="SV PAF" sheetId="4" r:id="rId4"/>
-    <sheet name="SVP" sheetId="5" r:id="rId5"/>
-    <sheet name="SV TEF" sheetId="6" r:id="rId6"/>
+    <sheet name="SV TEF" sheetId="6" r:id="rId5"/>
+    <sheet name="SVP" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="482">
   <si>
     <t>Grass</t>
   </si>
@@ -1463,6 +1463,30 @@
   </si>
   <si>
     <t>ex_SV_Future_Special_Art</t>
+  </si>
+  <si>
+    <t>Mabosstiff ex</t>
+  </si>
+  <si>
+    <t>Sprigatito ex</t>
+  </si>
+  <si>
+    <t>Pikachu ex</t>
+  </si>
+  <si>
+    <t>Full_Art_Pokemon_SV</t>
+  </si>
+  <si>
+    <t>Flutter Mane</t>
+  </si>
+  <si>
+    <t>Flutter_Mane</t>
+  </si>
+  <si>
+    <t>Iron Thorns</t>
+  </si>
+  <si>
+    <t>Iron_Thorns</t>
   </si>
 </sst>
 </file>
@@ -10982,409 +11006,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5F96F9-1156-44CE-8686-B127A4E0F488}">
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G1" t="str">
-        <f t="shared" ref="G1:G16" si="0">"new Card(""" &amp; B1 &amp; """, Pokedex." &amp; C1 &amp; ", Rarity." &amp; F1 &amp; ", Types." &amp; D1 &amp; ", Sets." &amp; E1 &amp; ", " &amp; A1 &amp; "),"</f>
-        <v>new Card("Fidough", Pokedex.Fidough, Rarity.Shiny_Vault_SV, Types.Psychic, Sets.SV_Promo, 69),</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F2" t="s">
-        <v>385</v>
-      </c>
-      <c r="G2" t="str">
-        <f t="shared" si="0"/>
-        <v>new Card("Greavard", Pokedex.Greavard, Rarity.Shiny_Vault_SV, Types.Psychic, Sets.SV_Promo, 70),</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>406</v>
-      </c>
-      <c r="F3" t="s">
-        <v>385</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" si="0"/>
-        <v>new Card("Maschiff", Pokedex.Maschiff, Rarity.Shiny_Vault_SV, Types.Darkness, Sets.SV_Promo, 71),</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>406</v>
-      </c>
-      <c r="F4" t="s">
-        <v>407</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>new Card("Great Tuskex", Pokedex.Great_Tusk, Rarity.ex_SV_Ancient_Shiny_Full_Art, Types.Fighting, Sets.SV_Promo, 72),</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>406</v>
-      </c>
-      <c r="F5" t="s">
-        <v>408</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>new Card("Iron Treadsex", Pokedex.Iron_Treads, Rarity.ex_SV_Future_Shiny_Full_Art, Types.Metal, Sets.SV_Promo, 73),</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" t="s">
-        <v>406</v>
-      </c>
-      <c r="F6" t="s">
-        <v>394</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>new Card("Charizardex", Pokedex.Charizard, Rarity.ex_SV_Tera_Shiny_Full_Art, Types.Tera_Dark, Sets.SV_Promo, 74),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>75</v>
-      </c>
-      <c r="B7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>new Card("Mimikyu", Pokedex.Mimikyu, Rarity.Special_Art_Pokemon_SV_Shiny, Types.Psychic, Sets.SV_Promo, 75),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>76</v>
-      </c>
-      <c r="B8" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>406</v>
-      </c>
-      <c r="F8" t="s">
-        <v>385</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>new Card("Sprigatito", Pokedex.Sprigatito, Rarity.Shiny_Vault_SV, Types.Grass, Sets.SV_Promo, 76),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>77</v>
-      </c>
-      <c r="B9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C9" t="s">
-        <v>396</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>406</v>
-      </c>
-      <c r="F9" t="s">
-        <v>385</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>new Card("Floragato", Pokedex.Floragato, Rarity.Shiny_Vault_SV, Types.Grass, Sets.SV_Promo, 77),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>78</v>
-      </c>
-      <c r="B10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C10" t="s">
-        <v>404</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>406</v>
-      </c>
-      <c r="F10" t="s">
-        <v>386</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>new Card("Meowscaradaex", Pokedex.Meowscarada, Rarity.ex_SV_Shiny_Full_Art, Types.Grass, Sets.SV_Promo, 78),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>79</v>
-      </c>
-      <c r="B11" t="s">
-        <v>398</v>
-      </c>
-      <c r="C11" t="s">
-        <v>398</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>406</v>
-      </c>
-      <c r="F11" t="s">
-        <v>385</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>new Card("Fuecoco", Pokedex.Fuecoco, Rarity.Shiny_Vault_SV, Types.Fire, Sets.SV_Promo, 79),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>80</v>
-      </c>
-      <c r="B12" t="s">
-        <v>399</v>
-      </c>
-      <c r="C12" t="s">
-        <v>399</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>406</v>
-      </c>
-      <c r="F12" t="s">
-        <v>385</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>new Card("Crocalor", Pokedex.Crocalor, Rarity.Shiny_Vault_SV, Types.Fire, Sets.SV_Promo, 80),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>81</v>
-      </c>
-      <c r="B13" t="s">
-        <v>400</v>
-      </c>
-      <c r="C13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>406</v>
-      </c>
-      <c r="F13" t="s">
-        <v>386</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>new Card("Skeledirgeex", Pokedex.Skeledirge, Rarity.ex_SV_Shiny_Full_Art, Types.Fire, Sets.SV_Promo, 81),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s">
-        <v>401</v>
-      </c>
-      <c r="C14" t="s">
-        <v>401</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>406</v>
-      </c>
-      <c r="F14" t="s">
-        <v>385</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>new Card("Quaxly", Pokedex.Quaxly, Rarity.Shiny_Vault_SV, Types.Water, Sets.SV_Promo, 82),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>83</v>
-      </c>
-      <c r="B15" t="s">
-        <v>402</v>
-      </c>
-      <c r="C15" t="s">
-        <v>402</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>406</v>
-      </c>
-      <c r="F15" t="s">
-        <v>385</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>new Card("Quaxwell", Pokedex.Quaxwell, Rarity.Shiny_Vault_SV, Types.Water, Sets.SV_Promo, 83),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>84</v>
-      </c>
-      <c r="B16" t="s">
-        <v>403</v>
-      </c>
-      <c r="C16" t="s">
-        <v>405</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>406</v>
-      </c>
-      <c r="F16" t="s">
-        <v>386</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>new Card("Quaquavalex", Pokedex.Quaquaval, Rarity.ex_SV_Shiny_Full_Art, Types.Water, Sets.SV_Promo, 84),</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF03968-F52C-4A27-B811-3AC9359A3C1B}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
@@ -13265,4 +12890,571 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5F96F9-1156-44CE-8686-B127A4E0F488}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G23" si="0">"new Card(""" &amp; B1 &amp; """, Pokedex." &amp; C1 &amp; ", Rarity." &amp; F1 &amp; ", Types." &amp; D1 &amp; ", Sets." &amp; E1 &amp; ", " &amp; A1 &amp; "),"</f>
+        <v>new Card("Fidough", Pokedex.Fidough, Rarity.Shiny_Vault_SV, Types.Psychic, Sets.SV_Promo, 69),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Greavard", Pokedex.Greavard, Rarity.Shiny_Vault_SV, Types.Psychic, Sets.SV_Promo, 70),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Maschiff", Pokedex.Maschiff, Rarity.Shiny_Vault_SV, Types.Darkness, Sets.SV_Promo, 71),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Great Tuskex", Pokedex.Great_Tusk, Rarity.ex_SV_Ancient_Shiny_Full_Art, Types.Fighting, Sets.SV_Promo, 72),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Iron Treadsex", Pokedex.Iron_Treads, Rarity.ex_SV_Future_Shiny_Full_Art, Types.Metal, Sets.SV_Promo, 73),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F6" t="s">
+        <v>394</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Charizardex", Pokedex.Charizard, Rarity.ex_SV_Tera_Shiny_Full_Art, Types.Tera_Dark, Sets.SV_Promo, 74),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Mimikyu", Pokedex.Mimikyu, Rarity.Special_Art_Pokemon_SV_Shiny, Types.Psychic, Sets.SV_Promo, 75),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>406</v>
+      </c>
+      <c r="F8" t="s">
+        <v>385</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Sprigatito", Pokedex.Sprigatito, Rarity.Shiny_Vault_SV, Types.Grass, Sets.SV_Promo, 76),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>406</v>
+      </c>
+      <c r="F9" t="s">
+        <v>385</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Floragato", Pokedex.Floragato, Rarity.Shiny_Vault_SV, Types.Grass, Sets.SV_Promo, 77),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" t="s">
+        <v>404</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F10" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Meowscaradaex", Pokedex.Meowscarada, Rarity.ex_SV_Shiny_Full_Art, Types.Grass, Sets.SV_Promo, 78),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F11" t="s">
+        <v>385</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Fuecoco", Pokedex.Fuecoco, Rarity.Shiny_Vault_SV, Types.Fire, Sets.SV_Promo, 79),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>406</v>
+      </c>
+      <c r="F12" t="s">
+        <v>385</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Crocalor", Pokedex.Crocalor, Rarity.Shiny_Vault_SV, Types.Fire, Sets.SV_Promo, 80),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>406</v>
+      </c>
+      <c r="F13" t="s">
+        <v>386</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Skeledirgeex", Pokedex.Skeledirge, Rarity.ex_SV_Shiny_Full_Art, Types.Fire, Sets.SV_Promo, 81),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" t="s">
+        <v>401</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>406</v>
+      </c>
+      <c r="F14" t="s">
+        <v>385</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Quaxly", Pokedex.Quaxly, Rarity.Shiny_Vault_SV, Types.Water, Sets.SV_Promo, 82),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" t="s">
+        <v>402</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>406</v>
+      </c>
+      <c r="F15" t="s">
+        <v>385</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Quaxwell", Pokedex.Quaxwell, Rarity.Shiny_Vault_SV, Types.Water, Sets.SV_Promo, 83),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" t="s">
+        <v>405</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>406</v>
+      </c>
+      <c r="F16" t="s">
+        <v>386</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Quaquavalex", Pokedex.Quaquaval, Rarity.ex_SV_Shiny_Full_Art, Types.Water, Sets.SV_Promo, 84),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>474</v>
+      </c>
+      <c r="C17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>406</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Mabosstiff ex", Pokedex.Mabosstiff, Rarity.ex_SV, Types.Darkness, Sets.SV_Promo, 86),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>406</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Houndoom ex", Pokedex.Houndoom, Rarity.ex_SV, Types.Darkness, Sets.SV_Promo, 103),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>406</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Melmetal ex", Pokedex.Melmetal, Rarity.ex_SV, Types.Metal, Sets.SV_Promo, 104),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>475</v>
+      </c>
+      <c r="C20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>406</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Sprigatito ex", Pokedex.Sprigatito, Rarity.ex_SV, Types.Grass, Sets.SV_Promo, 87),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>476</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>406</v>
+      </c>
+      <c r="F21" t="s">
+        <v>477</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Pikachu ex", Pokedex.Pikachu, Rarity.Full_Art_Pokemon_SV, Types.Lightning, Sets.SV_Promo, 88),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>478</v>
+      </c>
+      <c r="C22" t="s">
+        <v>479</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>406</v>
+      </c>
+      <c r="F22" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Flutter Mane", Pokedex.Flutter_Mane, Rarity.Special_Art_Pokemon_SV_Ancient, Types.Psychic, Sets.SV_Promo, 97),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>480</v>
+      </c>
+      <c r="C23" t="s">
+        <v>481</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>406</v>
+      </c>
+      <c r="F23" t="s">
+        <v>237</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Iron Thorns", Pokedex.Iron_Thorns, Rarity.Special_Art_Pokemon_SV_Future, Types.Lightning, Sets.SV_Promo, 98),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/UltraRareCards.xlsx
+++ b/docs/UltraRareCards.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\PHP\TCG\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E72807-BC1F-4503-9E78-A81D76A67332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62DBEA7-5F2D-423F-8373-9690E6D8ADD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{E655B03A-0615-48A1-906C-9E73CC102A05}"/>
   </bookViews>
@@ -18,7 +18,8 @@
     <sheet name="SV PAR" sheetId="3" r:id="rId3"/>
     <sheet name="SV PAF" sheetId="4" r:id="rId4"/>
     <sheet name="SV TEF" sheetId="6" r:id="rId5"/>
-    <sheet name="SVP" sheetId="5" r:id="rId6"/>
+    <sheet name="SV TWM" sheetId="7" r:id="rId6"/>
+    <sheet name="SVP" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="546">
   <si>
     <t>Grass</t>
   </si>
@@ -1487,6 +1488,198 @@
   </si>
   <si>
     <t>Iron_Thorns</t>
+  </si>
+  <si>
+    <t>Pinsir</t>
+  </si>
+  <si>
+    <t>Sunflora</t>
+  </si>
+  <si>
+    <t>Applin</t>
+  </si>
+  <si>
+    <t>Dipplin</t>
+  </si>
+  <si>
+    <t>Poltchageist</t>
+  </si>
+  <si>
+    <t>Sinistcha</t>
+  </si>
+  <si>
+    <t>Torkoal</t>
+  </si>
+  <si>
+    <t>Infernape</t>
+  </si>
+  <si>
+    <t>Phione</t>
+  </si>
+  <si>
+    <t>Cramorant</t>
+  </si>
+  <si>
+    <t>Heliolisk</t>
+  </si>
+  <si>
+    <t>Chimecho</t>
+  </si>
+  <si>
+    <t>Enamorus</t>
+  </si>
+  <si>
+    <t>Hisuian Growlithe</t>
+  </si>
+  <si>
+    <t>Probopass</t>
+  </si>
+  <si>
+    <t>Timburr</t>
+  </si>
+  <si>
+    <t>Lairon</t>
+  </si>
+  <si>
+    <t>Chansey</t>
+  </si>
+  <si>
+    <t>Eevee</t>
+  </si>
+  <si>
+    <t>Caretaker</t>
+  </si>
+  <si>
+    <t>Carmine</t>
+  </si>
+  <si>
+    <t>Enhanced Hammer</t>
+  </si>
+  <si>
+    <t>Hassel</t>
+  </si>
+  <si>
+    <t>Hyper Aroma</t>
+  </si>
+  <si>
+    <t>Kieran</t>
+  </si>
+  <si>
+    <t>Lana's Aid</t>
+  </si>
+  <si>
+    <t>Lucian</t>
+  </si>
+  <si>
+    <t>Perrin</t>
+  </si>
+  <si>
+    <t>Scoop Up Cyclone</t>
+  </si>
+  <si>
+    <t>Secret Box</t>
+  </si>
+  <si>
+    <t>Survival Brace</t>
+  </si>
+  <si>
+    <t>Unfair Stamp</t>
+  </si>
+  <si>
+    <t>Legacy Energy</t>
+  </si>
+  <si>
+    <t>Buddy-Buddy Poffin</t>
+  </si>
+  <si>
+    <t>Rescue Board</t>
+  </si>
+  <si>
+    <t>Luminous Energy</t>
+  </si>
+  <si>
+    <t>Tera_Teal_Mask</t>
+  </si>
+  <si>
+    <t>Tera_Heartflame_Mask</t>
+  </si>
+  <si>
+    <t>Tera_Wellspring_Mask</t>
+  </si>
+  <si>
+    <t>Tera_Cornerstone_Mask</t>
+  </si>
+  <si>
+    <t>Gold_Special_Energy_SV</t>
+  </si>
+  <si>
+    <t>Sinistcha ex</t>
+  </si>
+  <si>
+    <t>Teal Mask Ogerpon ex</t>
+  </si>
+  <si>
+    <t>Magcargo ex</t>
+  </si>
+  <si>
+    <t>Magcargo</t>
+  </si>
+  <si>
+    <t>Hearthflame Mask Ogerpon ex</t>
+  </si>
+  <si>
+    <t>Palafin ex</t>
+  </si>
+  <si>
+    <t>Wellspring Mask Ogerpon ex</t>
+  </si>
+  <si>
+    <t>Luxray ex</t>
+  </si>
+  <si>
+    <t>Iron Thorns ex</t>
+  </si>
+  <si>
+    <t>Scream Tail ex</t>
+  </si>
+  <si>
+    <t>Scream_Tail</t>
+  </si>
+  <si>
+    <t>Greninja ex</t>
+  </si>
+  <si>
+    <t>Greninja</t>
+  </si>
+  <si>
+    <t>Cornerstone Mask Ogerpon ex</t>
+  </si>
+  <si>
+    <t>Dragapult ex</t>
+  </si>
+  <si>
+    <t>Dragapult</t>
+  </si>
+  <si>
+    <t>Blissey ex</t>
+  </si>
+  <si>
+    <t>Blissey</t>
+  </si>
+  <si>
+    <t>Bloodmoon Ursaluna ex</t>
+  </si>
+  <si>
+    <t>Bloodmoon_Ursaluna</t>
+  </si>
+  <si>
+    <t>Hisuian_Growlithe</t>
+  </si>
+  <si>
+    <t>Ogerpon</t>
+  </si>
+  <si>
+    <t>Twilight_Masquerade</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +2034,7 @@
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="T6" sqref="T6:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11009,8 +11202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF03968-F52C-4A27-B811-3AC9359A3C1B}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12893,10 +13086,1922 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFFABD2-C62A-492F-BCC0-E097FFBBAB8B}">
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G64" si="0">"new Card(""" &amp; B1 &amp; """, Pokedex." &amp; C1 &amp; ", Rarity." &amp; F1 &amp; ", Types." &amp; D1 &amp; ", Sets." &amp; E1 &amp; ", " &amp; A1 &amp; "),"</f>
+        <v>new Card("Sinistcha ex", Pokedex.Sinistcha, Rarity.ex_SV, Types.Grass, Sets.Twilight_Masquerade, 23),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Teal Mask Ogerpon ex", Pokedex.Ogerpon, Rarity.ex_SV_Tera, Types.Tera_Teal_Mask, Sets.Twilight_Masquerade, 25),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Magcargo ex", Pokedex.Magcargo, Rarity.ex_SV_Tera, Types.Tera_Fire, Sets.Twilight_Masquerade, 29),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D4" t="s">
+        <v>519</v>
+      </c>
+      <c r="E4" t="s">
+        <v>545</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Hearthflame Mask Ogerpon ex", Pokedex.Ogerpon, Rarity.ex_SV_Tera, Types.Tera_Heartflame_Mask, Sets.Twilight_Masquerade, 40),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Palafin ex", Pokedex.Palafin, Rarity.ex_SV, Types.Water, Sets.Twilight_Masquerade, 61),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D6" t="s">
+        <v>520</v>
+      </c>
+      <c r="E6" t="s">
+        <v>545</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Wellspring Mask Ogerpon ex", Pokedex.Ogerpon, Rarity.ex_SV_Tera, Types.Tera_Wellspring_Mask, Sets.Twilight_Masquerade, 64),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Luxray ex", Pokedex.Luxray, Rarity.ex_SV, Types.Lightning, Sets.Twilight_Masquerade, 68),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>531</v>
+      </c>
+      <c r="C8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>545</v>
+      </c>
+      <c r="F8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Iron Thorns ex", Pokedex.Iron_Thorns, Rarity.ex_SV_Future, Types.Lightning, Sets.Twilight_Masquerade, 77),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C9" t="s">
+        <v>533</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>545</v>
+      </c>
+      <c r="F9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Scream Tail ex", Pokedex.Scream_Tail, Rarity.ex_SV_Ancient, Types.Psychic, Sets.Twilight_Masquerade, 94),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C10" t="s">
+        <v>535</v>
+      </c>
+      <c r="D10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" t="s">
+        <v>545</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Greninja ex", Pokedex.Greninja, Rarity.ex_SV_Tera, Types.Tera_Fighting, Sets.Twilight_Masquerade, 106),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>536</v>
+      </c>
+      <c r="C11" t="s">
+        <v>544</v>
+      </c>
+      <c r="D11" t="s">
+        <v>521</v>
+      </c>
+      <c r="E11" t="s">
+        <v>545</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Cornerstone Mask Ogerpon ex", Pokedex.Ogerpon, Rarity.ex_SV_Tera, Types.Tera_Cornerstone_Mask, Sets.Twilight_Masquerade, 112),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C12" t="s">
+        <v>538</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" t="s">
+        <v>545</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Dragapult ex", Pokedex.Dragapult, Rarity.ex_SV_Tera, Types.Tera_Dragon, Sets.Twilight_Masquerade, 130),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>134</v>
+      </c>
+      <c r="B13" t="s">
+        <v>539</v>
+      </c>
+      <c r="C13" t="s">
+        <v>540</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>545</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Blissey ex", Pokedex.Blissey, Rarity.ex_SV, Types.Colorless, Sets.Twilight_Masquerade, 134),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>141</v>
+      </c>
+      <c r="B14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C14" t="s">
+        <v>542</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>545</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Bloodmoon Ursaluna ex", Pokedex.Bloodmoon_Ursaluna, Rarity.ex_SV, Types.Colorless, Sets.Twilight_Masquerade, 141),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>152</v>
+      </c>
+      <c r="B15" t="s">
+        <v>505</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>545</v>
+      </c>
+      <c r="F15" t="s">
+        <v>469</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Hyper Aroma", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Item, Sets.Twilight_Masquerade, 152),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>162</v>
+      </c>
+      <c r="B16" t="s">
+        <v>510</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="s">
+        <v>545</v>
+      </c>
+      <c r="F16" t="s">
+        <v>469</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Scoop Up Cyclone", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Item, Sets.Twilight_Masquerade, 162),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>163</v>
+      </c>
+      <c r="B17" t="s">
+        <v>511</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" t="s">
+        <v>545</v>
+      </c>
+      <c r="F17" t="s">
+        <v>469</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Secret Box", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Item, Sets.Twilight_Masquerade, 163),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>164</v>
+      </c>
+      <c r="B18" t="s">
+        <v>512</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" t="s">
+        <v>545</v>
+      </c>
+      <c r="F18" t="s">
+        <v>469</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Survival Brace", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Tool, Sets.Twilight_Masquerade, 164),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>165</v>
+      </c>
+      <c r="B19" t="s">
+        <v>513</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
+        <v>545</v>
+      </c>
+      <c r="F19" t="s">
+        <v>469</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Unfair Stamp", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Item, Sets.Twilight_Masquerade, 165),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>167</v>
+      </c>
+      <c r="B20" t="s">
+        <v>514</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" t="s">
+        <v>545</v>
+      </c>
+      <c r="F20" t="s">
+        <v>469</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Legacy Energy", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Special_Energy, Sets.Twilight_Masquerade, 167),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>168</v>
+      </c>
+      <c r="B21" t="s">
+        <v>482</v>
+      </c>
+      <c r="C21" t="s">
+        <v>482</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>545</v>
+      </c>
+      <c r="F21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Pinsir", Pokedex.Pinsir, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Twilight_Masquerade, 168),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>169</v>
+      </c>
+      <c r="B22" t="s">
+        <v>483</v>
+      </c>
+      <c r="C22" t="s">
+        <v>483</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>545</v>
+      </c>
+      <c r="F22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Sunflora", Pokedex.Sunflora, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Twilight_Masquerade, 169),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>170</v>
+      </c>
+      <c r="B23" t="s">
+        <v>485</v>
+      </c>
+      <c r="C23" t="s">
+        <v>485</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>545</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Dipplin", Pokedex.Dipplin, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Twilight_Masquerade, 170),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>171</v>
+      </c>
+      <c r="B24" t="s">
+        <v>486</v>
+      </c>
+      <c r="C24" t="s">
+        <v>486</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>545</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Poltchageist", Pokedex.Poltchageist, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Twilight_Masquerade, 171),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>172</v>
+      </c>
+      <c r="B25" t="s">
+        <v>488</v>
+      </c>
+      <c r="C25" t="s">
+        <v>488</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>545</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Torkoal", Pokedex.Torkoal, Rarity.Special_Art_Pokemon_SV, Types.Fire, Sets.Twilight_Masquerade, 172),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s">
+        <v>489</v>
+      </c>
+      <c r="C26" t="s">
+        <v>489</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>545</v>
+      </c>
+      <c r="F26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Infernape", Pokedex.Infernape, Rarity.Special_Art_Pokemon_SV, Types.Fire, Sets.Twilight_Masquerade, 173),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>174</v>
+      </c>
+      <c r="B27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>545</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Froslass", Pokedex.Froslass, Rarity.Special_Art_Pokemon_SV, Types.Water, Sets.Twilight_Masquerade, 174),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>175</v>
+      </c>
+      <c r="B28" t="s">
+        <v>490</v>
+      </c>
+      <c r="C28" t="s">
+        <v>490</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>545</v>
+      </c>
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Phione", Pokedex.Phione, Rarity.Special_Art_Pokemon_SV, Types.Water, Sets.Twilight_Masquerade, 175),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>176</v>
+      </c>
+      <c r="B29" t="s">
+        <v>491</v>
+      </c>
+      <c r="C29" t="s">
+        <v>491</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>545</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Cramorant", Pokedex.Cramorant, Rarity.Special_Art_Pokemon_SV, Types.Water, Sets.Twilight_Masquerade, 176),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>177</v>
+      </c>
+      <c r="B30" t="s">
+        <v>492</v>
+      </c>
+      <c r="C30" t="s">
+        <v>492</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>545</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Heliolisk", Pokedex.Heliolisk, Rarity.Special_Art_Pokemon_SV, Types.Lightning, Sets.Twilight_Masquerade, 177),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>178</v>
+      </c>
+      <c r="B31" t="s">
+        <v>322</v>
+      </c>
+      <c r="C31" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>545</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Wattrel", Pokedex.Wattrel, Rarity.Special_Art_Pokemon_SV, Types.Lightning, Sets.Twilight_Masquerade, 178),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>179</v>
+      </c>
+      <c r="B32" t="s">
+        <v>493</v>
+      </c>
+      <c r="C32" t="s">
+        <v>493</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>545</v>
+      </c>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Chimecho", Pokedex.Chimecho, Rarity.Special_Art_Pokemon_SV, Types.Psychic, Sets.Twilight_Masquerade, 179),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>180</v>
+      </c>
+      <c r="B33" t="s">
+        <v>494</v>
+      </c>
+      <c r="C33" t="s">
+        <v>494</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>545</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Enamorus", Pokedex.Enamorus, Rarity.Special_Art_Pokemon_SV, Types.Psychic, Sets.Twilight_Masquerade, 180),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>181</v>
+      </c>
+      <c r="B34" t="s">
+        <v>495</v>
+      </c>
+      <c r="C34" t="s">
+        <v>543</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>545</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Hisuian Growlithe", Pokedex.Hisuian_Growlithe, Rarity.Special_Art_Pokemon_SV, Types.Fighting, Sets.Twilight_Masquerade, 181),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>182</v>
+      </c>
+      <c r="B35" t="s">
+        <v>496</v>
+      </c>
+      <c r="C35" t="s">
+        <v>496</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>545</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Probopass", Pokedex.Probopass, Rarity.Special_Art_Pokemon_SV, Types.Fighting, Sets.Twilight_Masquerade, 182),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>183</v>
+      </c>
+      <c r="B36" t="s">
+        <v>497</v>
+      </c>
+      <c r="C36" t="s">
+        <v>497</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>545</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Timburr", Pokedex.Timburr, Rarity.Special_Art_Pokemon_SV, Types.Fighting, Sets.Twilight_Masquerade, 183),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>184</v>
+      </c>
+      <c r="B37" t="s">
+        <v>498</v>
+      </c>
+      <c r="C37" t="s">
+        <v>498</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s">
+        <v>545</v>
+      </c>
+      <c r="F37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Lairon", Pokedex.Lairon, Rarity.Special_Art_Pokemon_SV, Types.Metal, Sets.Twilight_Masquerade, 184),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>185</v>
+      </c>
+      <c r="B38" t="s">
+        <v>484</v>
+      </c>
+      <c r="C38" t="s">
+        <v>484</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" t="s">
+        <v>545</v>
+      </c>
+      <c r="F38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Applin", Pokedex.Applin, Rarity.Special_Art_Pokemon_SV, Types.Dragon, Sets.Twilight_Masquerade, 185),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>186</v>
+      </c>
+      <c r="B39" t="s">
+        <v>309</v>
+      </c>
+      <c r="C39" t="s">
+        <v>309</v>
+      </c>
+      <c r="D39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" t="s">
+        <v>545</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Tatsugiri", Pokedex.Tatsugiri, Rarity.Special_Art_Pokemon_SV, Types.Dragon, Sets.Twilight_Masquerade, 186),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>187</v>
+      </c>
+      <c r="B40" t="s">
+        <v>499</v>
+      </c>
+      <c r="C40" t="s">
+        <v>499</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>545</v>
+      </c>
+      <c r="F40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Chansey", Pokedex.Chansey, Rarity.Special_Art_Pokemon_SV, Types.Colorless, Sets.Twilight_Masquerade, 187),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>188</v>
+      </c>
+      <c r="B41" t="s">
+        <v>500</v>
+      </c>
+      <c r="C41" t="s">
+        <v>500</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>545</v>
+      </c>
+      <c r="F41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Eevee", Pokedex.Eevee, Rarity.Special_Art_Pokemon_SV, Types.Colorless, Sets.Twilight_Masquerade, 188),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>189</v>
+      </c>
+      <c r="B42" t="s">
+        <v>523</v>
+      </c>
+      <c r="C42" t="s">
+        <v>487</v>
+      </c>
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>545</v>
+      </c>
+      <c r="F42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Sinistcha ex", Pokedex.Sinistcha, Rarity.ex_SV_Full_Art, Types.Grass, Sets.Twilight_Masquerade, 189),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>190</v>
+      </c>
+      <c r="B43" t="s">
+        <v>524</v>
+      </c>
+      <c r="C43" t="s">
+        <v>544</v>
+      </c>
+      <c r="D43" t="s">
+        <v>518</v>
+      </c>
+      <c r="E43" t="s">
+        <v>545</v>
+      </c>
+      <c r="F43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Teal Mask Ogerpon ex", Pokedex.Ogerpon, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Teal_Mask, Sets.Twilight_Masquerade, 190),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>191</v>
+      </c>
+      <c r="B44" t="s">
+        <v>525</v>
+      </c>
+      <c r="C44" t="s">
+        <v>526</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" t="s">
+        <v>545</v>
+      </c>
+      <c r="F44" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Magcargo ex", Pokedex.Magcargo, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Fire, Sets.Twilight_Masquerade, 191),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>192</v>
+      </c>
+      <c r="B45" t="s">
+        <v>527</v>
+      </c>
+      <c r="C45" t="s">
+        <v>544</v>
+      </c>
+      <c r="D45" t="s">
+        <v>519</v>
+      </c>
+      <c r="E45" t="s">
+        <v>545</v>
+      </c>
+      <c r="F45" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Hearthflame Mask Ogerpon ex", Pokedex.Ogerpon, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Heartflame_Mask, Sets.Twilight_Masquerade, 192),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>193</v>
+      </c>
+      <c r="B46" t="s">
+        <v>528</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>545</v>
+      </c>
+      <c r="F46" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Palafin ex", Pokedex.Palafin, Rarity.ex_SV_Full_Art, Types.Water, Sets.Twilight_Masquerade, 193),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>194</v>
+      </c>
+      <c r="B47" t="s">
+        <v>529</v>
+      </c>
+      <c r="C47" t="s">
+        <v>544</v>
+      </c>
+      <c r="D47" t="s">
+        <v>520</v>
+      </c>
+      <c r="E47" t="s">
+        <v>545</v>
+      </c>
+      <c r="F47" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Wellspring Mask Ogerpon ex", Pokedex.Ogerpon, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Wellspring_Mask, Sets.Twilight_Masquerade, 194),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>195</v>
+      </c>
+      <c r="B48" t="s">
+        <v>530</v>
+      </c>
+      <c r="C48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>545</v>
+      </c>
+      <c r="F48" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Luxray ex", Pokedex.Luxray, Rarity.ex_SV_Full_Art, Types.Lightning, Sets.Twilight_Masquerade, 195),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>196</v>
+      </c>
+      <c r="B49" t="s">
+        <v>531</v>
+      </c>
+      <c r="C49" t="s">
+        <v>481</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>545</v>
+      </c>
+      <c r="F49" t="s">
+        <v>239</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Iron Thorns ex", Pokedex.Iron_Thorns, Rarity.ex_SV_Future_Full_Art, Types.Lightning, Sets.Twilight_Masquerade, 196),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>197</v>
+      </c>
+      <c r="B50" t="s">
+        <v>532</v>
+      </c>
+      <c r="C50" t="s">
+        <v>533</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>545</v>
+      </c>
+      <c r="F50" t="s">
+        <v>240</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Scream Tail ex", Pokedex.Scream_Tail, Rarity.ex_SV_Ancient_Full_Art, Types.Psychic, Sets.Twilight_Masquerade, 197),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>198</v>
+      </c>
+      <c r="B51" t="s">
+        <v>534</v>
+      </c>
+      <c r="C51" t="s">
+        <v>535</v>
+      </c>
+      <c r="D51" t="s">
+        <v>232</v>
+      </c>
+      <c r="E51" t="s">
+        <v>545</v>
+      </c>
+      <c r="F51" t="s">
+        <v>81</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Greninja ex", Pokedex.Greninja, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Fighting, Sets.Twilight_Masquerade, 198),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>199</v>
+      </c>
+      <c r="B52" t="s">
+        <v>536</v>
+      </c>
+      <c r="C52" t="s">
+        <v>544</v>
+      </c>
+      <c r="D52" t="s">
+        <v>521</v>
+      </c>
+      <c r="E52" t="s">
+        <v>545</v>
+      </c>
+      <c r="F52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Cornerstone Mask Ogerpon ex", Pokedex.Ogerpon, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Cornerstone_Mask, Sets.Twilight_Masquerade, 199),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>200</v>
+      </c>
+      <c r="B53" t="s">
+        <v>537</v>
+      </c>
+      <c r="C53" t="s">
+        <v>538</v>
+      </c>
+      <c r="D53" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" t="s">
+        <v>545</v>
+      </c>
+      <c r="F53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Dragapult ex", Pokedex.Dragapult, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Dragon, Sets.Twilight_Masquerade, 200),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>201</v>
+      </c>
+      <c r="B54" t="s">
+        <v>539</v>
+      </c>
+      <c r="C54" t="s">
+        <v>540</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" t="s">
+        <v>545</v>
+      </c>
+      <c r="F54" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Blissey ex", Pokedex.Blissey, Rarity.ex_SV_Full_Art, Types.Colorless, Sets.Twilight_Masquerade, 201),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>202</v>
+      </c>
+      <c r="B55" t="s">
+        <v>541</v>
+      </c>
+      <c r="C55" t="s">
+        <v>542</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" t="s">
+        <v>545</v>
+      </c>
+      <c r="F55" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Bloodmoon Ursaluna ex", Pokedex.Bloodmoon_Ursaluna, Rarity.ex_SV_Full_Art, Types.Colorless, Sets.Twilight_Masquerade, 202),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>203</v>
+      </c>
+      <c r="B56" t="s">
+        <v>501</v>
+      </c>
+      <c r="C56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" t="s">
+        <v>545</v>
+      </c>
+      <c r="F56" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Caretaker", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Twilight_Masquerade, 203),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>204</v>
+      </c>
+      <c r="B57" t="s">
+        <v>502</v>
+      </c>
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" t="s">
+        <v>545</v>
+      </c>
+      <c r="F57" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Carmine", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Twilight_Masquerade, 204),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>205</v>
+      </c>
+      <c r="B58" t="s">
+        <v>504</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" t="s">
+        <v>545</v>
+      </c>
+      <c r="F58" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Hassel", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Twilight_Masquerade, 205),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>206</v>
+      </c>
+      <c r="B59" t="s">
+        <v>506</v>
+      </c>
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" t="s">
+        <v>545</v>
+      </c>
+      <c r="F59" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Kieran", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Twilight_Masquerade, 206),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>207</v>
+      </c>
+      <c r="B60" t="s">
+        <v>507</v>
+      </c>
+      <c r="C60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" t="s">
+        <v>545</v>
+      </c>
+      <c r="F60" t="s">
+        <v>83</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Lana's Aid", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Twilight_Masquerade, 207),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>208</v>
+      </c>
+      <c r="B61" t="s">
+        <v>508</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" t="s">
+        <v>545</v>
+      </c>
+      <c r="F61" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Lucian", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Twilight_Masquerade, 208),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>209</v>
+      </c>
+      <c r="B62" t="s">
+        <v>509</v>
+      </c>
+      <c r="C62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" t="s">
+        <v>545</v>
+      </c>
+      <c r="F62" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Perrin", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Twilight_Masquerade, 209),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>210</v>
+      </c>
+      <c r="B63" t="s">
+        <v>523</v>
+      </c>
+      <c r="C63" t="s">
+        <v>487</v>
+      </c>
+      <c r="D63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>545</v>
+      </c>
+      <c r="F63" t="s">
+        <v>85</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Sinistcha ex", Pokedex.Sinistcha, Rarity.ex_SV_Special_Art, Types.Grass, Sets.Twilight_Masquerade, 210),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>211</v>
+      </c>
+      <c r="B64" t="s">
+        <v>524</v>
+      </c>
+      <c r="C64" t="s">
+        <v>544</v>
+      </c>
+      <c r="D64" t="s">
+        <v>518</v>
+      </c>
+      <c r="E64" t="s">
+        <v>545</v>
+      </c>
+      <c r="F64" t="s">
+        <v>84</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Teal Mask Ogerpon ex", Pokedex.Ogerpon, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Teal_Mask, Sets.Twilight_Masquerade, 211),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>212</v>
+      </c>
+      <c r="B65" t="s">
+        <v>527</v>
+      </c>
+      <c r="C65" t="s">
+        <v>544</v>
+      </c>
+      <c r="D65" t="s">
+        <v>519</v>
+      </c>
+      <c r="E65" t="s">
+        <v>545</v>
+      </c>
+      <c r="F65" t="s">
+        <v>84</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" ref="G65:G79" si="1">"new Card(""" &amp; B65 &amp; """, Pokedex." &amp; C65 &amp; ", Rarity." &amp; F65 &amp; ", Types." &amp; D65 &amp; ", Sets." &amp; E65 &amp; ", " &amp; A65 &amp; "),"</f>
+        <v>new Card("Hearthflame Mask Ogerpon ex", Pokedex.Ogerpon, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Heartflame_Mask, Sets.Twilight_Masquerade, 212),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>213</v>
+      </c>
+      <c r="B66" t="s">
+        <v>529</v>
+      </c>
+      <c r="C66" t="s">
+        <v>544</v>
+      </c>
+      <c r="D66" t="s">
+        <v>520</v>
+      </c>
+      <c r="E66" t="s">
+        <v>545</v>
+      </c>
+      <c r="F66" t="s">
+        <v>84</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Wellspring Mask Ogerpon ex", Pokedex.Ogerpon, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Wellspring_Mask, Sets.Twilight_Masquerade, 213),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>214</v>
+      </c>
+      <c r="B67" t="s">
+        <v>534</v>
+      </c>
+      <c r="C67" t="s">
+        <v>535</v>
+      </c>
+      <c r="D67" t="s">
+        <v>232</v>
+      </c>
+      <c r="E67" t="s">
+        <v>545</v>
+      </c>
+      <c r="F67" t="s">
+        <v>84</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Greninja ex", Pokedex.Greninja, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Fighting, Sets.Twilight_Masquerade, 214),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>215</v>
+      </c>
+      <c r="B68" t="s">
+        <v>536</v>
+      </c>
+      <c r="C68" t="s">
+        <v>544</v>
+      </c>
+      <c r="D68" t="s">
+        <v>521</v>
+      </c>
+      <c r="E68" t="s">
+        <v>545</v>
+      </c>
+      <c r="F68" t="s">
+        <v>84</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Cornerstone Mask Ogerpon ex", Pokedex.Ogerpon, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Cornerstone_Mask, Sets.Twilight_Masquerade, 215),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>216</v>
+      </c>
+      <c r="B69" t="s">
+        <v>541</v>
+      </c>
+      <c r="C69" t="s">
+        <v>542</v>
+      </c>
+      <c r="D69" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" t="s">
+        <v>545</v>
+      </c>
+      <c r="F69" t="s">
+        <v>85</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Bloodmoon Ursaluna ex", Pokedex.Bloodmoon_Ursaluna, Rarity.ex_SV_Special_Art, Types.Colorless, Sets.Twilight_Masquerade, 216),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>217</v>
+      </c>
+      <c r="B70" t="s">
+        <v>502</v>
+      </c>
+      <c r="C70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" t="s">
+        <v>545</v>
+      </c>
+      <c r="F70" t="s">
+        <v>86</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Carmine", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Twilight_Masquerade, 217),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>218</v>
+      </c>
+      <c r="B71" t="s">
+        <v>506</v>
+      </c>
+      <c r="C71" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" t="s">
+        <v>545</v>
+      </c>
+      <c r="F71" t="s">
+        <v>86</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Kieran", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Twilight_Masquerade, 218),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>219</v>
+      </c>
+      <c r="B72" t="s">
+        <v>507</v>
+      </c>
+      <c r="C72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" t="s">
+        <v>545</v>
+      </c>
+      <c r="F72" t="s">
+        <v>86</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Lana's Aid", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Twilight_Masquerade, 219),</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>220</v>
+      </c>
+      <c r="B73" t="s">
+        <v>509</v>
+      </c>
+      <c r="C73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73" t="s">
+        <v>545</v>
+      </c>
+      <c r="F73" t="s">
+        <v>86</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Perrin", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Twilight_Masquerade, 220),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>221</v>
+      </c>
+      <c r="B74" t="s">
+        <v>524</v>
+      </c>
+      <c r="C74" t="s">
+        <v>544</v>
+      </c>
+      <c r="D74" t="s">
+        <v>518</v>
+      </c>
+      <c r="E74" t="s">
+        <v>545</v>
+      </c>
+      <c r="F74" t="s">
+        <v>87</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Teal Mask Ogerpon ex", Pokedex.Ogerpon, Rarity.ex_SV_Tera_Gold, Types.Tera_Teal_Mask, Sets.Twilight_Masquerade, 221),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>222</v>
+      </c>
+      <c r="B75" t="s">
+        <v>541</v>
+      </c>
+      <c r="C75" t="s">
+        <v>542</v>
+      </c>
+      <c r="D75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" t="s">
+        <v>545</v>
+      </c>
+      <c r="F75" t="s">
+        <v>130</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Bloodmoon Ursaluna ex", Pokedex.Bloodmoon_Ursaluna, Rarity.ex_SV_Gold, Types.Colorless, Sets.Twilight_Masquerade, 222),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>223</v>
+      </c>
+      <c r="B76" t="s">
+        <v>515</v>
+      </c>
+      <c r="C76" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" t="s">
+        <v>132</v>
+      </c>
+      <c r="E76" t="s">
+        <v>545</v>
+      </c>
+      <c r="F76" t="s">
+        <v>133</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Buddy-Buddy Poffin", Pokedex.NVT, Rarity.Gold_Item_SV, Types.Item, Sets.Twilight_Masquerade, 223),</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>224</v>
+      </c>
+      <c r="B77" t="s">
+        <v>503</v>
+      </c>
+      <c r="C77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" t="s">
+        <v>132</v>
+      </c>
+      <c r="E77" t="s">
+        <v>545</v>
+      </c>
+      <c r="F77" t="s">
+        <v>133</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Enhanced Hammer", Pokedex.NVT, Rarity.Gold_Item_SV, Types.Item, Sets.Twilight_Masquerade, 224),</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>225</v>
+      </c>
+      <c r="B78" t="s">
+        <v>516</v>
+      </c>
+      <c r="C78" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" t="s">
+        <v>182</v>
+      </c>
+      <c r="E78" t="s">
+        <v>545</v>
+      </c>
+      <c r="F78" t="s">
+        <v>133</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Rescue Board", Pokedex.NVT, Rarity.Gold_Item_SV, Types.Tool, Sets.Twilight_Masquerade, 225),</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>226</v>
+      </c>
+      <c r="B79" t="s">
+        <v>517</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" t="s">
+        <v>243</v>
+      </c>
+      <c r="E79" t="s">
+        <v>545</v>
+      </c>
+      <c r="F79" t="s">
+        <v>522</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Luminous Energy", Pokedex.NVT, Rarity.Gold_Special_Energy_SV, Types.Special_Energy, Sets.Twilight_Masquerade, 226),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5F96F9-1156-44CE-8686-B127A4E0F488}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22:G23"/>
     </sheetView>
   </sheetViews>

--- a/docs/UltraRareCards.xlsx
+++ b/docs/UltraRareCards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\PHP\TCG\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62DBEA7-5F2D-423F-8373-9690E6D8ADD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BD390B-3E96-4279-9063-58E305BE684F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{E655B03A-0615-48A1-906C-9E73CC102A05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{E655B03A-0615-48A1-906C-9E73CC102A05}"/>
   </bookViews>
   <sheets>
     <sheet name="SV OBF" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="SV PAF" sheetId="4" r:id="rId4"/>
     <sheet name="SV TEF" sheetId="6" r:id="rId5"/>
     <sheet name="SV TWM" sheetId="7" r:id="rId6"/>
-    <sheet name="SVP" sheetId="5" r:id="rId7"/>
+    <sheet name="SV SFA" sheetId="8" r:id="rId7"/>
+    <sheet name="SVP" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="587">
   <si>
     <t>Grass</t>
   </si>
@@ -1680,6 +1681,129 @@
   </si>
   <si>
     <t>Twilight_Masquerade</t>
+  </si>
+  <si>
+    <t>Tapu Bulu</t>
+  </si>
+  <si>
+    <t>Horsea</t>
+  </si>
+  <si>
+    <t>Duskull</t>
+  </si>
+  <si>
+    <t>Dusclops</t>
+  </si>
+  <si>
+    <t>Dusknoir</t>
+  </si>
+  <si>
+    <t>Cresselia</t>
+  </si>
+  <si>
+    <t>Zorua</t>
+  </si>
+  <si>
+    <t>Cufant</t>
+  </si>
+  <si>
+    <t>Fraxure</t>
+  </si>
+  <si>
+    <t>Persian</t>
+  </si>
+  <si>
+    <t>Bewear</t>
+  </si>
+  <si>
+    <t>Cassiopeia</t>
+  </si>
+  <si>
+    <t>Colress's Tenacity</t>
+  </si>
+  <si>
+    <t>Dangerous Laser</t>
+  </si>
+  <si>
+    <t>Janine's Secret Art</t>
+  </si>
+  <si>
+    <t>Neutralization Zone</t>
+  </si>
+  <si>
+    <t>Poké Vital A</t>
+  </si>
+  <si>
+    <t>Powerglass</t>
+  </si>
+  <si>
+    <t>Xerosic's Machinations</t>
+  </si>
+  <si>
+    <t>Munkidori</t>
+  </si>
+  <si>
+    <t>Fezandipiti</t>
+  </si>
+  <si>
+    <t>Okidogi</t>
+  </si>
+  <si>
+    <t>Earthen Vessel</t>
+  </si>
+  <si>
+    <t>Basic Darkness Energy</t>
+  </si>
+  <si>
+    <t>Basic Metal Energy</t>
+  </si>
+  <si>
+    <t>Basic_Darkness_Energy</t>
+  </si>
+  <si>
+    <t>Basic_Metal_Energy</t>
+  </si>
+  <si>
+    <t>Kingdra ex</t>
+  </si>
+  <si>
+    <t>Kingdra</t>
+  </si>
+  <si>
+    <t>Okidogi ex</t>
+  </si>
+  <si>
+    <t>Munkidori ex</t>
+  </si>
+  <si>
+    <t>Fezandipiti ex</t>
+  </si>
+  <si>
+    <t>Pecharunt ex</t>
+  </si>
+  <si>
+    <t>Pecharunt</t>
+  </si>
+  <si>
+    <t>Tapu_Bulu</t>
+  </si>
+  <si>
+    <t>Shrouded_Fable</t>
+  </si>
+  <si>
+    <t>Gold_Item_Ancient_SV</t>
+  </si>
+  <si>
+    <t>Special_Art_Pokemon_SV_Woodblock</t>
+  </si>
+  <si>
+    <t>ex_SV_Special_Art_Woodblock</t>
+  </si>
+  <si>
+    <t>Teal Mask Ogerpon</t>
+  </si>
+  <si>
+    <t>Special_Art_Pokemon_SV_Glitter</t>
   </si>
 </sst>
 </file>
@@ -13089,8 +13213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFFABD2-C62A-492F-BCC0-E097FFBBAB8B}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14998,11 +15122,1082 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5F96F9-1156-44CE-8686-B127A4E0F488}">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66019083-D95C-40B0-BC5C-F3B3CE8116BE}">
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:G23"/>
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G44" si="0">"new Card(""" &amp; B1 &amp; """, Pokedex." &amp; C1 &amp; ", Rarity." &amp; F1 &amp; ", Types." &amp; D1 &amp; ", Sets." &amp; E1 &amp; ", " &amp; A1 &amp; "),"</f>
+        <v>new Card("Kingdra ex", Pokedex.Kingdra, Rarity.ex_SV, Types.Water, Sets.Shrouded_Fable, 12),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Revavroom ex", Pokedex.Revavroom, Rarity.ex_SV_Tera, Types.Tera_Electric, Sets.Shrouded_Fable, 15),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Okidogi ex", Pokedex.Okidogi, Rarity.ex_SV, Types.Darkness, Sets.Shrouded_Fable, 36),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C4" t="s">
+        <v>565</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>581</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Munkidori ex", Pokedex.Munkidori, Rarity.ex_SV, Types.Darkness, Sets.Shrouded_Fable, 37),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C5" t="s">
+        <v>566</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>581</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Fezandipiti ex", Pokedex.Fezandipiti, Rarity.ex_SV, Types.Darkness, Sets.Shrouded_Fable, 38),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>581</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Pecharunt ex", Pokedex.Pecharunt, Rarity.ex_SV, Types.Darkness, Sets.Shrouded_Fable, 39),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>581</v>
+      </c>
+      <c r="F7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Dangerous Laser", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Item, Sets.Shrouded_Fable, 58),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>561</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>581</v>
+      </c>
+      <c r="F8" t="s">
+        <v>469</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Neutralization Zone", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Stadium, Sets.Shrouded_Fable, 60),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
+        <v>581</v>
+      </c>
+      <c r="F9" t="s">
+        <v>469</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Poké Vital A", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Item, Sets.Shrouded_Fable, 62),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C10" t="s">
+        <v>580</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>581</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Tapu Bulu", Pokedex.Tapu_Bulu, Rarity.Special_Art_Trainer_SV, Types.Grass, Sets.Shrouded_Fable, 65),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>581</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Houndoom", Pokedex.Houndoom, Rarity.Special_Art_Trainer_SV, Types.Fire, Sets.Shrouded_Fable, 66),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>547</v>
+      </c>
+      <c r="C12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>581</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Horsea", Pokedex.Horsea, Rarity.Special_Art_Trainer_SV, Types.Water, Sets.Shrouded_Fable, 67),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C13" t="s">
+        <v>548</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>581</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Duskull", Pokedex.Duskull, Rarity.Special_Art_Trainer_SV, Types.Psychic, Sets.Shrouded_Fable, 68),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>549</v>
+      </c>
+      <c r="C14" t="s">
+        <v>549</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>581</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Dusclops", Pokedex.Dusclops, Rarity.Special_Art_Trainer_SV, Types.Psychic, Sets.Shrouded_Fable, 69),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C15" t="s">
+        <v>550</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>581</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Dusknoir", Pokedex.Dusknoir, Rarity.Special_Art_Trainer_SV, Types.Psychic, Sets.Shrouded_Fable, 70),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>551</v>
+      </c>
+      <c r="C16" t="s">
+        <v>551</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>581</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Cresselia", Pokedex.Cresselia, Rarity.Special_Art_Trainer_SV, Types.Psychic, Sets.Shrouded_Fable, 71),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>565</v>
+      </c>
+      <c r="C17" t="s">
+        <v>565</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>581</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Munkidori", Pokedex.Munkidori, Rarity.Special_Art_Trainer_SV, Types.Psychic, Sets.Shrouded_Fable, 72),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>566</v>
+      </c>
+      <c r="C18" t="s">
+        <v>566</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>581</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Fezandipiti", Pokedex.Fezandipiti, Rarity.Special_Art_Trainer_SV, Types.Psychic, Sets.Shrouded_Fable, 73),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>567</v>
+      </c>
+      <c r="C19" t="s">
+        <v>567</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>581</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Okidogi", Pokedex.Okidogi, Rarity.Special_Art_Trainer_SV, Types.Fighting, Sets.Shrouded_Fable, 74),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>552</v>
+      </c>
+      <c r="C20" t="s">
+        <v>552</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>581</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Zorua", Pokedex.Zorua, Rarity.Special_Art_Trainer_SV, Types.Darkness, Sets.Shrouded_Fable, 75),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>553</v>
+      </c>
+      <c r="C21" t="s">
+        <v>553</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>581</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Cufant", Pokedex.Cufant, Rarity.Special_Art_Trainer_SV, Types.Metal, Sets.Shrouded_Fable, 76),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>554</v>
+      </c>
+      <c r="C22" t="s">
+        <v>554</v>
+      </c>
+      <c r="D22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" t="s">
+        <v>581</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Fraxure", Pokedex.Fraxure, Rarity.Special_Art_Trainer_SV, Types.Dragon, Sets.Shrouded_Fable, 77),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>555</v>
+      </c>
+      <c r="C23" t="s">
+        <v>555</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>581</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Persian", Pokedex.Persian, Rarity.Special_Art_Trainer_SV, Types.Colorless, Sets.Shrouded_Fable, 78),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>556</v>
+      </c>
+      <c r="C24" t="s">
+        <v>556</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>581</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Bewear", Pokedex.Bewear, Rarity.Special_Art_Trainer_SV, Types.Colorless, Sets.Shrouded_Fable, 79),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>573</v>
+      </c>
+      <c r="C25" t="s">
+        <v>574</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>581</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Kingdra ex", Pokedex.Kingdra, Rarity.ex_SV_Full_Art, Types.Water, Sets.Shrouded_Fable, 80),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>581</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Revavroom ex", Pokedex.Revavroom, Rarity.ex_SV_Tera_Full_Art, Types.Lightning, Sets.Shrouded_Fable, 81),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>575</v>
+      </c>
+      <c r="C27" t="s">
+        <v>567</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>581</v>
+      </c>
+      <c r="F27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Okidogi ex", Pokedex.Okidogi, Rarity.ex_SV_Full_Art, Types.Darkness, Sets.Shrouded_Fable, 82),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>576</v>
+      </c>
+      <c r="C28" t="s">
+        <v>565</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>581</v>
+      </c>
+      <c r="F28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Munkidori ex", Pokedex.Munkidori, Rarity.ex_SV_Full_Art, Types.Darkness, Sets.Shrouded_Fable, 83),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>577</v>
+      </c>
+      <c r="C29" t="s">
+        <v>566</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>581</v>
+      </c>
+      <c r="F29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Fezandipiti ex", Pokedex.Fezandipiti, Rarity.ex_SV_Full_Art, Types.Darkness, Sets.Shrouded_Fable, 84),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>578</v>
+      </c>
+      <c r="C30" t="s">
+        <v>579</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>581</v>
+      </c>
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Pecharunt ex", Pokedex.Pecharunt, Rarity.ex_SV_Full_Art, Types.Darkness, Sets.Shrouded_Fable, 85),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>557</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>581</v>
+      </c>
+      <c r="F31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Cassiopeia", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Shrouded_Fable, 86),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>558</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" t="s">
+        <v>581</v>
+      </c>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Colress's Tenacity", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Shrouded_Fable, 87),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>560</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" t="s">
+        <v>581</v>
+      </c>
+      <c r="F33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Janine's Secret Art", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Shrouded_Fable, 88),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>564</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>581</v>
+      </c>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Xerosic's Machinations", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Shrouded_Fable, 89),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>575</v>
+      </c>
+      <c r="C35" t="s">
+        <v>567</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>581</v>
+      </c>
+      <c r="F35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Okidogi ex", Pokedex.Okidogi, Rarity.ex_SV_Special_Art, Types.Darkness, Sets.Shrouded_Fable, 90),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
+        <v>576</v>
+      </c>
+      <c r="C36" t="s">
+        <v>565</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>581</v>
+      </c>
+      <c r="F36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Munkidori ex", Pokedex.Munkidori, Rarity.ex_SV_Special_Art, Types.Darkness, Sets.Shrouded_Fable, 91),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>577</v>
+      </c>
+      <c r="C37" t="s">
+        <v>566</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>581</v>
+      </c>
+      <c r="F37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Fezandipiti ex", Pokedex.Fezandipiti, Rarity.ex_SV_Special_Art, Types.Darkness, Sets.Shrouded_Fable, 92),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
+        <v>578</v>
+      </c>
+      <c r="C38" t="s">
+        <v>579</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>581</v>
+      </c>
+      <c r="F38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Pecharunt ex", Pokedex.Pecharunt, Rarity.ex_SV_Special_Art, Types.Darkness, Sets.Shrouded_Fable, 93),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>557</v>
+      </c>
+      <c r="C39" t="s">
+        <v>557</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" t="s">
+        <v>581</v>
+      </c>
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Cassiopeia", Pokedex.Cassiopeia, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Shrouded_Fable, 94),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>578</v>
+      </c>
+      <c r="C40" t="s">
+        <v>579</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>581</v>
+      </c>
+      <c r="F40" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Pecharunt ex", Pokedex.Pecharunt, Rarity.ex_SV_Gold, Types.Darkness, Sets.Shrouded_Fable, 95),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>96</v>
+      </c>
+      <c r="B41" t="s">
+        <v>568</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" t="s">
+        <v>581</v>
+      </c>
+      <c r="F41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Earthen Vessel", Pokedex.NVT, Rarity.Gold_Item_Ancient_SV, Types.Item, Sets.Shrouded_Fable, 96),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>97</v>
+      </c>
+      <c r="B42" t="s">
+        <v>563</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" t="s">
+        <v>581</v>
+      </c>
+      <c r="F42" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Powerglass", Pokedex.NVT, Rarity.Gold_Item_SV, Types.Tool, Sets.Shrouded_Fable, 97),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>98</v>
+      </c>
+      <c r="B43" t="s">
+        <v>569</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>571</v>
+      </c>
+      <c r="E43" t="s">
+        <v>581</v>
+      </c>
+      <c r="F43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Basic Darkness Energy", Pokedex.NVT, Rarity.Gold_Energy_SV, Types.Basic_Darkness_Energy, Sets.Shrouded_Fable, 98),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s">
+        <v>570</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>572</v>
+      </c>
+      <c r="E44" t="s">
+        <v>581</v>
+      </c>
+      <c r="F44" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Basic Metal Energy", Pokedex.NVT, Rarity.Gold_Energy_SV, Types.Basic_Metal_Energy, Sets.Shrouded_Fable, 99),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5F96F9-1156-44CE-8686-B127A4E0F488}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15027,7 +16222,7 @@
         <v>385</v>
       </c>
       <c r="G1" t="str">
-        <f t="shared" ref="G1:G23" si="0">"new Card(""" &amp; B1 &amp; """, Pokedex." &amp; C1 &amp; ", Rarity." &amp; F1 &amp; ", Types." &amp; D1 &amp; ", Sets." &amp; E1 &amp; ", " &amp; A1 &amp; "),"</f>
+        <f t="shared" ref="G1:G30" si="0">"new Card(""" &amp; B1 &amp; """, Pokedex." &amp; C1 &amp; ", Rarity." &amp; F1 &amp; ", Types." &amp; D1 &amp; ", Sets." &amp; E1 &amp; ", " &amp; A1 &amp; "),"</f>
         <v>new Card("Fidough", Pokedex.Fidough, Rarity.Shiny_Vault_SV, Types.Psychic, Sets.SV_Promo, 69),</v>
       </c>
     </row>
@@ -15557,6 +16752,174 @@
       <c r="G23" t="str">
         <f t="shared" si="0"/>
         <v>new Card("Iron Thorns", Pokedex.Iron_Thorns, Rarity.Special_Art_Pokemon_SV_Future, Types.Lightning, Sets.SV_Promo, 98),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>579</v>
+      </c>
+      <c r="C24" t="s">
+        <v>579</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>406</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Pecharunt", Pokedex.Pecharunt, Rarity.Special_Art_Pokemon_SV, Types.Darkness, Sets.SV_Promo, 129),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>345</v>
+      </c>
+      <c r="C25" t="s">
+        <v>345</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F25" t="s">
+        <v>583</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Kingambit", Pokedex.Kingambit, Rarity.Special_Art_Pokemon_SV_Woodblock, Types.Metal, Sets.SV_Promo, 130),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>131</v>
+      </c>
+      <c r="B26" t="s">
+        <v>573</v>
+      </c>
+      <c r="C26" t="s">
+        <v>574</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F26" t="s">
+        <v>584</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Kingdra ex", Pokedex.Kingdra, Rarity.ex_SV_Special_Art_Woodblock, Types.Water, Sets.SV_Promo, 131),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>132</v>
+      </c>
+      <c r="B27" t="s">
+        <v>534</v>
+      </c>
+      <c r="C27" t="s">
+        <v>535</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F27" t="s">
+        <v>584</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Greninja ex", Pokedex.Greninja, Rarity.ex_SV_Special_Art_Woodblock, Types.Water, Sets.SV_Promo, 132),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>406</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Victini ex", Pokedex.Victini, Rarity.ex_SV, Types.Fire, Sets.SV_Promo, 142),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>406</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Miraidon ex", Pokedex.Miraidon, Rarity.ex_SV, Types.Lightning, Sets.SV_Promo, 143),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>585</v>
+      </c>
+      <c r="C30" t="s">
+        <v>544</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>406</v>
+      </c>
+      <c r="F30" t="s">
+        <v>586</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Teal Mask Ogerpon", Pokedex.Ogerpon, Rarity.Special_Art_Pokemon_SV_Glitter, Types.Grass, Sets.SV_Promo, 123),</v>
       </c>
     </row>
   </sheetData>

--- a/docs/UltraRareCards.xlsx
+++ b/docs/UltraRareCards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\PHP\TCG\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BD390B-3E96-4279-9063-58E305BE684F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A5173-C6D8-4D05-8A02-7CCEF5C13583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{E655B03A-0615-48A1-906C-9E73CC102A05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{E655B03A-0615-48A1-906C-9E73CC102A05}"/>
   </bookViews>
   <sheets>
     <sheet name="SV OBF" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="SV TEF" sheetId="6" r:id="rId5"/>
     <sheet name="SV TWM" sheetId="7" r:id="rId6"/>
     <sheet name="SV SFA" sheetId="8" r:id="rId7"/>
-    <sheet name="SVP" sheetId="5" r:id="rId8"/>
+    <sheet name="SV SCR" sheetId="9" r:id="rId8"/>
+    <sheet name="SVP" sheetId="5" r:id="rId9"/>
+    <sheet name="Helper" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="631">
   <si>
     <t>Grass</t>
   </si>
@@ -1804,6 +1806,138 @@
   </si>
   <si>
     <t>Special_Art_Pokemon_SV_Glitter</t>
+  </si>
+  <si>
+    <t>Ledian</t>
+  </si>
+  <si>
+    <t>Lileep</t>
+  </si>
+  <si>
+    <t>Turtonator</t>
+  </si>
+  <si>
+    <t>Raboot</t>
+  </si>
+  <si>
+    <t>Lapras</t>
+  </si>
+  <si>
+    <t>Crabominable</t>
+  </si>
+  <si>
+    <t>Zeraora</t>
+  </si>
+  <si>
+    <t>Milcery</t>
+  </si>
+  <si>
+    <t>Meditite</t>
+  </si>
+  <si>
+    <t>Medicham</t>
+  </si>
+  <si>
+    <t>Gulpin</t>
+  </si>
+  <si>
+    <t>Archaludon</t>
+  </si>
+  <si>
+    <t>Noctowl</t>
+  </si>
+  <si>
+    <t>Area Zero Underdepths</t>
+  </si>
+  <si>
+    <t>Briar</t>
+  </si>
+  <si>
+    <t>Crispin</t>
+  </si>
+  <si>
+    <t>Deluxe Bomb</t>
+  </si>
+  <si>
+    <t>Grand Tree</t>
+  </si>
+  <si>
+    <t>Kofu</t>
+  </si>
+  <si>
+    <t>Lacey</t>
+  </si>
+  <si>
+    <t>Sparkling Crystal</t>
+  </si>
+  <si>
+    <t>Bravery Charm</t>
+  </si>
+  <si>
+    <t>Venusaur ex</t>
+  </si>
+  <si>
+    <t>Hydrapple ex</t>
+  </si>
+  <si>
+    <t>Hydrapple</t>
+  </si>
+  <si>
+    <t>Cinderace ex</t>
+  </si>
+  <si>
+    <t>Cinderace</t>
+  </si>
+  <si>
+    <t>Blastoise ex</t>
+  </si>
+  <si>
+    <t>Lapras ex</t>
+  </si>
+  <si>
+    <t>Galvantula ex</t>
+  </si>
+  <si>
+    <t>Galvantula</t>
+  </si>
+  <si>
+    <t>Dachsbun ex</t>
+  </si>
+  <si>
+    <t>Medicham ex</t>
+  </si>
+  <si>
+    <t>Lucario ex</t>
+  </si>
+  <si>
+    <t>Garganacl ex</t>
+  </si>
+  <si>
+    <t>Orthworm ex</t>
+  </si>
+  <si>
+    <t>Orthworm</t>
+  </si>
+  <si>
+    <t>Terapagos ex</t>
+  </si>
+  <si>
+    <t>Terapagos</t>
+  </si>
+  <si>
+    <t>Stellar_Crown</t>
+  </si>
+  <si>
+    <t>Tera_Stellar_Fire</t>
+  </si>
+  <si>
+    <t>Tera_Stellar_Water</t>
+  </si>
+  <si>
+    <t>Tera_Stellar_Lightning</t>
+  </si>
+  <si>
+    <t>Tera_Stellar_Terapagos</t>
   </si>
 </sst>
 </file>
@@ -2157,8 +2291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA67137-16F5-4A43-B6E2-6AC46A9366E2}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T6" sqref="T6:U6"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3512,6 +3646,83 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5254EFC-8A47-4896-9112-37C6F31202C5}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="str">
+        <f t="shared" ref="B1:B3" si="0">IF(OR(A1 = "Common",A1 = "Uncommon", A1 = "Rare"), "", "&lt;- DEZE")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="str">
+        <f>IF(OR(A4 = "Common",A4 = "Uncommon", A4 = "Rare"), "", "&lt;- DEZE")</f>
+        <v>&lt;- DEZE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="str">
+        <f>IF(RIGHT(A6, 2) = "ex", LEFT(A6, LEN(A6) - 2) &amp; " ex", A6)</f>
+        <v>Absol ex</v>
+      </c>
+      <c r="C6" t="str">
+        <f>SUBSTITUTE(IF(RIGHT(A6, 2) = "ex", LEFT(A6, LEN(A6) - 2), A6), " ", "_")</f>
+        <v>Absol</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="str">
+        <f>IF(RIGHT(A7, 2) = "ex", LEFT(A7, LEN(A7) - 2) &amp; " ex", A7)</f>
+        <v>Absol</v>
+      </c>
+      <c r="C7" t="str">
+        <f>SUBSTITUTE(IF(RIGHT(A7, 2) = "ex", LEFT(A7, LEN(A7) - 2), A7), " ", "_")</f>
+        <v>Absol</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4863,8 +5074,8 @@
   </sheetPr>
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7375,7 +7586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B155BDF-297A-453A-ABE7-136CAC26393B}">
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
+    <sheetView topLeftCell="A129" workbookViewId="0">
       <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
@@ -11326,7 +11537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF03968-F52C-4A27-B811-3AC9359A3C1B}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -13213,8 +13424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFFABD2-C62A-492F-BCC0-E097FFBBAB8B}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15125,8 +15336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66019083-D95C-40B0-BC5C-F3B3CE8116BE}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15364,11 +15575,11 @@
         <v>581</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Tapu Bulu", Pokedex.Tapu_Bulu, Rarity.Special_Art_Trainer_SV, Types.Grass, Sets.Shrouded_Fable, 65),</v>
+        <v>new Card("Tapu Bulu", Pokedex.Tapu_Bulu, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Shrouded_Fable, 65),</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -15388,11 +15599,11 @@
         <v>581</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Houndoom", Pokedex.Houndoom, Rarity.Special_Art_Trainer_SV, Types.Fire, Sets.Shrouded_Fable, 66),</v>
+        <v>new Card("Houndoom", Pokedex.Houndoom, Rarity.Special_Art_Pokemon_SV, Types.Fire, Sets.Shrouded_Fable, 66),</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -15412,11 +15623,11 @@
         <v>581</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Horsea", Pokedex.Horsea, Rarity.Special_Art_Trainer_SV, Types.Water, Sets.Shrouded_Fable, 67),</v>
+        <v>new Card("Horsea", Pokedex.Horsea, Rarity.Special_Art_Pokemon_SV, Types.Water, Sets.Shrouded_Fable, 67),</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -15436,11 +15647,11 @@
         <v>581</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Duskull", Pokedex.Duskull, Rarity.Special_Art_Trainer_SV, Types.Psychic, Sets.Shrouded_Fable, 68),</v>
+        <v>new Card("Duskull", Pokedex.Duskull, Rarity.Special_Art_Pokemon_SV, Types.Psychic, Sets.Shrouded_Fable, 68),</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -15460,11 +15671,11 @@
         <v>581</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Dusclops", Pokedex.Dusclops, Rarity.Special_Art_Trainer_SV, Types.Psychic, Sets.Shrouded_Fable, 69),</v>
+        <v>new Card("Dusclops", Pokedex.Dusclops, Rarity.Special_Art_Pokemon_SV, Types.Psychic, Sets.Shrouded_Fable, 69),</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -15484,11 +15695,11 @@
         <v>581</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Dusknoir", Pokedex.Dusknoir, Rarity.Special_Art_Trainer_SV, Types.Psychic, Sets.Shrouded_Fable, 70),</v>
+        <v>new Card("Dusknoir", Pokedex.Dusknoir, Rarity.Special_Art_Pokemon_SV, Types.Psychic, Sets.Shrouded_Fable, 70),</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -15508,11 +15719,11 @@
         <v>581</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Cresselia", Pokedex.Cresselia, Rarity.Special_Art_Trainer_SV, Types.Psychic, Sets.Shrouded_Fable, 71),</v>
+        <v>new Card("Cresselia", Pokedex.Cresselia, Rarity.Special_Art_Pokemon_SV, Types.Psychic, Sets.Shrouded_Fable, 71),</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -15532,11 +15743,11 @@
         <v>581</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Munkidori", Pokedex.Munkidori, Rarity.Special_Art_Trainer_SV, Types.Psychic, Sets.Shrouded_Fable, 72),</v>
+        <v>new Card("Munkidori", Pokedex.Munkidori, Rarity.Special_Art_Pokemon_SV, Types.Psychic, Sets.Shrouded_Fable, 72),</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -15556,11 +15767,11 @@
         <v>581</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Fezandipiti", Pokedex.Fezandipiti, Rarity.Special_Art_Trainer_SV, Types.Psychic, Sets.Shrouded_Fable, 73),</v>
+        <v>new Card("Fezandipiti", Pokedex.Fezandipiti, Rarity.Special_Art_Pokemon_SV, Types.Psychic, Sets.Shrouded_Fable, 73),</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -15580,11 +15791,11 @@
         <v>581</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Okidogi", Pokedex.Okidogi, Rarity.Special_Art_Trainer_SV, Types.Fighting, Sets.Shrouded_Fable, 74),</v>
+        <v>new Card("Okidogi", Pokedex.Okidogi, Rarity.Special_Art_Pokemon_SV, Types.Fighting, Sets.Shrouded_Fable, 74),</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -15604,11 +15815,11 @@
         <v>581</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Zorua", Pokedex.Zorua, Rarity.Special_Art_Trainer_SV, Types.Darkness, Sets.Shrouded_Fable, 75),</v>
+        <v>new Card("Zorua", Pokedex.Zorua, Rarity.Special_Art_Pokemon_SV, Types.Darkness, Sets.Shrouded_Fable, 75),</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -15628,11 +15839,11 @@
         <v>581</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Cufant", Pokedex.Cufant, Rarity.Special_Art_Trainer_SV, Types.Metal, Sets.Shrouded_Fable, 76),</v>
+        <v>new Card("Cufant", Pokedex.Cufant, Rarity.Special_Art_Pokemon_SV, Types.Metal, Sets.Shrouded_Fable, 76),</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -15652,11 +15863,11 @@
         <v>581</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Fraxure", Pokedex.Fraxure, Rarity.Special_Art_Trainer_SV, Types.Dragon, Sets.Shrouded_Fable, 77),</v>
+        <v>new Card("Fraxure", Pokedex.Fraxure, Rarity.Special_Art_Pokemon_SV, Types.Dragon, Sets.Shrouded_Fable, 77),</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -15676,11 +15887,11 @@
         <v>581</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Persian", Pokedex.Persian, Rarity.Special_Art_Trainer_SV, Types.Colorless, Sets.Shrouded_Fable, 78),</v>
+        <v>new Card("Persian", Pokedex.Persian, Rarity.Special_Art_Pokemon_SV, Types.Colorless, Sets.Shrouded_Fable, 78),</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -15700,11 +15911,11 @@
         <v>581</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Bewear", Pokedex.Bewear, Rarity.Special_Art_Trainer_SV, Types.Colorless, Sets.Shrouded_Fable, 79),</v>
+        <v>new Card("Bewear", Pokedex.Bewear, Rarity.Special_Art_Pokemon_SV, Types.Colorless, Sets.Shrouded_Fable, 79),</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -16193,11 +16404,1226 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F418748F-D738-402F-B110-C874A568DB73}">
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G50" si="0">"new Card(""" &amp; B1 &amp; """, Pokedex." &amp; C1 &amp; ", Rarity." &amp; F1 &amp; ", Types." &amp; D1 &amp; ", Sets." &amp; E1 &amp; ", " &amp; A1 &amp; "),"</f>
+        <v>new Card("Venusaur ex", Pokedex.Venusaur, Rarity.ex_SV, Types.Grass, Sets.Stellar_Crown, 1),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Hydrapple ex", Pokedex.Hydrapple, Rarity.ex_SV, Types.Grass, Sets.Stellar_Crown, 14),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E3" t="s">
+        <v>626</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Cinderace ex", Pokedex.Cinderace, Rarity.ex_SV_Tera, Types.Tera_Stellar_Fire, Sets.Stellar_Crown, 28),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>626</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Blastoise ex", Pokedex.Blastoise, Rarity.ex_SV, Types.Water, Sets.Stellar_Crown, 30),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C5" t="s">
+        <v>591</v>
+      </c>
+      <c r="D5" t="s">
+        <v>628</v>
+      </c>
+      <c r="E5" t="s">
+        <v>626</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Lapras ex", Pokedex.Lapras, Rarity.ex_SV_Tera, Types.Tera_Stellar_Water, Sets.Stellar_Crown, 32),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C6" t="s">
+        <v>535</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>626</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Greninja ex", Pokedex.Greninja, Rarity.ex_SV, Types.Water, Sets.Stellar_Crown, 41),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>616</v>
+      </c>
+      <c r="C7" t="s">
+        <v>617</v>
+      </c>
+      <c r="D7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E7" t="s">
+        <v>626</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Galvantula ex", Pokedex.Galvantula, Rarity.ex_SV_Tera, Types.Tera_Stellar_Lightning, Sets.Stellar_Crown, 51),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>626</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Dachsbun ex", Pokedex.Dachsbun, Rarity.ex_SV, Types.Psychic, Sets.Stellar_Crown, 67),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C9" t="s">
+        <v>596</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>626</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Medicham ex", Pokedex.Medicham, Rarity.ex_SV, Types.Fighting, Sets.Stellar_Crown, 80),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>620</v>
+      </c>
+      <c r="C10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>626</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Lucario ex", Pokedex.Lucario, Rarity.ex_SV, Types.Fighting, Sets.Stellar_Crown, 82),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>621</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>626</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Garganacl ex", Pokedex.Garganacl, Rarity.ex_SV, Types.Fighting, Sets.Stellar_Crown, 89),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>626</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Melmetal ex", Pokedex.Melmetal, Rarity.ex_SV, Types.Metal, Sets.Stellar_Crown, 105),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>622</v>
+      </c>
+      <c r="C13" t="s">
+        <v>623</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>626</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Orthworm ex", Pokedex.Orthworm, Rarity.ex_SV, Types.Metal, Sets.Stellar_Crown, 110),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
+        <v>624</v>
+      </c>
+      <c r="C14" t="s">
+        <v>625</v>
+      </c>
+      <c r="D14" t="s">
+        <v>630</v>
+      </c>
+      <c r="E14" t="s">
+        <v>626</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Terapagos ex", Pokedex.Terapagos, Rarity.ex_SV_Tera, Types.Tera_Stellar_Terapagos, Sets.Stellar_Crown, 128),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
+        <v>603</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" t="s">
+        <v>626</v>
+      </c>
+      <c r="F15" t="s">
+        <v>469</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Deluxe Bomb", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Tool, Sets.Stellar_Crown, 134),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
+        <v>604</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>626</v>
+      </c>
+      <c r="F16" t="s">
+        <v>469</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Grand Tree", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Stadium, Sets.Stellar_Crown, 136),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>142</v>
+      </c>
+      <c r="B17" t="s">
+        <v>607</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" t="s">
+        <v>626</v>
+      </c>
+      <c r="F17" t="s">
+        <v>469</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Sparkling Crystal", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Tool, Sets.Stellar_Crown, 142),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>626</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Bulbasaur", Pokedex.Bulbasaur, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Stellar_Crown, 143),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>144</v>
+      </c>
+      <c r="B19" t="s">
+        <v>587</v>
+      </c>
+      <c r="C19" t="s">
+        <v>587</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>626</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Ledian", Pokedex.Ledian, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Stellar_Crown, 144),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>145</v>
+      </c>
+      <c r="B20" t="s">
+        <v>588</v>
+      </c>
+      <c r="C20" t="s">
+        <v>588</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>626</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Lileep", Pokedex.Lileep, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Stellar_Crown, 145),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>146</v>
+      </c>
+      <c r="B21" t="s">
+        <v>589</v>
+      </c>
+      <c r="C21" t="s">
+        <v>589</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>626</v>
+      </c>
+      <c r="F21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Turtonator", Pokedex.Turtonator, Rarity.Special_Art_Pokemon_SV, Types.Fire, Sets.Stellar_Crown, 146),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>147</v>
+      </c>
+      <c r="B22" t="s">
+        <v>590</v>
+      </c>
+      <c r="C22" t="s">
+        <v>590</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>626</v>
+      </c>
+      <c r="F22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Raboot", Pokedex.Raboot, Rarity.Special_Art_Pokemon_SV, Types.Fire, Sets.Stellar_Crown, 147),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>148</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>626</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Squirtle", Pokedex.Squirtle, Rarity.Special_Art_Pokemon_SV, Types.Water, Sets.Stellar_Crown, 148),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>149</v>
+      </c>
+      <c r="B24" t="s">
+        <v>592</v>
+      </c>
+      <c r="C24" t="s">
+        <v>592</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>626</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Crabominable", Pokedex.Crabominable, Rarity.Special_Art_Pokemon_SV, Types.Water, Sets.Stellar_Crown, 149),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>150</v>
+      </c>
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>626</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Joltik", Pokedex.Joltik, Rarity.Special_Art_Pokemon_SV, Types.Lightning, Sets.Stellar_Crown, 150),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>151</v>
+      </c>
+      <c r="B26" t="s">
+        <v>593</v>
+      </c>
+      <c r="C26" t="s">
+        <v>593</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>626</v>
+      </c>
+      <c r="F26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Zeraora", Pokedex.Zeraora, Rarity.Special_Art_Pokemon_SV, Types.Lightning, Sets.Stellar_Crown, 151),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>152</v>
+      </c>
+      <c r="B27" t="s">
+        <v>594</v>
+      </c>
+      <c r="C27" t="s">
+        <v>594</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>626</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Milcery", Pokedex.Milcery, Rarity.Special_Art_Pokemon_SV, Types.Psychic, Sets.Stellar_Crown, 152),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
+        <v>595</v>
+      </c>
+      <c r="C28" t="s">
+        <v>595</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>626</v>
+      </c>
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Meditite", Pokedex.Meditite, Rarity.Special_Art_Pokemon_SV, Types.Fighting, Sets.Stellar_Crown, 153),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>154</v>
+      </c>
+      <c r="B29" t="s">
+        <v>597</v>
+      </c>
+      <c r="C29" t="s">
+        <v>597</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>626</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Gulpin", Pokedex.Gulpin, Rarity.Special_Art_Pokemon_SV, Types.Darkness, Sets.Stellar_Crown, 154),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>155</v>
+      </c>
+      <c r="B30" t="s">
+        <v>598</v>
+      </c>
+      <c r="C30" t="s">
+        <v>598</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>626</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Archaludon", Pokedex.Archaludon, Rarity.Special_Art_Pokemon_SV, Types.Metal, Sets.Stellar_Crown, 155),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>156</v>
+      </c>
+      <c r="B31" t="s">
+        <v>610</v>
+      </c>
+      <c r="C31" t="s">
+        <v>611</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>626</v>
+      </c>
+      <c r="F31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Hydrapple ex", Pokedex.Hydrapple, Rarity.ex_SV_Full_Art, Types.Grass, Sets.Stellar_Crown, 156),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>157</v>
+      </c>
+      <c r="B32" t="s">
+        <v>612</v>
+      </c>
+      <c r="C32" t="s">
+        <v>613</v>
+      </c>
+      <c r="D32" t="s">
+        <v>627</v>
+      </c>
+      <c r="E32" t="s">
+        <v>626</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Cinderace ex", Pokedex.Cinderace, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Stellar_Fire, Sets.Stellar_Crown, 157),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>158</v>
+      </c>
+      <c r="B33" t="s">
+        <v>615</v>
+      </c>
+      <c r="C33" t="s">
+        <v>591</v>
+      </c>
+      <c r="D33" t="s">
+        <v>628</v>
+      </c>
+      <c r="E33" t="s">
+        <v>626</v>
+      </c>
+      <c r="F33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Lapras ex", Pokedex.Lapras, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Stellar_Water, Sets.Stellar_Crown, 158),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>159</v>
+      </c>
+      <c r="B34" t="s">
+        <v>616</v>
+      </c>
+      <c r="C34" t="s">
+        <v>617</v>
+      </c>
+      <c r="D34" t="s">
+        <v>629</v>
+      </c>
+      <c r="E34" t="s">
+        <v>626</v>
+      </c>
+      <c r="F34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Galvantula ex", Pokedex.Galvantula, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Stellar_Lightning, Sets.Stellar_Crown, 159),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>160</v>
+      </c>
+      <c r="B35" t="s">
+        <v>618</v>
+      </c>
+      <c r="C35" t="s">
+        <v>261</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>626</v>
+      </c>
+      <c r="F35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Dachsbun ex", Pokedex.Dachsbun, Rarity.ex_SV_Full_Art, Types.Psychic, Sets.Stellar_Crown, 160),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>161</v>
+      </c>
+      <c r="B36" t="s">
+        <v>619</v>
+      </c>
+      <c r="C36" t="s">
+        <v>596</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>626</v>
+      </c>
+      <c r="F36" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Medicham ex", Pokedex.Medicham, Rarity.ex_SV_Full_Art, Types.Fighting, Sets.Stellar_Crown, 161),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>162</v>
+      </c>
+      <c r="B37" t="s">
+        <v>622</v>
+      </c>
+      <c r="C37" t="s">
+        <v>623</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s">
+        <v>626</v>
+      </c>
+      <c r="F37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Orthworm ex", Pokedex.Orthworm, Rarity.ex_SV_Full_Art, Types.Metal, Sets.Stellar_Crown, 162),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>163</v>
+      </c>
+      <c r="B38" t="s">
+        <v>601</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" t="s">
+        <v>626</v>
+      </c>
+      <c r="F38" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Briar", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Stellar_Crown, 163),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>164</v>
+      </c>
+      <c r="B39" t="s">
+        <v>602</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" t="s">
+        <v>626</v>
+      </c>
+      <c r="F39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Crispin", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Stellar_Crown, 164),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>165</v>
+      </c>
+      <c r="B40" t="s">
+        <v>605</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" t="s">
+        <v>626</v>
+      </c>
+      <c r="F40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Kofu", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Stellar_Crown, 165),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>166</v>
+      </c>
+      <c r="B41" t="s">
+        <v>606</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" t="s">
+        <v>626</v>
+      </c>
+      <c r="F41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Lacey", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Stellar_Crown, 166),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>167</v>
+      </c>
+      <c r="B42" t="s">
+        <v>610</v>
+      </c>
+      <c r="C42" t="s">
+        <v>611</v>
+      </c>
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>626</v>
+      </c>
+      <c r="F42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Hydrapple ex", Pokedex.Hydrapple, Rarity.ex_SV_Special_Art, Types.Grass, Sets.Stellar_Crown, 167),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>168</v>
+      </c>
+      <c r="B43" t="s">
+        <v>616</v>
+      </c>
+      <c r="C43" t="s">
+        <v>617</v>
+      </c>
+      <c r="D43" t="s">
+        <v>629</v>
+      </c>
+      <c r="E43" t="s">
+        <v>626</v>
+      </c>
+      <c r="F43" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Galvantula ex", Pokedex.Galvantula, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Lightning, Sets.Stellar_Crown, 168),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>169</v>
+      </c>
+      <c r="B44" t="s">
+        <v>618</v>
+      </c>
+      <c r="C44" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>626</v>
+      </c>
+      <c r="F44" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Dachsbun ex", Pokedex.Dachsbun, Rarity.ex_SV_Special_Art, Types.Psychic, Sets.Stellar_Crown, 169),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>170</v>
+      </c>
+      <c r="B45" t="s">
+        <v>624</v>
+      </c>
+      <c r="C45" t="s">
+        <v>625</v>
+      </c>
+      <c r="D45" t="s">
+        <v>630</v>
+      </c>
+      <c r="E45" t="s">
+        <v>626</v>
+      </c>
+      <c r="F45" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Terapagos ex", Pokedex.Terapagos, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Terapagos, Sets.Stellar_Crown, 170),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>171</v>
+      </c>
+      <c r="B46" t="s">
+        <v>601</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" t="s">
+        <v>626</v>
+      </c>
+      <c r="F46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Briar", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Stellar_Crown, 171),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>172</v>
+      </c>
+      <c r="B47" t="s">
+        <v>606</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>626</v>
+      </c>
+      <c r="F47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Lacey", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Stellar_Crown, 172),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>173</v>
+      </c>
+      <c r="B48" t="s">
+        <v>624</v>
+      </c>
+      <c r="C48" t="s">
+        <v>625</v>
+      </c>
+      <c r="D48" t="s">
+        <v>630</v>
+      </c>
+      <c r="E48" t="s">
+        <v>626</v>
+      </c>
+      <c r="F48" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Terapagos ex", Pokedex.Terapagos, Rarity.ex_SV_Tera_Gold, Types.Tera_Stellar_Terapagos, Sets.Stellar_Crown, 173),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>174</v>
+      </c>
+      <c r="B49" t="s">
+        <v>600</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" t="s">
+        <v>626</v>
+      </c>
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Area Zero Underdepths", Pokedex.NVT, Rarity.Gold_Stadium_SV, Types.Stadium, Sets.Stellar_Crown, 174),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>175</v>
+      </c>
+      <c r="B50" t="s">
+        <v>608</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" t="s">
+        <v>626</v>
+      </c>
+      <c r="F50" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Bravery Charm", Pokedex.NVT, Rarity.Gold_Item_SV, Types.Tool, Sets.Stellar_Crown, 175),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5F96F9-1156-44CE-8686-B127A4E0F488}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16222,7 +17648,7 @@
         <v>385</v>
       </c>
       <c r="G1" t="str">
-        <f t="shared" ref="G1:G30" si="0">"new Card(""" &amp; B1 &amp; """, Pokedex." &amp; C1 &amp; ", Rarity." &amp; F1 &amp; ", Types." &amp; D1 &amp; ", Sets." &amp; E1 &amp; ", " &amp; A1 &amp; "),"</f>
+        <f t="shared" ref="G1:G35" si="0">"new Card(""" &amp; B1 &amp; """, Pokedex." &amp; C1 &amp; ", Rarity." &amp; F1 &amp; ", Types." &amp; D1 &amp; ", Sets." &amp; E1 &amp; ", " &amp; A1 &amp; "),"</f>
         <v>new Card("Fidough", Pokedex.Fidough, Rarity.Shiny_Vault_SV, Types.Psychic, Sets.SV_Promo, 69),</v>
       </c>
     </row>
@@ -16920,6 +18346,126 @@
       <c r="G30" t="str">
         <f t="shared" si="0"/>
         <v>new Card("Teal Mask Ogerpon", Pokedex.Ogerpon, Rarity.Special_Art_Pokemon_SV_Glitter, Types.Grass, Sets.SV_Promo, 123),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
+        <v>599</v>
+      </c>
+      <c r="C31" t="s">
+        <v>599</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>406</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Noctowl", Pokedex.Noctowl, Rarity.Special_Art_Pokemon_SV, Types.Colorless, Sets.SV_Promo, 141),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>144</v>
+      </c>
+      <c r="B32" t="s">
+        <v>449</v>
+      </c>
+      <c r="C32" t="s">
+        <v>461</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>406</v>
+      </c>
+      <c r="F32" t="s">
+        <v>235</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Gouging Fire ex", Pokedex.Gouging_Fire, Rarity.ex_SV_Ancient, Types.Fire, Sets.SV_Promo, 144),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>145</v>
+      </c>
+      <c r="B33" t="s">
+        <v>459</v>
+      </c>
+      <c r="C33" t="s">
+        <v>465</v>
+      </c>
+      <c r="D33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" t="s">
+        <v>406</v>
+      </c>
+      <c r="F33" t="s">
+        <v>235</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Raging Bolt ex", Pokedex.Raging_Bolt, Rarity.ex_SV_Ancient, Types.Dragon, Sets.SV_Promo, 145),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>146</v>
+      </c>
+      <c r="B34" t="s">
+        <v>452</v>
+      </c>
+      <c r="C34" t="s">
+        <v>463</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>406</v>
+      </c>
+      <c r="F34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Iron Crown ex", Pokedex.Iron_Crown, Rarity.ex_SV_Future, Types.Psychic, Sets.SV_Promo, 146),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>147</v>
+      </c>
+      <c r="B35" t="s">
+        <v>453</v>
+      </c>
+      <c r="C35" t="s">
+        <v>464</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>406</v>
+      </c>
+      <c r="F35" t="s">
+        <v>236</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Iron Boulder ex", Pokedex.Iron_Boulder, Rarity.ex_SV_Future, Types.Fighting, Sets.SV_Promo, 147),</v>
       </c>
     </row>
   </sheetData>

--- a/docs/UltraRareCards.xlsx
+++ b/docs/UltraRareCards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\PHP\TCG\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A5173-C6D8-4D05-8A02-7CCEF5C13583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10750947-01CC-413B-AE32-A9BB647788E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{E655B03A-0615-48A1-906C-9E73CC102A05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{E655B03A-0615-48A1-906C-9E73CC102A05}"/>
   </bookViews>
   <sheets>
     <sheet name="SV OBF" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="SV TWM" sheetId="7" r:id="rId6"/>
     <sheet name="SV SFA" sheetId="8" r:id="rId7"/>
     <sheet name="SV SCR" sheetId="9" r:id="rId8"/>
-    <sheet name="SVP" sheetId="5" r:id="rId9"/>
-    <sheet name="Helper" sheetId="11" r:id="rId10"/>
+    <sheet name="SV SSP" sheetId="12" r:id="rId9"/>
+    <sheet name="SVP" sheetId="5" r:id="rId10"/>
+    <sheet name="Helper" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3783" uniqueCount="718">
   <si>
     <t>Grass</t>
   </si>
@@ -1938,6 +1939,267 @@
   </si>
   <si>
     <t>Tera_Stellar_Terapagos</t>
+  </si>
+  <si>
+    <t>Exeggcute</t>
+  </si>
+  <si>
+    <t>Vivillon</t>
+  </si>
+  <si>
+    <t>Shiinotic</t>
+  </si>
+  <si>
+    <t>Castform Sunny Form</t>
+  </si>
+  <si>
+    <t>Larvesta</t>
+  </si>
+  <si>
+    <t>Feebas</t>
+  </si>
+  <si>
+    <t>Spheal</t>
+  </si>
+  <si>
+    <t>Bruxish</t>
+  </si>
+  <si>
+    <t>Cetitan</t>
+  </si>
+  <si>
+    <t>Magneton</t>
+  </si>
+  <si>
+    <t>Stunfisk</t>
+  </si>
+  <si>
+    <t>Latios</t>
+  </si>
+  <si>
+    <t>Mesprit</t>
+  </si>
+  <si>
+    <t>Phanpy</t>
+  </si>
+  <si>
+    <t>Vibrava</t>
+  </si>
+  <si>
+    <t>Clobbopus</t>
+  </si>
+  <si>
+    <t>Alolan Dugtrio</t>
+  </si>
+  <si>
+    <t>Skarmory</t>
+  </si>
+  <si>
+    <t>Flapple</t>
+  </si>
+  <si>
+    <t>Appletun</t>
+  </si>
+  <si>
+    <t>Slakoth</t>
+  </si>
+  <si>
+    <t>Kecleon</t>
+  </si>
+  <si>
+    <t>Braviary</t>
+  </si>
+  <si>
+    <t>Amulet of Hope</t>
+  </si>
+  <si>
+    <t>Brilliant Blender</t>
+  </si>
+  <si>
+    <t>Clemont's Quick Wit</t>
+  </si>
+  <si>
+    <t>Counter Gain</t>
+  </si>
+  <si>
+    <t>Cyrano</t>
+  </si>
+  <si>
+    <t>Drasna</t>
+  </si>
+  <si>
+    <t>Drayton</t>
+  </si>
+  <si>
+    <t>Energy Search Pro</t>
+  </si>
+  <si>
+    <t>Gravity Mountain</t>
+  </si>
+  <si>
+    <t>Jasmine's Gaze</t>
+  </si>
+  <si>
+    <t>Lisia's Appeal</t>
+  </si>
+  <si>
+    <t>Megaton Blower</t>
+  </si>
+  <si>
+    <t>Miracle Headset</t>
+  </si>
+  <si>
+    <t>Precious Trolley</t>
+  </si>
+  <si>
+    <t>Scramble Switch</t>
+  </si>
+  <si>
+    <t>Surfer</t>
+  </si>
+  <si>
+    <t>Enriching Energy</t>
+  </si>
+  <si>
+    <t>Night Stretcher</t>
+  </si>
+  <si>
+    <t>Jet Energy</t>
+  </si>
+  <si>
+    <t>Durant ex</t>
+  </si>
+  <si>
+    <t>Durant</t>
+  </si>
+  <si>
+    <t>Castform_Sunny_Form</t>
+  </si>
+  <si>
+    <t>Ceruledge ex</t>
+  </si>
+  <si>
+    <t>Milotic ex</t>
+  </si>
+  <si>
+    <t>Milotic</t>
+  </si>
+  <si>
+    <t>Black Kyurem ex</t>
+  </si>
+  <si>
+    <t>Black_Kyurem</t>
+  </si>
+  <si>
+    <t>Kilowattrel ex</t>
+  </si>
+  <si>
+    <t>Latias ex</t>
+  </si>
+  <si>
+    <t>Latias</t>
+  </si>
+  <si>
+    <t>Sylveon ex</t>
+  </si>
+  <si>
+    <t>Sylveon</t>
+  </si>
+  <si>
+    <t>Palossand ex</t>
+  </si>
+  <si>
+    <t>Palossand</t>
+  </si>
+  <si>
+    <t>Flygon ex</t>
+  </si>
+  <si>
+    <t>Flygon</t>
+  </si>
+  <si>
+    <t>Hydreigon ex</t>
+  </si>
+  <si>
+    <t>Hydreigon</t>
+  </si>
+  <si>
+    <t>Alolan_Dugtrio</t>
+  </si>
+  <si>
+    <t>Archaludon ex</t>
+  </si>
+  <si>
+    <t>Alolan Exeggutor ex</t>
+  </si>
+  <si>
+    <t>Alolan_Exeggutor</t>
+  </si>
+  <si>
+    <t>Tatsugiri ex</t>
+  </si>
+  <si>
+    <t>Slaking ex</t>
+  </si>
+  <si>
+    <t>Slaking</t>
+  </si>
+  <si>
+    <t>Cyclizar ex</t>
+  </si>
+  <si>
+    <t>Flamigo ex</t>
+  </si>
+  <si>
+    <t>Surging_Sparks</t>
+  </si>
+  <si>
+    <t>Tera_Stellar_Psychic</t>
+  </si>
+  <si>
+    <t>Tera_Stellar_Fighting</t>
+  </si>
+  <si>
+    <t>Tera_Stellar_Darkness</t>
+  </si>
+  <si>
+    <t>Tera_Stellar_Dragon</t>
+  </si>
+  <si>
+    <t>Tera_Stellar_Colorless</t>
+  </si>
+  <si>
+    <t>Vivillon_Fancy</t>
+  </si>
+  <si>
+    <t>Houndstone ex Box</t>
+  </si>
+  <si>
+    <t>Charizard ex Super-Premium Collection</t>
+  </si>
+  <si>
+    <t>Trainer’s Toolkit 2024</t>
+  </si>
+  <si>
+    <t>Terapagos ex Ultra-Premium Collection</t>
+  </si>
+  <si>
+    <t>Greninja ex Ultra-Premium Collection</t>
+  </si>
+  <si>
+    <t>Bloodmoon Ursaluna ex Box</t>
+  </si>
+  <si>
+    <t>Ogerpon ex Premium Collection</t>
+  </si>
+  <si>
+    <t>Squawkabilly ex</t>
+  </si>
+  <si>
+    <t>Metal_Cards</t>
+  </si>
+  <si>
+    <t>Teal_Mask_Ogerpon</t>
   </si>
 </sst>
 </file>
@@ -3650,6 +3912,1122 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5F96F9-1156-44CE-8686-B127A4E0F488}">
+  <dimension ref="A1:O45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G45" si="0">"new Card(""" &amp; B1 &amp; """, Pokedex." &amp; C1 &amp; ", Rarity." &amp; F1 &amp; ", Types." &amp; D1 &amp; ", Sets." &amp; E1 &amp; ", " &amp; A1 &amp; "),"</f>
+        <v>new Card("Fidough", Pokedex.Fidough, Rarity.Shiny_Vault_SV, Types.Psychic, Sets.SV_Promo, 69),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Greavard", Pokedex.Greavard, Rarity.Shiny_Vault_SV, Types.Psychic, Sets.SV_Promo, 70),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Maschiff", Pokedex.Maschiff, Rarity.Shiny_Vault_SV, Types.Darkness, Sets.SV_Promo, 71),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Great Tuskex", Pokedex.Great_Tusk, Rarity.ex_SV_Ancient_Shiny_Full_Art, Types.Fighting, Sets.SV_Promo, 72),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Iron Treadsex", Pokedex.Iron_Treads, Rarity.ex_SV_Future_Shiny_Full_Art, Types.Metal, Sets.SV_Promo, 73),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F6" t="s">
+        <v>394</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Charizardex", Pokedex.Charizard, Rarity.ex_SV_Tera_Shiny_Full_Art, Types.Tera_Dark, Sets.SV_Promo, 74),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Mimikyu", Pokedex.Mimikyu, Rarity.Special_Art_Pokemon_SV_Shiny, Types.Psychic, Sets.SV_Promo, 75),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>406</v>
+      </c>
+      <c r="F8" t="s">
+        <v>385</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Sprigatito", Pokedex.Sprigatito, Rarity.Shiny_Vault_SV, Types.Grass, Sets.SV_Promo, 76),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>406</v>
+      </c>
+      <c r="F9" t="s">
+        <v>385</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Floragato", Pokedex.Floragato, Rarity.Shiny_Vault_SV, Types.Grass, Sets.SV_Promo, 77),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" t="s">
+        <v>404</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F10" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Meowscaradaex", Pokedex.Meowscarada, Rarity.ex_SV_Shiny_Full_Art, Types.Grass, Sets.SV_Promo, 78),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F11" t="s">
+        <v>385</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Fuecoco", Pokedex.Fuecoco, Rarity.Shiny_Vault_SV, Types.Fire, Sets.SV_Promo, 79),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>406</v>
+      </c>
+      <c r="F12" t="s">
+        <v>385</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Crocalor", Pokedex.Crocalor, Rarity.Shiny_Vault_SV, Types.Fire, Sets.SV_Promo, 80),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>406</v>
+      </c>
+      <c r="F13" t="s">
+        <v>386</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Skeledirgeex", Pokedex.Skeledirge, Rarity.ex_SV_Shiny_Full_Art, Types.Fire, Sets.SV_Promo, 81),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" t="s">
+        <v>401</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>406</v>
+      </c>
+      <c r="F14" t="s">
+        <v>385</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Quaxly", Pokedex.Quaxly, Rarity.Shiny_Vault_SV, Types.Water, Sets.SV_Promo, 82),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" t="s">
+        <v>402</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>406</v>
+      </c>
+      <c r="F15" t="s">
+        <v>385</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Quaxwell", Pokedex.Quaxwell, Rarity.Shiny_Vault_SV, Types.Water, Sets.SV_Promo, 83),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" t="s">
+        <v>405</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>406</v>
+      </c>
+      <c r="F16" t="s">
+        <v>386</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Quaquavalex", Pokedex.Quaquaval, Rarity.ex_SV_Shiny_Full_Art, Types.Water, Sets.SV_Promo, 84),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>474</v>
+      </c>
+      <c r="C17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>406</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Mabosstiff ex", Pokedex.Mabosstiff, Rarity.ex_SV, Types.Darkness, Sets.SV_Promo, 86),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>406</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Houndoom ex", Pokedex.Houndoom, Rarity.ex_SV, Types.Darkness, Sets.SV_Promo, 103),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>406</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Melmetal ex", Pokedex.Melmetal, Rarity.ex_SV, Types.Metal, Sets.SV_Promo, 104),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>475</v>
+      </c>
+      <c r="C20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>406</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Sprigatito ex", Pokedex.Sprigatito, Rarity.ex_SV, Types.Grass, Sets.SV_Promo, 87),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>476</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>406</v>
+      </c>
+      <c r="F21" t="s">
+        <v>477</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Pikachu ex", Pokedex.Pikachu, Rarity.Full_Art_Pokemon_SV, Types.Lightning, Sets.SV_Promo, 88),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>478</v>
+      </c>
+      <c r="C22" t="s">
+        <v>479</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>406</v>
+      </c>
+      <c r="F22" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Flutter Mane", Pokedex.Flutter_Mane, Rarity.Special_Art_Pokemon_SV_Ancient, Types.Psychic, Sets.SV_Promo, 97),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>480</v>
+      </c>
+      <c r="C23" t="s">
+        <v>481</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>406</v>
+      </c>
+      <c r="F23" t="s">
+        <v>237</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Iron Thorns", Pokedex.Iron_Thorns, Rarity.Special_Art_Pokemon_SV_Future, Types.Lightning, Sets.SV_Promo, 98),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>579</v>
+      </c>
+      <c r="C24" t="s">
+        <v>579</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>406</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Pecharunt", Pokedex.Pecharunt, Rarity.Special_Art_Pokemon_SV, Types.Darkness, Sets.SV_Promo, 129),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>345</v>
+      </c>
+      <c r="C25" t="s">
+        <v>345</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F25" t="s">
+        <v>583</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Kingambit", Pokedex.Kingambit, Rarity.Special_Art_Pokemon_SV_Woodblock, Types.Metal, Sets.SV_Promo, 130),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>131</v>
+      </c>
+      <c r="B26" t="s">
+        <v>573</v>
+      </c>
+      <c r="C26" t="s">
+        <v>574</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F26" t="s">
+        <v>584</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Kingdra ex", Pokedex.Kingdra, Rarity.ex_SV_Special_Art_Woodblock, Types.Water, Sets.SV_Promo, 131),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>132</v>
+      </c>
+      <c r="B27" t="s">
+        <v>534</v>
+      </c>
+      <c r="C27" t="s">
+        <v>535</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F27" t="s">
+        <v>584</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Greninja ex", Pokedex.Greninja, Rarity.ex_SV_Special_Art_Woodblock, Types.Water, Sets.SV_Promo, 132),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>406</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Victini ex", Pokedex.Victini, Rarity.ex_SV, Types.Fire, Sets.SV_Promo, 142),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>406</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Miraidon ex", Pokedex.Miraidon, Rarity.ex_SV, Types.Lightning, Sets.SV_Promo, 143),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>585</v>
+      </c>
+      <c r="C30" t="s">
+        <v>717</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>406</v>
+      </c>
+      <c r="F30" t="s">
+        <v>586</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Teal Mask Ogerpon", Pokedex.Teal_Mask_Ogerpon, Rarity.Special_Art_Pokemon_SV_Glitter, Types.Grass, Sets.SV_Promo, 123),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
+        <v>599</v>
+      </c>
+      <c r="C31" t="s">
+        <v>599</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>406</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Noctowl", Pokedex.Noctowl, Rarity.Special_Art_Pokemon_SV, Types.Colorless, Sets.SV_Promo, 141),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>144</v>
+      </c>
+      <c r="B32" t="s">
+        <v>449</v>
+      </c>
+      <c r="C32" t="s">
+        <v>461</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>406</v>
+      </c>
+      <c r="F32" t="s">
+        <v>235</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Gouging Fire ex", Pokedex.Gouging_Fire, Rarity.ex_SV_Ancient, Types.Fire, Sets.SV_Promo, 144),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>145</v>
+      </c>
+      <c r="B33" t="s">
+        <v>459</v>
+      </c>
+      <c r="C33" t="s">
+        <v>465</v>
+      </c>
+      <c r="D33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" t="s">
+        <v>406</v>
+      </c>
+      <c r="F33" t="s">
+        <v>235</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Raging Bolt ex", Pokedex.Raging_Bolt, Rarity.ex_SV_Ancient, Types.Dragon, Sets.SV_Promo, 145),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>146</v>
+      </c>
+      <c r="B34" t="s">
+        <v>452</v>
+      </c>
+      <c r="C34" t="s">
+        <v>463</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>406</v>
+      </c>
+      <c r="F34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Iron Crown ex", Pokedex.Iron_Crown, Rarity.ex_SV_Future, Types.Psychic, Sets.SV_Promo, 146),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>147</v>
+      </c>
+      <c r="B35" t="s">
+        <v>453</v>
+      </c>
+      <c r="C35" t="s">
+        <v>464</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>406</v>
+      </c>
+      <c r="F35" t="s">
+        <v>236</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Iron Boulder ex", Pokedex.Iron_Boulder, Rarity.ex_SV_Future, Types.Fighting, Sets.SV_Promo, 147),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>162</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>406</v>
+      </c>
+      <c r="F36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Houndstone ex", Pokedex.Houndstone, Rarity.ex_SV, Types.Psychic, Sets.SV_Promo, 162),</v>
+      </c>
+      <c r="O36" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>161</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>406</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Charizard ex", Pokedex.Charizard, Rarity.ex_SV, Types.Fire, Sets.SV_Promo, 161),</v>
+      </c>
+      <c r="O37" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>160</v>
+      </c>
+      <c r="B38" t="s">
+        <v>715</v>
+      </c>
+      <c r="C38" t="s">
+        <v>374</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>406</v>
+      </c>
+      <c r="F38" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Squawkabilly ex", Pokedex.Squawkabilly, Rarity.ex_SV, Types.Colorless, Sets.SV_Promo, 160),</v>
+      </c>
+      <c r="O38" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>163</v>
+      </c>
+      <c r="B39" t="s">
+        <v>612</v>
+      </c>
+      <c r="C39" t="s">
+        <v>613</v>
+      </c>
+      <c r="D39" t="s">
+        <v>627</v>
+      </c>
+      <c r="E39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F39" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Cinderace ex", Pokedex.Cinderace, Rarity.ex_SV_Tera_Gold, Types.Tera_Stellar_Fire, Sets.SV_Promo, 163),</v>
+      </c>
+      <c r="O39" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>164</v>
+      </c>
+      <c r="B40" t="s">
+        <v>615</v>
+      </c>
+      <c r="C40" t="s">
+        <v>591</v>
+      </c>
+      <c r="D40" t="s">
+        <v>628</v>
+      </c>
+      <c r="E40" t="s">
+        <v>406</v>
+      </c>
+      <c r="F40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Lapras ex", Pokedex.Lapras, Rarity.ex_SV_Tera_Gold, Types.Tera_Stellar_Water, Sets.SV_Promo, 164),</v>
+      </c>
+      <c r="O40" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>165</v>
+      </c>
+      <c r="B41" t="s">
+        <v>624</v>
+      </c>
+      <c r="C41" t="s">
+        <v>625</v>
+      </c>
+      <c r="D41" t="s">
+        <v>630</v>
+      </c>
+      <c r="E41" t="s">
+        <v>406</v>
+      </c>
+      <c r="F41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Terapagos ex", Pokedex.Terapagos, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Stellar_Terapagos, Sets.SV_Promo, 165),</v>
+      </c>
+      <c r="O41" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>534</v>
+      </c>
+      <c r="C42" t="s">
+        <v>535</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>716</v>
+      </c>
+      <c r="F42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Greninja ex", Pokedex.Greninja, Rarity.Metal, Types.Fighting, Sets.Metal_Cards, 6),</v>
+      </c>
+      <c r="O42" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>177</v>
+      </c>
+      <c r="B43" t="s">
+        <v>541</v>
+      </c>
+      <c r="C43" t="s">
+        <v>542</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>406</v>
+      </c>
+      <c r="F43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Bloodmoon Ursaluna ex", Pokedex.Bloodmoon_Ursaluna, Rarity.ex_SV, Types.Colorless, Sets.SV_Promo, 177),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>166</v>
+      </c>
+      <c r="B44" t="s">
+        <v>524</v>
+      </c>
+      <c r="C44" t="s">
+        <v>717</v>
+      </c>
+      <c r="D44" t="s">
+        <v>518</v>
+      </c>
+      <c r="E44" t="s">
+        <v>406</v>
+      </c>
+      <c r="F44" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Teal Mask Ogerpon ex", Pokedex.Teal_Mask_Ogerpon, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Teal_Mask, Sets.SV_Promo, 166),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>159</v>
+      </c>
+      <c r="B45" t="s">
+        <v>640</v>
+      </c>
+      <c r="C45" t="s">
+        <v>640</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>406</v>
+      </c>
+      <c r="F45" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Magneton", Pokedex.Magneton, Rarity.Special_Art_Pokemon_SV, Types.Lightning, Sets.SV_Promo, 159),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5254EFC-8A47-4896-9112-37C6F31202C5}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -13425,7 +14803,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15337,7 +16715,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16407,8 +17785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F418748F-D738-402F-B110-C874A568DB73}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16429,11 +17807,8 @@
       <c r="E1" t="s">
         <v>626</v>
       </c>
-      <c r="F1" t="s">
-        <v>78</v>
-      </c>
       <c r="G1" t="str">
-        <f t="shared" ref="G1:G50" si="0">"new Card(""" &amp; B1 &amp; """, Pokedex." &amp; C1 &amp; ", Rarity." &amp; F1 &amp; ", Types." &amp; D1 &amp; ", Sets." &amp; E1 &amp; ", " &amp; A1 &amp; "),"</f>
+        <f>"new Card(""" &amp; B1 &amp; """, Pokedex." &amp; C1 &amp; ", Rarity." &amp; 'SV SSP'!F1 &amp; ", Types." &amp; D1 &amp; ", Sets." &amp; E1 &amp; ", " &amp; A1 &amp; "),"</f>
         <v>new Card("Venusaur ex", Pokedex.Venusaur, Rarity.ex_SV, Types.Grass, Sets.Stellar_Crown, 1),</v>
       </c>
     </row>
@@ -16457,7 +17832,7 @@
         <v>78</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B2 &amp; """, Pokedex." &amp; C2 &amp; ", Rarity." &amp; F2 &amp; ", Types." &amp; D2 &amp; ", Sets." &amp; E2 &amp; ", " &amp; A2 &amp; "),"</f>
         <v>new Card("Hydrapple ex", Pokedex.Hydrapple, Rarity.ex_SV, Types.Grass, Sets.Stellar_Crown, 14),</v>
       </c>
     </row>
@@ -16481,7 +17856,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B3 &amp; """, Pokedex." &amp; C3 &amp; ", Rarity." &amp; F3 &amp; ", Types." &amp; D3 &amp; ", Sets." &amp; E3 &amp; ", " &amp; A3 &amp; "),"</f>
         <v>new Card("Cinderace ex", Pokedex.Cinderace, Rarity.ex_SV_Tera, Types.Tera_Stellar_Fire, Sets.Stellar_Crown, 28),</v>
       </c>
     </row>
@@ -16505,7 +17880,7 @@
         <v>78</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B4 &amp; """, Pokedex." &amp; C4 &amp; ", Rarity." &amp; F4 &amp; ", Types." &amp; D4 &amp; ", Sets." &amp; E4 &amp; ", " &amp; A4 &amp; "),"</f>
         <v>new Card("Blastoise ex", Pokedex.Blastoise, Rarity.ex_SV, Types.Water, Sets.Stellar_Crown, 30),</v>
       </c>
     </row>
@@ -16529,7 +17904,7 @@
         <v>79</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B5 &amp; """, Pokedex." &amp; C5 &amp; ", Rarity." &amp; F5 &amp; ", Types." &amp; D5 &amp; ", Sets." &amp; E5 &amp; ", " &amp; A5 &amp; "),"</f>
         <v>new Card("Lapras ex", Pokedex.Lapras, Rarity.ex_SV_Tera, Types.Tera_Stellar_Water, Sets.Stellar_Crown, 32),</v>
       </c>
     </row>
@@ -16553,7 +17928,7 @@
         <v>78</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B6 &amp; """, Pokedex." &amp; C6 &amp; ", Rarity." &amp; F6 &amp; ", Types." &amp; D6 &amp; ", Sets." &amp; E6 &amp; ", " &amp; A6 &amp; "),"</f>
         <v>new Card("Greninja ex", Pokedex.Greninja, Rarity.ex_SV, Types.Water, Sets.Stellar_Crown, 41),</v>
       </c>
     </row>
@@ -16577,7 +17952,7 @@
         <v>79</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B7 &amp; """, Pokedex." &amp; C7 &amp; ", Rarity." &amp; F7 &amp; ", Types." &amp; D7 &amp; ", Sets." &amp; E7 &amp; ", " &amp; A7 &amp; "),"</f>
         <v>new Card("Galvantula ex", Pokedex.Galvantula, Rarity.ex_SV_Tera, Types.Tera_Stellar_Lightning, Sets.Stellar_Crown, 51),</v>
       </c>
     </row>
@@ -16601,7 +17976,7 @@
         <v>78</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B8 &amp; """, Pokedex." &amp; C8 &amp; ", Rarity." &amp; F8 &amp; ", Types." &amp; D8 &amp; ", Sets." &amp; E8 &amp; ", " &amp; A8 &amp; "),"</f>
         <v>new Card("Dachsbun ex", Pokedex.Dachsbun, Rarity.ex_SV, Types.Psychic, Sets.Stellar_Crown, 67),</v>
       </c>
     </row>
@@ -16625,7 +18000,7 @@
         <v>78</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B9 &amp; """, Pokedex." &amp; C9 &amp; ", Rarity." &amp; F9 &amp; ", Types." &amp; D9 &amp; ", Sets." &amp; E9 &amp; ", " &amp; A9 &amp; "),"</f>
         <v>new Card("Medicham ex", Pokedex.Medicham, Rarity.ex_SV, Types.Fighting, Sets.Stellar_Crown, 80),</v>
       </c>
     </row>
@@ -16649,7 +18024,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B10 &amp; """, Pokedex." &amp; C10 &amp; ", Rarity." &amp; F10 &amp; ", Types." &amp; D10 &amp; ", Sets." &amp; E10 &amp; ", " &amp; A10 &amp; "),"</f>
         <v>new Card("Lucario ex", Pokedex.Lucario, Rarity.ex_SV, Types.Fighting, Sets.Stellar_Crown, 82),</v>
       </c>
     </row>
@@ -16673,7 +18048,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B11 &amp; """, Pokedex." &amp; C11 &amp; ", Rarity." &amp; F11 &amp; ", Types." &amp; D11 &amp; ", Sets." &amp; E11 &amp; ", " &amp; A11 &amp; "),"</f>
         <v>new Card("Garganacl ex", Pokedex.Garganacl, Rarity.ex_SV, Types.Fighting, Sets.Stellar_Crown, 89),</v>
       </c>
     </row>
@@ -16697,7 +18072,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B12 &amp; """, Pokedex." &amp; C12 &amp; ", Rarity." &amp; F12 &amp; ", Types." &amp; D12 &amp; ", Sets." &amp; E12 &amp; ", " &amp; A12 &amp; "),"</f>
         <v>new Card("Melmetal ex", Pokedex.Melmetal, Rarity.ex_SV, Types.Metal, Sets.Stellar_Crown, 105),</v>
       </c>
     </row>
@@ -16721,7 +18096,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B13 &amp; """, Pokedex." &amp; C13 &amp; ", Rarity." &amp; F13 &amp; ", Types." &amp; D13 &amp; ", Sets." &amp; E13 &amp; ", " &amp; A13 &amp; "),"</f>
         <v>new Card("Orthworm ex", Pokedex.Orthworm, Rarity.ex_SV, Types.Metal, Sets.Stellar_Crown, 110),</v>
       </c>
     </row>
@@ -16745,7 +18120,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B14 &amp; """, Pokedex." &amp; C14 &amp; ", Rarity." &amp; F14 &amp; ", Types." &amp; D14 &amp; ", Sets." &amp; E14 &amp; ", " &amp; A14 &amp; "),"</f>
         <v>new Card("Terapagos ex", Pokedex.Terapagos, Rarity.ex_SV_Tera, Types.Tera_Stellar_Terapagos, Sets.Stellar_Crown, 128),</v>
       </c>
     </row>
@@ -16769,7 +18144,7 @@
         <v>469</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B15 &amp; """, Pokedex." &amp; C15 &amp; ", Rarity." &amp; F15 &amp; ", Types." &amp; D15 &amp; ", Sets." &amp; E15 &amp; ", " &amp; A15 &amp; "),"</f>
         <v>new Card("Deluxe Bomb", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Tool, Sets.Stellar_Crown, 134),</v>
       </c>
     </row>
@@ -16793,7 +18168,7 @@
         <v>469</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B16 &amp; """, Pokedex." &amp; C16 &amp; ", Rarity." &amp; F16 &amp; ", Types." &amp; D16 &amp; ", Sets." &amp; E16 &amp; ", " &amp; A16 &amp; "),"</f>
         <v>new Card("Grand Tree", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Stadium, Sets.Stellar_Crown, 136),</v>
       </c>
     </row>
@@ -16817,7 +18192,7 @@
         <v>469</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B17 &amp; """, Pokedex." &amp; C17 &amp; ", Rarity." &amp; F17 &amp; ", Types." &amp; D17 &amp; ", Sets." &amp; E17 &amp; ", " &amp; A17 &amp; "),"</f>
         <v>new Card("Sparkling Crystal", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Tool, Sets.Stellar_Crown, 142),</v>
       </c>
     </row>
@@ -16841,7 +18216,7 @@
         <v>80</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B18 &amp; """, Pokedex." &amp; C18 &amp; ", Rarity." &amp; F18 &amp; ", Types." &amp; D18 &amp; ", Sets." &amp; E18 &amp; ", " &amp; A18 &amp; "),"</f>
         <v>new Card("Bulbasaur", Pokedex.Bulbasaur, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Stellar_Crown, 143),</v>
       </c>
     </row>
@@ -16865,7 +18240,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B19 &amp; """, Pokedex." &amp; C19 &amp; ", Rarity." &amp; F19 &amp; ", Types." &amp; D19 &amp; ", Sets." &amp; E19 &amp; ", " &amp; A19 &amp; "),"</f>
         <v>new Card("Ledian", Pokedex.Ledian, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Stellar_Crown, 144),</v>
       </c>
     </row>
@@ -16889,7 +18264,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B20 &amp; """, Pokedex." &amp; C20 &amp; ", Rarity." &amp; F20 &amp; ", Types." &amp; D20 &amp; ", Sets." &amp; E20 &amp; ", " &amp; A20 &amp; "),"</f>
         <v>new Card("Lileep", Pokedex.Lileep, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Stellar_Crown, 145),</v>
       </c>
     </row>
@@ -16913,7 +18288,7 @@
         <v>80</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B21 &amp; """, Pokedex." &amp; C21 &amp; ", Rarity." &amp; F21 &amp; ", Types." &amp; D21 &amp; ", Sets." &amp; E21 &amp; ", " &amp; A21 &amp; "),"</f>
         <v>new Card("Turtonator", Pokedex.Turtonator, Rarity.Special_Art_Pokemon_SV, Types.Fire, Sets.Stellar_Crown, 146),</v>
       </c>
     </row>
@@ -16937,7 +18312,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B22 &amp; """, Pokedex." &amp; C22 &amp; ", Rarity." &amp; F22 &amp; ", Types." &amp; D22 &amp; ", Sets." &amp; E22 &amp; ", " &amp; A22 &amp; "),"</f>
         <v>new Card("Raboot", Pokedex.Raboot, Rarity.Special_Art_Pokemon_SV, Types.Fire, Sets.Stellar_Crown, 147),</v>
       </c>
     </row>
@@ -16961,7 +18336,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B23 &amp; """, Pokedex." &amp; C23 &amp; ", Rarity." &amp; F23 &amp; ", Types." &amp; D23 &amp; ", Sets." &amp; E23 &amp; ", " &amp; A23 &amp; "),"</f>
         <v>new Card("Squirtle", Pokedex.Squirtle, Rarity.Special_Art_Pokemon_SV, Types.Water, Sets.Stellar_Crown, 148),</v>
       </c>
     </row>
@@ -16985,7 +18360,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B24 &amp; """, Pokedex." &amp; C24 &amp; ", Rarity." &amp; F24 &amp; ", Types." &amp; D24 &amp; ", Sets." &amp; E24 &amp; ", " &amp; A24 &amp; "),"</f>
         <v>new Card("Crabominable", Pokedex.Crabominable, Rarity.Special_Art_Pokemon_SV, Types.Water, Sets.Stellar_Crown, 149),</v>
       </c>
     </row>
@@ -17009,7 +18384,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B25 &amp; """, Pokedex." &amp; C25 &amp; ", Rarity." &amp; F25 &amp; ", Types." &amp; D25 &amp; ", Sets." &amp; E25 &amp; ", " &amp; A25 &amp; "),"</f>
         <v>new Card("Joltik", Pokedex.Joltik, Rarity.Special_Art_Pokemon_SV, Types.Lightning, Sets.Stellar_Crown, 150),</v>
       </c>
     </row>
@@ -17033,7 +18408,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B26 &amp; """, Pokedex." &amp; C26 &amp; ", Rarity." &amp; F26 &amp; ", Types." &amp; D26 &amp; ", Sets." &amp; E26 &amp; ", " &amp; A26 &amp; "),"</f>
         <v>new Card("Zeraora", Pokedex.Zeraora, Rarity.Special_Art_Pokemon_SV, Types.Lightning, Sets.Stellar_Crown, 151),</v>
       </c>
     </row>
@@ -17057,7 +18432,7 @@
         <v>80</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B27 &amp; """, Pokedex." &amp; C27 &amp; ", Rarity." &amp; F27 &amp; ", Types." &amp; D27 &amp; ", Sets." &amp; E27 &amp; ", " &amp; A27 &amp; "),"</f>
         <v>new Card("Milcery", Pokedex.Milcery, Rarity.Special_Art_Pokemon_SV, Types.Psychic, Sets.Stellar_Crown, 152),</v>
       </c>
     </row>
@@ -17081,7 +18456,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B28 &amp; """, Pokedex." &amp; C28 &amp; ", Rarity." &amp; F28 &amp; ", Types." &amp; D28 &amp; ", Sets." &amp; E28 &amp; ", " &amp; A28 &amp; "),"</f>
         <v>new Card("Meditite", Pokedex.Meditite, Rarity.Special_Art_Pokemon_SV, Types.Fighting, Sets.Stellar_Crown, 153),</v>
       </c>
     </row>
@@ -17105,7 +18480,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B29 &amp; """, Pokedex." &amp; C29 &amp; ", Rarity." &amp; F29 &amp; ", Types." &amp; D29 &amp; ", Sets." &amp; E29 &amp; ", " &amp; A29 &amp; "),"</f>
         <v>new Card("Gulpin", Pokedex.Gulpin, Rarity.Special_Art_Pokemon_SV, Types.Darkness, Sets.Stellar_Crown, 154),</v>
       </c>
     </row>
@@ -17129,7 +18504,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B30 &amp; """, Pokedex." &amp; C30 &amp; ", Rarity." &amp; F30 &amp; ", Types." &amp; D30 &amp; ", Sets." &amp; E30 &amp; ", " &amp; A30 &amp; "),"</f>
         <v>new Card("Archaludon", Pokedex.Archaludon, Rarity.Special_Art_Pokemon_SV, Types.Metal, Sets.Stellar_Crown, 155),</v>
       </c>
     </row>
@@ -17153,7 +18528,7 @@
         <v>82</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B31 &amp; """, Pokedex." &amp; C31 &amp; ", Rarity." &amp; F31 &amp; ", Types." &amp; D31 &amp; ", Sets." &amp; E31 &amp; ", " &amp; A31 &amp; "),"</f>
         <v>new Card("Hydrapple ex", Pokedex.Hydrapple, Rarity.ex_SV_Full_Art, Types.Grass, Sets.Stellar_Crown, 156),</v>
       </c>
     </row>
@@ -17177,7 +18552,7 @@
         <v>81</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B32 &amp; """, Pokedex." &amp; C32 &amp; ", Rarity." &amp; F32 &amp; ", Types." &amp; D32 &amp; ", Sets." &amp; E32 &amp; ", " &amp; A32 &amp; "),"</f>
         <v>new Card("Cinderace ex", Pokedex.Cinderace, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Stellar_Fire, Sets.Stellar_Crown, 157),</v>
       </c>
     </row>
@@ -17201,7 +18576,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B33 &amp; """, Pokedex." &amp; C33 &amp; ", Rarity." &amp; F33 &amp; ", Types." &amp; D33 &amp; ", Sets." &amp; E33 &amp; ", " &amp; A33 &amp; "),"</f>
         <v>new Card("Lapras ex", Pokedex.Lapras, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Stellar_Water, Sets.Stellar_Crown, 158),</v>
       </c>
     </row>
@@ -17225,7 +18600,7 @@
         <v>81</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B34 &amp; """, Pokedex." &amp; C34 &amp; ", Rarity." &amp; F34 &amp; ", Types." &amp; D34 &amp; ", Sets." &amp; E34 &amp; ", " &amp; A34 &amp; "),"</f>
         <v>new Card("Galvantula ex", Pokedex.Galvantula, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Stellar_Lightning, Sets.Stellar_Crown, 159),</v>
       </c>
     </row>
@@ -17249,7 +18624,7 @@
         <v>82</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B35 &amp; """, Pokedex." &amp; C35 &amp; ", Rarity." &amp; F35 &amp; ", Types." &amp; D35 &amp; ", Sets." &amp; E35 &amp; ", " &amp; A35 &amp; "),"</f>
         <v>new Card("Dachsbun ex", Pokedex.Dachsbun, Rarity.ex_SV_Full_Art, Types.Psychic, Sets.Stellar_Crown, 160),</v>
       </c>
     </row>
@@ -17273,7 +18648,7 @@
         <v>82</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B36 &amp; """, Pokedex." &amp; C36 &amp; ", Rarity." &amp; F36 &amp; ", Types." &amp; D36 &amp; ", Sets." &amp; E36 &amp; ", " &amp; A36 &amp; "),"</f>
         <v>new Card("Medicham ex", Pokedex.Medicham, Rarity.ex_SV_Full_Art, Types.Fighting, Sets.Stellar_Crown, 161),</v>
       </c>
     </row>
@@ -17297,7 +18672,7 @@
         <v>82</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B37 &amp; """, Pokedex." &amp; C37 &amp; ", Rarity." &amp; F37 &amp; ", Types." &amp; D37 &amp; ", Sets." &amp; E37 &amp; ", " &amp; A37 &amp; "),"</f>
         <v>new Card("Orthworm ex", Pokedex.Orthworm, Rarity.ex_SV_Full_Art, Types.Metal, Sets.Stellar_Crown, 162),</v>
       </c>
     </row>
@@ -17321,7 +18696,7 @@
         <v>83</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B38 &amp; """, Pokedex." &amp; C38 &amp; ", Rarity." &amp; F38 &amp; ", Types." &amp; D38 &amp; ", Sets." &amp; E38 &amp; ", " &amp; A38 &amp; "),"</f>
         <v>new Card("Briar", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Stellar_Crown, 163),</v>
       </c>
     </row>
@@ -17345,7 +18720,7 @@
         <v>83</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B39 &amp; """, Pokedex." &amp; C39 &amp; ", Rarity." &amp; F39 &amp; ", Types." &amp; D39 &amp; ", Sets." &amp; E39 &amp; ", " &amp; A39 &amp; "),"</f>
         <v>new Card("Crispin", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Stellar_Crown, 164),</v>
       </c>
     </row>
@@ -17369,7 +18744,7 @@
         <v>83</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B40 &amp; """, Pokedex." &amp; C40 &amp; ", Rarity." &amp; F40 &amp; ", Types." &amp; D40 &amp; ", Sets." &amp; E40 &amp; ", " &amp; A40 &amp; "),"</f>
         <v>new Card("Kofu", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Stellar_Crown, 165),</v>
       </c>
     </row>
@@ -17393,7 +18768,7 @@
         <v>83</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B41 &amp; """, Pokedex." &amp; C41 &amp; ", Rarity." &amp; F41 &amp; ", Types." &amp; D41 &amp; ", Sets." &amp; E41 &amp; ", " &amp; A41 &amp; "),"</f>
         <v>new Card("Lacey", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Stellar_Crown, 166),</v>
       </c>
     </row>
@@ -17417,7 +18792,7 @@
         <v>85</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B42 &amp; """, Pokedex." &amp; C42 &amp; ", Rarity." &amp; F42 &amp; ", Types." &amp; D42 &amp; ", Sets." &amp; E42 &amp; ", " &amp; A42 &amp; "),"</f>
         <v>new Card("Hydrapple ex", Pokedex.Hydrapple, Rarity.ex_SV_Special_Art, Types.Grass, Sets.Stellar_Crown, 167),</v>
       </c>
     </row>
@@ -17441,7 +18816,7 @@
         <v>84</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B43 &amp; """, Pokedex." &amp; C43 &amp; ", Rarity." &amp; F43 &amp; ", Types." &amp; D43 &amp; ", Sets." &amp; E43 &amp; ", " &amp; A43 &amp; "),"</f>
         <v>new Card("Galvantula ex", Pokedex.Galvantula, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Lightning, Sets.Stellar_Crown, 168),</v>
       </c>
     </row>
@@ -17465,7 +18840,7 @@
         <v>85</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B44 &amp; """, Pokedex." &amp; C44 &amp; ", Rarity." &amp; F44 &amp; ", Types." &amp; D44 &amp; ", Sets." &amp; E44 &amp; ", " &amp; A44 &amp; "),"</f>
         <v>new Card("Dachsbun ex", Pokedex.Dachsbun, Rarity.ex_SV_Special_Art, Types.Psychic, Sets.Stellar_Crown, 169),</v>
       </c>
     </row>
@@ -17489,7 +18864,7 @@
         <v>84</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B45 &amp; """, Pokedex." &amp; C45 &amp; ", Rarity." &amp; F45 &amp; ", Types." &amp; D45 &amp; ", Sets." &amp; E45 &amp; ", " &amp; A45 &amp; "),"</f>
         <v>new Card("Terapagos ex", Pokedex.Terapagos, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Terapagos, Sets.Stellar_Crown, 170),</v>
       </c>
     </row>
@@ -17513,7 +18888,7 @@
         <v>86</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B46 &amp; """, Pokedex." &amp; C46 &amp; ", Rarity." &amp; F46 &amp; ", Types." &amp; D46 &amp; ", Sets." &amp; E46 &amp; ", " &amp; A46 &amp; "),"</f>
         <v>new Card("Briar", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Stellar_Crown, 171),</v>
       </c>
     </row>
@@ -17537,7 +18912,7 @@
         <v>86</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B47 &amp; """, Pokedex." &amp; C47 &amp; ", Rarity." &amp; F47 &amp; ", Types." &amp; D47 &amp; ", Sets." &amp; E47 &amp; ", " &amp; A47 &amp; "),"</f>
         <v>new Card("Lacey", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Stellar_Crown, 172),</v>
       </c>
     </row>
@@ -17561,7 +18936,7 @@
         <v>87</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B48 &amp; """, Pokedex." &amp; C48 &amp; ", Rarity." &amp; F48 &amp; ", Types." &amp; D48 &amp; ", Sets." &amp; E48 &amp; ", " &amp; A48 &amp; "),"</f>
         <v>new Card("Terapagos ex", Pokedex.Terapagos, Rarity.ex_SV_Tera_Gold, Types.Tera_Stellar_Terapagos, Sets.Stellar_Crown, 173),</v>
       </c>
     </row>
@@ -17585,7 +18960,7 @@
         <v>88</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B49 &amp; """, Pokedex." &amp; C49 &amp; ", Rarity." &amp; F49 &amp; ", Types." &amp; D49 &amp; ", Sets." &amp; E49 &amp; ", " &amp; A49 &amp; "),"</f>
         <v>new Card("Area Zero Underdepths", Pokedex.NVT, Rarity.Gold_Stadium_SV, Types.Stadium, Sets.Stellar_Crown, 174),</v>
       </c>
     </row>
@@ -17609,7 +18984,7 @@
         <v>133</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="0"/>
+        <f>"new Card(""" &amp; B50 &amp; """, Pokedex." &amp; C50 &amp; ", Rarity." &amp; F50 &amp; ", Types." &amp; D50 &amp; ", Sets." &amp; E50 &amp; ", " &amp; A50 &amp; "),"</f>
         <v>new Card("Bravery Charm", Pokedex.NVT, Rarity.Gold_Item_SV, Types.Tool, Sets.Stellar_Crown, 175),</v>
       </c>
     </row>
@@ -17619,181 +18994,181 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5F96F9-1156-44CE-8686-B127A4E0F488}">
-  <dimension ref="A1:G35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BB20D5-122A-48D9-B1F1-D43938A4D39A}">
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:G35"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>673</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>674</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F1" t="s">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="G1" t="str">
-        <f t="shared" ref="G1:G35" si="0">"new Card(""" &amp; B1 &amp; """, Pokedex." &amp; C1 &amp; ", Rarity." &amp; F1 &amp; ", Types." &amp; D1 &amp; ", Sets." &amp; E1 &amp; ", " &amp; A1 &amp; "),"</f>
-        <v>new Card("Fidough", Pokedex.Fidough, Rarity.Shiny_Vault_SV, Types.Psychic, Sets.SV_Promo, 69),</v>
+        <f>"new Card(""" &amp; B1 &amp; """, Pokedex." &amp; C1 &amp; ", Rarity." &amp; F1 &amp; ", Types." &amp; D1 &amp; ", Sets." &amp; E1 &amp; ", " &amp; A1 &amp; "),"</f>
+        <v>new Card("Durant ex", Pokedex.Durant, Rarity.ex_SV, Types.Grass, Sets.Surging_Sparks, 4),</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>676</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>627</v>
       </c>
       <c r="E2" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F2" t="s">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" si="0"/>
-        <v>new Card("Greavard", Pokedex.Greavard, Rarity.Shiny_Vault_SV, Types.Psychic, Sets.SV_Promo, 70),</v>
+        <f t="shared" ref="G2:G65" si="0">"new Card(""" &amp; B2 &amp; """, Pokedex." &amp; C2 &amp; ", Rarity." &amp; F2 &amp; ", Types." &amp; D2 &amp; ", Sets." &amp; E2 &amp; ", " &amp; A2 &amp; "),"</f>
+        <v>new Card("Ceruledge ex", Pokedex.Ceruledge, Rarity.ex_SV_Tera, Types.Tera_Stellar_Fire, Sets.Surging_Sparks, 36),</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>445</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F3" t="s">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Maschiff", Pokedex.Maschiff, Rarity.Shiny_Vault_SV, Types.Darkness, Sets.SV_Promo, 71),</v>
+        <v>new Card("Scovillain ex", Pokedex.Scovillain, Rarity.ex_SV, Types.Fire, Sets.Surging_Sparks, 37),</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>677</v>
       </c>
       <c r="C4" t="s">
-        <v>375</v>
+        <v>678</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F4" t="s">
-        <v>407</v>
+        <v>78</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Great Tuskex", Pokedex.Great_Tusk, Rarity.ex_SV_Ancient_Shiny_Full_Art, Types.Fighting, Sets.SV_Promo, 72),</v>
+        <v>new Card("Milotic ex", Pokedex.Milotic, Rarity.ex_SV, Types.Water, Sets.Surging_Sparks, 42),</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>679</v>
       </c>
       <c r="C5" t="s">
-        <v>376</v>
+        <v>680</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F5" t="s">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Iron Treadsex", Pokedex.Iron_Treads, Rarity.ex_SV_Future_Shiny_Full_Art, Types.Metal, Sets.SV_Promo, 73),</v>
+        <v>new Card("Black Kyurem ex", Pokedex.Black_Kyurem, Rarity.ex_SV, Types.Water, Sets.Surging_Sparks, 48),</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>476</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>629</v>
       </c>
       <c r="E6" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F6" t="s">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Charizardex", Pokedex.Charizard, Rarity.ex_SV_Tera_Shiny_Full_Art, Types.Tera_Dark, Sets.SV_Promo, 74),</v>
+        <v>new Card("Pikachu ex", Pokedex.Pikachu, Rarity.ex_SV_Tera, Types.Tera_Stellar_Lightning, Sets.Surging_Sparks, 57),</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>681</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F7" t="s">
-        <v>387</v>
+        <v>78</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Mimikyu", Pokedex.Mimikyu, Rarity.Special_Art_Pokemon_SV_Shiny, Types.Psychic, Sets.SV_Promo, 75),</v>
+        <v>new Card("Kilowattrel ex", Pokedex.Kilowattrel, Rarity.ex_SV, Types.Lightning, Sets.Surging_Sparks, 68),</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -17801,671 +19176,1919 @@
         <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>395</v>
+        <v>682</v>
       </c>
       <c r="C8" t="s">
-        <v>395</v>
+        <v>683</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F8" t="s">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Sprigatito", Pokedex.Sprigatito, Rarity.Shiny_Vault_SV, Types.Grass, Sets.SV_Promo, 76),</v>
+        <v>new Card("Latias ex", Pokedex.Latias, Rarity.ex_SV, Types.Psychic, Sets.Surging_Sparks, 76),</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>396</v>
+        <v>684</v>
       </c>
       <c r="C9" t="s">
-        <v>396</v>
+        <v>685</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="E9" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F9" t="s">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Floragato", Pokedex.Floragato, Rarity.Shiny_Vault_SV, Types.Grass, Sets.SV_Promo, 77),</v>
+        <v>new Card("Sylveon ex", Pokedex.Sylveon, Rarity.ex_SV_Tera, Types.Tera_Stellar_Psychic, Sets.Surging_Sparks, 86),</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>397</v>
+        <v>686</v>
       </c>
       <c r="C10" t="s">
-        <v>404</v>
+        <v>687</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="E10" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F10" t="s">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Meowscaradaex", Pokedex.Meowscarada, Rarity.ex_SV_Shiny_Full_Art, Types.Grass, Sets.SV_Promo, 78),</v>
+        <v>new Card("Palossand ex", Pokedex.Palossand, Rarity.ex_SV_Tera, Types.Tera_Stellar_Psychic, Sets.Surging_Sparks, 91),</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>688</v>
+      </c>
+      <c r="C11" t="s">
+        <v>689</v>
+      </c>
+      <c r="D11" t="s">
+        <v>703</v>
+      </c>
+      <c r="E11" t="s">
+        <v>701</v>
+      </c>
+      <c r="F11" t="s">
         <v>79</v>
       </c>
-      <c r="B11" t="s">
-        <v>398</v>
-      </c>
-      <c r="C11" t="s">
-        <v>398</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>406</v>
-      </c>
-      <c r="F11" t="s">
-        <v>385</v>
-      </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Fuecoco", Pokedex.Fuecoco, Rarity.Shiny_Vault_SV, Types.Fire, Sets.SV_Promo, 79),</v>
+        <v>new Card("Flygon ex", Pokedex.Flygon, Rarity.ex_SV_Tera, Types.Tera_Stellar_Fighting, Sets.Surging_Sparks, 106),</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>399</v>
+        <v>690</v>
       </c>
       <c r="C12" t="s">
-        <v>399</v>
+        <v>691</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>704</v>
       </c>
       <c r="E12" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F12" t="s">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Crocalor", Pokedex.Crocalor, Rarity.Shiny_Vault_SV, Types.Fire, Sets.SV_Promo, 80),</v>
+        <v>new Card("Hydreigon ex", Pokedex.Hydreigon, Rarity.ex_SV_Tera, Types.Tera_Stellar_Darkness, Sets.Surging_Sparks, 119),</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>400</v>
+        <v>693</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>598</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F13" t="s">
-        <v>386</v>
+        <v>78</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Skeledirgeex", Pokedex.Skeledirge, Rarity.ex_SV_Shiny_Full_Art, Types.Fire, Sets.SV_Promo, 81),</v>
+        <v>new Card("Archaludon ex", Pokedex.Archaludon, Rarity.ex_SV, Types.Metal, Sets.Surging_Sparks, 130),</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>401</v>
+        <v>694</v>
       </c>
       <c r="C14" t="s">
-        <v>401</v>
+        <v>695</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>705</v>
       </c>
       <c r="E14" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F14" t="s">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Quaxly", Pokedex.Quaxly, Rarity.Shiny_Vault_SV, Types.Water, Sets.SV_Promo, 82),</v>
+        <v>new Card("Alolan Exeggutor ex", Pokedex.Alolan_Exeggutor, Rarity.ex_SV_Tera, Types.Tera_Stellar_Dragon, Sets.Surging_Sparks, 133),</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
-        <v>402</v>
+        <v>696</v>
       </c>
       <c r="C15" t="s">
-        <v>402</v>
+        <v>309</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>705</v>
       </c>
       <c r="E15" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F15" t="s">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Quaxwell", Pokedex.Quaxwell, Rarity.Shiny_Vault_SV, Types.Water, Sets.SV_Promo, 83),</v>
+        <v>new Card("Tatsugiri ex", Pokedex.Tatsugiri, Rarity.ex_SV_Tera, Types.Tera_Stellar_Dragon, Sets.Surging_Sparks, 142),</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>403</v>
+        <v>697</v>
       </c>
       <c r="C16" t="s">
-        <v>405</v>
+        <v>698</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F16" t="s">
-        <v>386</v>
+        <v>78</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Quaquavalex", Pokedex.Quaquaval, Rarity.ex_SV_Shiny_Full_Art, Types.Water, Sets.SV_Promo, 84),</v>
+        <v>new Card("Slaking ex", Pokedex.Slaking, Rarity.ex_SV, Types.Colorless, Sets.Surging_Sparks, 147),</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>474</v>
+        <v>699</v>
       </c>
       <c r="C17" t="s">
-        <v>273</v>
+        <v>167</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>706</v>
       </c>
       <c r="E17" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Mabosstiff ex", Pokedex.Mabosstiff, Rarity.ex_SV, Types.Darkness, Sets.SV_Promo, 86),</v>
+        <v>new Card("Cyclizar ex", Pokedex.Cyclizar, Rarity.ex_SV_Tera, Types.Tera_Stellar_Colorless, Sets.Surging_Sparks, 159),</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>700</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>356</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F18" t="s">
         <v>78</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Houndoom ex", Pokedex.Houndoom, Rarity.ex_SV, Types.Darkness, Sets.SV_Promo, 103),</v>
+        <v>new Card("Flamigo ex", Pokedex.Flamigo, Rarity.ex_SV, Types.Colorless, Sets.Surging_Sparks, 160),</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>654</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Melmetal ex", Pokedex.Melmetal, Rarity.ex_SV, Types.Metal, Sets.SV_Promo, 104),</v>
+        <v>new Card("Amulet of Hope", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Tool, Sets.Surging_Sparks, 162),</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>475</v>
+        <v>655</v>
       </c>
       <c r="C20" t="s">
-        <v>395</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="E20" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Sprigatito ex", Pokedex.Sprigatito, Rarity.ex_SV, Types.Grass, Sets.SV_Promo, 87),</v>
+        <v>new Card("Brilliant Blender", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Item, Sets.Surging_Sparks, 164),</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
-        <v>476</v>
+        <v>661</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F21" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Pikachu ex", Pokedex.Pikachu, Rarity.Full_Art_Pokemon_SV, Types.Lightning, Sets.SV_Promo, 88),</v>
+        <v>new Card("Energy Search Pro", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Item, Sets.Surging_Sparks, 176),</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>478</v>
+        <v>665</v>
       </c>
       <c r="C22" t="s">
-        <v>479</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F22" t="s">
-        <v>238</v>
+        <v>469</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Flutter Mane", Pokedex.Flutter_Mane, Rarity.Special_Art_Pokemon_SV_Ancient, Types.Psychic, Sets.SV_Promo, 97),</v>
+        <v>new Card("Megaton Blower", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Item, Sets.Surging_Sparks, 182),</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>480</v>
+        <v>666</v>
       </c>
       <c r="C23" t="s">
-        <v>481</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E23" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F23" t="s">
-        <v>237</v>
+        <v>469</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Iron Thorns", Pokedex.Iron_Thorns, Rarity.Special_Art_Pokemon_SV_Future, Types.Lightning, Sets.SV_Promo, 98),</v>
+        <v>new Card("Miracle Headset", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Item, Sets.Surging_Sparks, 183),</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>579</v>
+        <v>667</v>
       </c>
       <c r="C24" t="s">
-        <v>579</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Pecharunt", Pokedex.Pecharunt, Rarity.Special_Art_Pokemon_SV, Types.Darkness, Sets.SV_Promo, 129),</v>
+        <v>new Card("Precious Trolley", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Item, Sets.Surging_Sparks, 185),</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
-        <v>345</v>
+        <v>668</v>
       </c>
       <c r="C25" t="s">
-        <v>345</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F25" t="s">
-        <v>583</v>
+        <v>469</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Kingambit", Pokedex.Kingambit, Rarity.Special_Art_Pokemon_SV_Woodblock, Types.Metal, Sets.SV_Promo, 130),</v>
+        <v>new Card("Scramble Switch", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Item, Sets.Surging_Sparks, 186),</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
-        <v>573</v>
+        <v>670</v>
       </c>
       <c r="C26" t="s">
-        <v>574</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>243</v>
       </c>
       <c r="E26" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F26" t="s">
-        <v>584</v>
+        <v>469</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Kingdra ex", Pokedex.Kingdra, Rarity.ex_SV_Special_Art_Woodblock, Types.Water, Sets.SV_Promo, 131),</v>
+        <v>new Card("Enriching Energy", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Special_Energy, Sets.Surging_Sparks, 191),</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
-        <v>534</v>
+        <v>631</v>
       </c>
       <c r="C27" t="s">
-        <v>535</v>
+        <v>631</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F27" t="s">
-        <v>584</v>
+        <v>80</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Greninja ex", Pokedex.Greninja, Rarity.ex_SV_Special_Art_Woodblock, Types.Water, Sets.SV_Promo, 132),</v>
+        <v>new Card("Exeggcute", Pokedex.Exeggcute, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Surging_Sparks, 192),</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>632</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>707</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Victini ex", Pokedex.Victini, Rarity.ex_SV, Types.Fire, Sets.SV_Promo, 142),</v>
+        <v>new Card("Vivillon", Pokedex.Vivillon_Fancy, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Surging_Sparks, 193),</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>633</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>633</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Miraidon ex", Pokedex.Miraidon, Rarity.ex_SV, Types.Lightning, Sets.SV_Promo, 143),</v>
+        <v>new Card("Shiinotic", Pokedex.Shiinotic, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Surging_Sparks, 194),</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="B30" t="s">
-        <v>585</v>
+        <v>634</v>
       </c>
       <c r="C30" t="s">
-        <v>544</v>
+        <v>675</v>
       </c>
       <c r="D30" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F30" t="s">
-        <v>586</v>
+        <v>80</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Teal Mask Ogerpon", Pokedex.Ogerpon, Rarity.Special_Art_Pokemon_SV_Glitter, Types.Grass, Sets.SV_Promo, 123),</v>
+        <v>new Card("Castform Sunny Form", Pokedex.Castform_Sunny_Form, Rarity.Special_Art_Pokemon_SV, Types.Fire, Sets.Surging_Sparks, 195),</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="B31" t="s">
-        <v>599</v>
+        <v>635</v>
       </c>
       <c r="C31" t="s">
-        <v>599</v>
+        <v>635</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F31" t="s">
         <v>80</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Noctowl", Pokedex.Noctowl, Rarity.Special_Art_Pokemon_SV, Types.Colorless, Sets.SV_Promo, 141),</v>
+        <v>new Card("Larvesta", Pokedex.Larvesta, Rarity.Special_Art_Pokemon_SV, Types.Fire, Sets.Surging_Sparks, 196),</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="B32" t="s">
-        <v>449</v>
+        <v>262</v>
       </c>
       <c r="C32" t="s">
-        <v>461</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F32" t="s">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Gouging Fire ex", Pokedex.Gouging_Fire, Rarity.ex_SV_Ancient, Types.Fire, Sets.SV_Promo, 144),</v>
+        <v>new Card("Ceruledge", Pokedex.Ceruledge, Rarity.Special_Art_Pokemon_SV, Types.Fire, Sets.Surging_Sparks, 197),</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="B33" t="s">
-        <v>459</v>
+        <v>636</v>
       </c>
       <c r="C33" t="s">
-        <v>465</v>
+        <v>636</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F33" t="s">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Raging Bolt ex", Pokedex.Raging_Bolt, Rarity.ex_SV_Ancient, Types.Dragon, Sets.SV_Promo, 145),</v>
+        <v>new Card("Feebas", Pokedex.Feebas, Rarity.Special_Art_Pokemon_SV, Types.Water, Sets.Surging_Sparks, 198),</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="B34" t="s">
-        <v>452</v>
+        <v>637</v>
       </c>
       <c r="C34" t="s">
-        <v>463</v>
+        <v>637</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>406</v>
+        <v>701</v>
       </c>
       <c r="F34" t="s">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>new Card("Iron Crown ex", Pokedex.Iron_Crown, Rarity.ex_SV_Future, Types.Psychic, Sets.SV_Promo, 146),</v>
+        <v>new Card("Spheal", Pokedex.Spheal, Rarity.Special_Art_Pokemon_SV, Types.Water, Sets.Surging_Sparks, 199),</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="B35" t="s">
-        <v>453</v>
+        <v>638</v>
       </c>
       <c r="C35" t="s">
-        <v>464</v>
+        <v>638</v>
       </c>
       <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>701</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Bruxish", Pokedex.Bruxish, Rarity.Special_Art_Pokemon_SV, Types.Water, Sets.Surging_Sparks, 200),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>201</v>
+      </c>
+      <c r="B36" t="s">
+        <v>639</v>
+      </c>
+      <c r="C36" t="s">
+        <v>639</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>701</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Cetitan", Pokedex.Cetitan, Rarity.Special_Art_Pokemon_SV, Types.Water, Sets.Surging_Sparks, 201),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s">
+        <v>641</v>
+      </c>
+      <c r="C37" t="s">
+        <v>641</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>701</v>
+      </c>
+      <c r="F37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Stunfisk", Pokedex.Stunfisk, Rarity.Special_Art_Pokemon_SV, Types.Lightning, Sets.Surging_Sparks, 202),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>203</v>
+      </c>
+      <c r="B38" t="s">
+        <v>642</v>
+      </c>
+      <c r="C38" t="s">
+        <v>642</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>701</v>
+      </c>
+      <c r="F38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Latios", Pokedex.Latios, Rarity.Special_Art_Pokemon_SV, Types.Psychic, Sets.Surging_Sparks, 203),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>204</v>
+      </c>
+      <c r="B39" t="s">
+        <v>643</v>
+      </c>
+      <c r="C39" t="s">
+        <v>643</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>701</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Mesprit", Pokedex.Mesprit, Rarity.Special_Art_Pokemon_SV, Types.Psychic, Sets.Surging_Sparks, 204),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>205</v>
+      </c>
+      <c r="B40" t="s">
+        <v>644</v>
+      </c>
+      <c r="C40" t="s">
+        <v>644</v>
+      </c>
+      <c r="D40" t="s">
         <v>15</v>
       </c>
-      <c r="E35" t="s">
-        <v>406</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="E40" t="s">
+        <v>701</v>
+      </c>
+      <c r="F40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Phanpy", Pokedex.Phanpy, Rarity.Special_Art_Pokemon_SV, Types.Fighting, Sets.Surging_Sparks, 205),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>206</v>
+      </c>
+      <c r="B41" t="s">
+        <v>645</v>
+      </c>
+      <c r="C41" t="s">
+        <v>645</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>701</v>
+      </c>
+      <c r="F41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Vibrava", Pokedex.Vibrava, Rarity.Special_Art_Pokemon_SV, Types.Fighting, Sets.Surging_Sparks, 206),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>207</v>
+      </c>
+      <c r="B42" t="s">
+        <v>646</v>
+      </c>
+      <c r="C42" t="s">
+        <v>646</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>701</v>
+      </c>
+      <c r="F42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Clobbopus", Pokedex.Clobbopus, Rarity.Special_Art_Pokemon_SV, Types.Fighting, Sets.Surging_Sparks, 207),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>208</v>
+      </c>
+      <c r="B43" t="s">
+        <v>647</v>
+      </c>
+      <c r="C43" t="s">
+        <v>692</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>701</v>
+      </c>
+      <c r="F43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Alolan Dugtrio", Pokedex.Alolan_Dugtrio, Rarity.Special_Art_Pokemon_SV, Types.Metal, Sets.Surging_Sparks, 208),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>209</v>
+      </c>
+      <c r="B44" t="s">
+        <v>648</v>
+      </c>
+      <c r="C44" t="s">
+        <v>648</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>701</v>
+      </c>
+      <c r="F44" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Skarmory", Pokedex.Skarmory, Rarity.Special_Art_Pokemon_SV, Types.Metal, Sets.Surging_Sparks, 209),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>210</v>
+      </c>
+      <c r="B45" t="s">
+        <v>649</v>
+      </c>
+      <c r="C45" t="s">
+        <v>649</v>
+      </c>
+      <c r="D45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" t="s">
+        <v>701</v>
+      </c>
+      <c r="F45" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Flapple", Pokedex.Flapple, Rarity.Special_Art_Pokemon_SV, Types.Dragon, Sets.Surging_Sparks, 210),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>211</v>
+      </c>
+      <c r="B46" t="s">
+        <v>650</v>
+      </c>
+      <c r="C46" t="s">
+        <v>650</v>
+      </c>
+      <c r="D46" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" t="s">
+        <v>701</v>
+      </c>
+      <c r="F46" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Appletun", Pokedex.Appletun, Rarity.Special_Art_Pokemon_SV, Types.Dragon, Sets.Surging_Sparks, 211),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>212</v>
+      </c>
+      <c r="B47" t="s">
+        <v>651</v>
+      </c>
+      <c r="C47" t="s">
+        <v>651</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>701</v>
+      </c>
+      <c r="F47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Slakoth", Pokedex.Slakoth, Rarity.Special_Art_Pokemon_SV, Types.Colorless, Sets.Surging_Sparks, 212),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>213</v>
+      </c>
+      <c r="B48" t="s">
+        <v>652</v>
+      </c>
+      <c r="C48" t="s">
+        <v>652</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>701</v>
+      </c>
+      <c r="F48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Kecleon", Pokedex.Kecleon, Rarity.Special_Art_Pokemon_SV, Types.Colorless, Sets.Surging_Sparks, 213),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>214</v>
+      </c>
+      <c r="B49" t="s">
+        <v>653</v>
+      </c>
+      <c r="C49" t="s">
+        <v>653</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s">
+        <v>701</v>
+      </c>
+      <c r="F49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Braviary", Pokedex.Braviary, Rarity.Special_Art_Pokemon_SV, Types.Colorless, Sets.Surging_Sparks, 214),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>215</v>
+      </c>
+      <c r="B50" t="s">
+        <v>673</v>
+      </c>
+      <c r="C50" t="s">
+        <v>674</v>
+      </c>
+      <c r="D50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>701</v>
+      </c>
+      <c r="F50" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Durant ex", Pokedex.Durant, Rarity.ex_SV_Full_Art, Types.Grass, Sets.Surging_Sparks, 215),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>216</v>
+      </c>
+      <c r="B51" t="s">
+        <v>445</v>
+      </c>
+      <c r="C51" t="s">
+        <v>296</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>701</v>
+      </c>
+      <c r="F51" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Scovillain ex", Pokedex.Scovillain, Rarity.ex_SV_Full_Art, Types.Fire, Sets.Surging_Sparks, 216),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>217</v>
+      </c>
+      <c r="B52" t="s">
+        <v>677</v>
+      </c>
+      <c r="C52" t="s">
+        <v>678</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>701</v>
+      </c>
+      <c r="F52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Milotic ex", Pokedex.Milotic, Rarity.ex_SV_Full_Art, Types.Water, Sets.Surging_Sparks, 217),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>218</v>
+      </c>
+      <c r="B53" t="s">
+        <v>679</v>
+      </c>
+      <c r="C53" t="s">
+        <v>680</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>701</v>
+      </c>
+      <c r="F53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Black Kyurem ex", Pokedex.Black_Kyurem, Rarity.ex_SV_Full_Art, Types.Water, Sets.Surging_Sparks, 218),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>219</v>
+      </c>
+      <c r="B54" t="s">
+        <v>476</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>629</v>
+      </c>
+      <c r="E54" t="s">
+        <v>701</v>
+      </c>
+      <c r="F54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Pikachu ex", Pokedex.Pikachu, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Stellar_Lightning, Sets.Surging_Sparks, 219),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>220</v>
+      </c>
+      <c r="B55" t="s">
+        <v>682</v>
+      </c>
+      <c r="C55" t="s">
+        <v>683</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>701</v>
+      </c>
+      <c r="F55" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Latias ex", Pokedex.Latias, Rarity.ex_SV_Full_Art, Types.Psychic, Sets.Surging_Sparks, 220),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>221</v>
+      </c>
+      <c r="B56" t="s">
+        <v>686</v>
+      </c>
+      <c r="C56" t="s">
+        <v>687</v>
+      </c>
+      <c r="D56" t="s">
+        <v>702</v>
+      </c>
+      <c r="E56" t="s">
+        <v>701</v>
+      </c>
+      <c r="F56" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Palossand ex", Pokedex.Palossand, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Stellar_Psychic, Sets.Surging_Sparks, 221),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>222</v>
+      </c>
+      <c r="B57" t="s">
+        <v>688</v>
+      </c>
+      <c r="C57" t="s">
+        <v>689</v>
+      </c>
+      <c r="D57" t="s">
+        <v>703</v>
+      </c>
+      <c r="E57" t="s">
+        <v>701</v>
+      </c>
+      <c r="F57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Flygon ex", Pokedex.Flygon, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Stellar_Fighting, Sets.Surging_Sparks, 222),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>223</v>
+      </c>
+      <c r="B58" t="s">
+        <v>690</v>
+      </c>
+      <c r="C58" t="s">
+        <v>691</v>
+      </c>
+      <c r="D58" t="s">
+        <v>704</v>
+      </c>
+      <c r="E58" t="s">
+        <v>701</v>
+      </c>
+      <c r="F58" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Hydreigon ex", Pokedex.Hydreigon, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Stellar_Darkness, Sets.Surging_Sparks, 223),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>224</v>
+      </c>
+      <c r="B59" t="s">
+        <v>693</v>
+      </c>
+      <c r="C59" t="s">
+        <v>598</v>
+      </c>
+      <c r="D59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" t="s">
+        <v>701</v>
+      </c>
+      <c r="F59" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Archaludon ex", Pokedex.Archaludon, Rarity.ex_SV_Full_Art, Types.Metal, Sets.Surging_Sparks, 224),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>225</v>
+      </c>
+      <c r="B60" t="s">
+        <v>694</v>
+      </c>
+      <c r="C60" t="s">
+        <v>695</v>
+      </c>
+      <c r="D60" t="s">
+        <v>705</v>
+      </c>
+      <c r="E60" t="s">
+        <v>701</v>
+      </c>
+      <c r="F60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Alolan Exeggutor ex", Pokedex.Alolan_Exeggutor, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Stellar_Dragon, Sets.Surging_Sparks, 225),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>226</v>
+      </c>
+      <c r="B61" t="s">
+        <v>696</v>
+      </c>
+      <c r="C61" t="s">
+        <v>309</v>
+      </c>
+      <c r="D61" t="s">
+        <v>705</v>
+      </c>
+      <c r="E61" t="s">
+        <v>701</v>
+      </c>
+      <c r="F61" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Tatsugiri ex", Pokedex.Tatsugiri, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Stellar_Dragon, Sets.Surging_Sparks, 226),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>227</v>
+      </c>
+      <c r="B62" t="s">
+        <v>697</v>
+      </c>
+      <c r="C62" t="s">
+        <v>698</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" t="s">
+        <v>701</v>
+      </c>
+      <c r="F62" t="s">
+        <v>82</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Slaking ex", Pokedex.Slaking, Rarity.ex_SV_Full_Art, Types.Colorless, Sets.Surging_Sparks, 227),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>228</v>
+      </c>
+      <c r="B63" t="s">
+        <v>699</v>
+      </c>
+      <c r="C63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" t="s">
+        <v>706</v>
+      </c>
+      <c r="E63" t="s">
+        <v>701</v>
+      </c>
+      <c r="F63" t="s">
+        <v>81</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Cyclizar ex", Pokedex.Cyclizar, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Stellar_Colorless, Sets.Surging_Sparks, 228),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>229</v>
+      </c>
+      <c r="B64" t="s">
+        <v>656</v>
+      </c>
+      <c r="C64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" t="s">
+        <v>701</v>
+      </c>
+      <c r="F64" t="s">
+        <v>83</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Clemont's Quick Wit", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Surging_Sparks, 229),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>230</v>
+      </c>
+      <c r="B65" t="s">
+        <v>658</v>
+      </c>
+      <c r="C65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" t="s">
+        <v>701</v>
+      </c>
+      <c r="F65" t="s">
+        <v>83</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Cyrano", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Surging_Sparks, 230),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>231</v>
+      </c>
+      <c r="B66" t="s">
+        <v>659</v>
+      </c>
+      <c r="C66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" t="s">
+        <v>701</v>
+      </c>
+      <c r="F66" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" ref="G66:G87" si="1">"new Card(""" &amp; B66 &amp; """, Pokedex." &amp; C66 &amp; ", Rarity." &amp; F66 &amp; ", Types." &amp; D66 &amp; ", Sets." &amp; E66 &amp; ", " &amp; A66 &amp; "),"</f>
+        <v>new Card("Drasna", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Surging_Sparks, 231),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>232</v>
+      </c>
+      <c r="B67" t="s">
+        <v>660</v>
+      </c>
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" t="s">
+        <v>701</v>
+      </c>
+      <c r="F67" t="s">
+        <v>83</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Drayton", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Surging_Sparks, 232),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>233</v>
+      </c>
+      <c r="B68" t="s">
+        <v>663</v>
+      </c>
+      <c r="C68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" t="s">
+        <v>701</v>
+      </c>
+      <c r="F68" t="s">
+        <v>83</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Jasmine's Gaze", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Surging_Sparks, 233),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>234</v>
+      </c>
+      <c r="B69" t="s">
+        <v>664</v>
+      </c>
+      <c r="C69" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" t="s">
+        <v>701</v>
+      </c>
+      <c r="F69" t="s">
+        <v>83</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Lisia's Appeal", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Surging_Sparks, 234),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>235</v>
+      </c>
+      <c r="B70" t="s">
+        <v>669</v>
+      </c>
+      <c r="C70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" t="s">
+        <v>701</v>
+      </c>
+      <c r="F70" t="s">
+        <v>83</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Surfer", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Surging_Sparks, 235),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>236</v>
       </c>
-      <c r="G35" t="str">
-        <f t="shared" si="0"/>
-        <v>new Card("Iron Boulder ex", Pokedex.Iron_Boulder, Rarity.ex_SV_Future, Types.Fighting, Sets.SV_Promo, 147),</v>
+      <c r="B71" t="s">
+        <v>673</v>
+      </c>
+      <c r="C71" t="s">
+        <v>674</v>
+      </c>
+      <c r="D71" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>701</v>
+      </c>
+      <c r="F71" t="s">
+        <v>85</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Durant ex", Pokedex.Durant, Rarity.ex_SV_Special_Art, Types.Grass, Sets.Surging_Sparks, 236),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>237</v>
+      </c>
+      <c r="B72" t="s">
+        <v>677</v>
+      </c>
+      <c r="C72" t="s">
+        <v>678</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>701</v>
+      </c>
+      <c r="F72" t="s">
+        <v>85</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Milotic ex", Pokedex.Milotic, Rarity.ex_SV_Special_Art, Types.Water, Sets.Surging_Sparks, 237),</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>238</v>
+      </c>
+      <c r="B73" t="s">
+        <v>476</v>
+      </c>
+      <c r="C73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" t="s">
+        <v>629</v>
+      </c>
+      <c r="E73" t="s">
+        <v>701</v>
+      </c>
+      <c r="F73" t="s">
+        <v>84</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Pikachu ex", Pokedex.Pikachu, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Lightning, Sets.Surging_Sparks, 238),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>239</v>
+      </c>
+      <c r="B74" t="s">
+        <v>682</v>
+      </c>
+      <c r="C74" t="s">
+        <v>683</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>701</v>
+      </c>
+      <c r="F74" t="s">
+        <v>85</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Latias ex", Pokedex.Latias, Rarity.ex_SV_Special_Art, Types.Psychic, Sets.Surging_Sparks, 239),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>240</v>
+      </c>
+      <c r="B75" t="s">
+        <v>690</v>
+      </c>
+      <c r="C75" t="s">
+        <v>691</v>
+      </c>
+      <c r="D75" t="s">
+        <v>704</v>
+      </c>
+      <c r="E75" t="s">
+        <v>701</v>
+      </c>
+      <c r="F75" t="s">
+        <v>84</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Hydreigon ex", Pokedex.Hydreigon, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Darkness, Sets.Surging_Sparks, 240),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>241</v>
+      </c>
+      <c r="B76" t="s">
+        <v>693</v>
+      </c>
+      <c r="C76" t="s">
+        <v>598</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" t="s">
+        <v>701</v>
+      </c>
+      <c r="F76" t="s">
+        <v>85</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Archaludon ex", Pokedex.Archaludon, Rarity.ex_SV_Special_Art, Types.Metal, Sets.Surging_Sparks, 241),</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>242</v>
+      </c>
+      <c r="B77" t="s">
+        <v>694</v>
+      </c>
+      <c r="C77" t="s">
+        <v>695</v>
+      </c>
+      <c r="D77" t="s">
+        <v>705</v>
+      </c>
+      <c r="E77" t="s">
+        <v>701</v>
+      </c>
+      <c r="F77" t="s">
+        <v>84</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Alolan Exeggutor ex", Pokedex.Alolan_Exeggutor, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Dragon, Sets.Surging_Sparks, 242),</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>243</v>
+      </c>
+      <c r="B78" t="s">
+        <v>656</v>
+      </c>
+      <c r="C78" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E78" t="s">
+        <v>701</v>
+      </c>
+      <c r="F78" t="s">
+        <v>86</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Clemont's Quick Wit", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Surging_Sparks, 243),</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>244</v>
+      </c>
+      <c r="B79" t="s">
+        <v>660</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" t="s">
+        <v>75</v>
+      </c>
+      <c r="E79" t="s">
+        <v>701</v>
+      </c>
+      <c r="F79" t="s">
+        <v>86</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Drayton", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Surging_Sparks, 244),</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>245</v>
+      </c>
+      <c r="B80" t="s">
+        <v>663</v>
+      </c>
+      <c r="C80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" t="s">
+        <v>75</v>
+      </c>
+      <c r="E80" t="s">
+        <v>701</v>
+      </c>
+      <c r="F80" t="s">
+        <v>86</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Jasmine's Gaze", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Surging_Sparks, 245),</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>246</v>
+      </c>
+      <c r="B81" t="s">
+        <v>664</v>
+      </c>
+      <c r="C81" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" t="s">
+        <v>75</v>
+      </c>
+      <c r="E81" t="s">
+        <v>701</v>
+      </c>
+      <c r="F81" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Lisia's Appeal", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Surging_Sparks, 246),</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>247</v>
+      </c>
+      <c r="B82" t="s">
+        <v>476</v>
+      </c>
+      <c r="C82" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" t="s">
+        <v>629</v>
+      </c>
+      <c r="E82" t="s">
+        <v>701</v>
+      </c>
+      <c r="F82" t="s">
+        <v>87</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Pikachu ex", Pokedex.Pikachu, Rarity.ex_SV_Tera_Gold, Types.Tera_Stellar_Lightning, Sets.Surging_Sparks, 247),</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>248</v>
+      </c>
+      <c r="B83" t="s">
+        <v>694</v>
+      </c>
+      <c r="C83" t="s">
+        <v>695</v>
+      </c>
+      <c r="D83" t="s">
+        <v>705</v>
+      </c>
+      <c r="E83" t="s">
+        <v>701</v>
+      </c>
+      <c r="F83" t="s">
+        <v>87</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Alolan Exeggutor ex", Pokedex.Alolan_Exeggutor, Rarity.ex_SV_Tera_Gold, Types.Tera_Stellar_Dragon, Sets.Surging_Sparks, 248),</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>249</v>
+      </c>
+      <c r="B84" t="s">
+        <v>657</v>
+      </c>
+      <c r="C84" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" t="s">
+        <v>182</v>
+      </c>
+      <c r="E84" t="s">
+        <v>701</v>
+      </c>
+      <c r="F84" t="s">
+        <v>133</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Counter Gain", Pokedex.NVT, Rarity.Gold_Item_SV, Types.Tool, Sets.Surging_Sparks, 249),</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>250</v>
+      </c>
+      <c r="B85" t="s">
+        <v>662</v>
+      </c>
+      <c r="C85" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" t="s">
+        <v>76</v>
+      </c>
+      <c r="E85" t="s">
+        <v>701</v>
+      </c>
+      <c r="F85" t="s">
+        <v>88</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Gravity Mountain", Pokedex.NVT, Rarity.Gold_Stadium_SV, Types.Stadium, Sets.Surging_Sparks, 250),</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>251</v>
+      </c>
+      <c r="B86" t="s">
+        <v>671</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" t="s">
+        <v>701</v>
+      </c>
+      <c r="F86" t="s">
+        <v>133</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Night Stretcher", Pokedex.NVT, Rarity.Gold_Item_SV, Types.Item, Sets.Surging_Sparks, 251),</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>252</v>
+      </c>
+      <c r="B87" t="s">
+        <v>672</v>
+      </c>
+      <c r="C87" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" t="s">
+        <v>243</v>
+      </c>
+      <c r="E87" t="s">
+        <v>701</v>
+      </c>
+      <c r="F87" t="s">
+        <v>522</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Jet Energy", Pokedex.NVT, Rarity.Gold_Special_Energy_SV, Types.Special_Energy, Sets.Surging_Sparks, 252),</v>
       </c>
     </row>
   </sheetData>

--- a/docs/UltraRareCards.xlsx
+++ b/docs/UltraRareCards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\PHP\TCG\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10750947-01CC-413B-AE32-A9BB647788E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C878C103-FB4D-4925-B2D0-221899490343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{E655B03A-0615-48A1-906C-9E73CC102A05}"/>
+    <workbookView xWindow="10584" yWindow="0" windowWidth="12600" windowHeight="8892" firstSheet="7" activeTab="9" xr2:uid="{E655B03A-0615-48A1-906C-9E73CC102A05}"/>
   </bookViews>
   <sheets>
     <sheet name="SV OBF" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,9 @@
     <sheet name="SV SFA" sheetId="8" r:id="rId7"/>
     <sheet name="SV SCR" sheetId="9" r:id="rId8"/>
     <sheet name="SV SSP" sheetId="12" r:id="rId9"/>
-    <sheet name="SVP" sheetId="5" r:id="rId10"/>
-    <sheet name="Helper" sheetId="11" r:id="rId11"/>
+    <sheet name="SV PRE" sheetId="13" r:id="rId10"/>
+    <sheet name="SVP" sheetId="5" r:id="rId11"/>
+    <sheet name="Helper" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3783" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="756">
   <si>
     <t>Grass</t>
   </si>
@@ -2200,6 +2201,120 @@
   </si>
   <si>
     <t>Teal_Mask_Ogerpon</t>
+  </si>
+  <si>
+    <t>Leafeon</t>
+  </si>
+  <si>
+    <t>Flareon</t>
+  </si>
+  <si>
+    <t>Vaporeon</t>
+  </si>
+  <si>
+    <t>Glaceon</t>
+  </si>
+  <si>
+    <t>Jolteon</t>
+  </si>
+  <si>
+    <t>Espeon</t>
+  </si>
+  <si>
+    <t>Umbreon</t>
+  </si>
+  <si>
+    <t>Amarys</t>
+  </si>
+  <si>
+    <t>Friends in Paldea</t>
+  </si>
+  <si>
+    <t>Larry's Skill</t>
+  </si>
+  <si>
+    <t>Max Rod</t>
+  </si>
+  <si>
+    <t>Treasure Tracker</t>
+  </si>
+  <si>
+    <t>Atticus</t>
+  </si>
+  <si>
+    <t>Brassius</t>
+  </si>
+  <si>
+    <t>Giacomo</t>
+  </si>
+  <si>
+    <t>Raifort</t>
+  </si>
+  <si>
+    <t>Tyme</t>
+  </si>
+  <si>
+    <t>Leafeon ex</t>
+  </si>
+  <si>
+    <t>Flareon ex</t>
+  </si>
+  <si>
+    <t>Hearthflame_Mask_Ogerpon</t>
+  </si>
+  <si>
+    <t>Vaporeon ex</t>
+  </si>
+  <si>
+    <t>Glaceon ex</t>
+  </si>
+  <si>
+    <t>Wellspring_Mask_Ogerpon</t>
+  </si>
+  <si>
+    <t>Jolteon ex</t>
+  </si>
+  <si>
+    <t>Espeon ex</t>
+  </si>
+  <si>
+    <t>Cornerstone_Mask_Ogerpon</t>
+  </si>
+  <si>
+    <t>Umbreon ex</t>
+  </si>
+  <si>
+    <t>Eevee ex</t>
+  </si>
+  <si>
+    <t>Snorlax ex</t>
+  </si>
+  <si>
+    <t>Lugia ex</t>
+  </si>
+  <si>
+    <t>Lugia</t>
+  </si>
+  <si>
+    <t>Noivern ex</t>
+  </si>
+  <si>
+    <t>Tera_Stellar_Grass</t>
+  </si>
+  <si>
+    <t>Prismatic_Evolutions</t>
+  </si>
+  <si>
+    <t>ex_SV_Gold_Silhouette_Future</t>
+  </si>
+  <si>
+    <t>ex_SV_Gold_Silhouette_Tera</t>
+  </si>
+  <si>
+    <t>ex_SV_Gold_Silhouette_Ancient</t>
+  </si>
+  <si>
+    <t>Special_Art_Trainer_SV_Border</t>
   </si>
 </sst>
 </file>
@@ -3912,10 +4027,1996 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16A4167-E9A2-49D0-8EAC-D962881281E3}">
+  <dimension ref="A1:L80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E1" t="s">
+        <v>751</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"new Card(""" &amp; B1 &amp; """, Pokedex." &amp; C1 &amp; ", Rarity." &amp; F1 &amp; ", Types." &amp; D1 &amp; ", Sets." &amp; E1 &amp; ", " &amp; A1 &amp; "),"</f>
+        <v>new Card("Leafeon ex", Pokedex.Leafeon, Rarity.ex_SV_Tera, Types.Tera_Stellar_Grass, Sets.Prismatic_Evolutions, 6),</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" ref="K1:K3" si="0">IF(OR(J1 = "Common",J1 = "Uncommon", J1 = "Rare"), "", "&lt;- DEZE")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>751</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G65" si="1">"new Card(""" &amp; B2 &amp; """, Pokedex." &amp; C2 &amp; ", Rarity." &amp; F2 &amp; ", Types." &amp; D2 &amp; ", Sets." &amp; E2 &amp; ", " &amp; A2 &amp; "),"</f>
+        <v>new Card("Hydrapple ex", Pokedex.Hydrapple, Rarity.ex_SV, Types.Grass, Sets.Prismatic_Evolutions, 11),</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" t="s">
+        <v>717</v>
+      </c>
+      <c r="D3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E3" t="s">
+        <v>751</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Teal Mask Ogerpon ex", Pokedex.Teal_Mask_Ogerpon, Rarity.ex_SV_Tera, Types.Tera_Teal_Mask, Sets.Prismatic_Evolutions, 12),</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>736</v>
+      </c>
+      <c r="C4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E4" t="s">
+        <v>751</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Flareon ex", Pokedex.Flareon, Rarity.ex_SV_Tera, Types.Tera_Stellar_Fire, Sets.Prismatic_Evolutions, 14),</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="str">
+        <f>IF(OR(J4 = "Common",J4 = "Uncommon", J4 = "Rare"), "", "&lt;- DEZE")</f>
+        <v>&lt;- DEZE</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" t="s">
+        <v>737</v>
+      </c>
+      <c r="D5" t="s">
+        <v>519</v>
+      </c>
+      <c r="E5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Hearthflame Mask Ogerpon ex", Pokedex.Hearthflame_Mask_Ogerpon, Rarity.ex_SV_Tera, Types.Tera_Heartflame_Mask, Sets.Prismatic_Evolutions, 17),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>738</v>
+      </c>
+      <c r="C6" t="s">
+        <v>720</v>
+      </c>
+      <c r="D6" t="s">
+        <v>628</v>
+      </c>
+      <c r="E6" t="s">
+        <v>751</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Vaporeon ex", Pokedex.Vaporeon, Rarity.ex_SV_Tera, Types.Tera_Stellar_Water, Sets.Prismatic_Evolutions, 23),</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="str">
+        <f>IF(RIGHT(J6, 2) = "ex", LEFT(J6, LEN(J6) - 2) &amp; " ex", J6)</f>
+        <v>Absol ex</v>
+      </c>
+      <c r="L6" t="str">
+        <f>SUBSTITUTE(IF(RIGHT(J6, 2) = "ex", LEFT(J6, LEN(J6) - 2), J6), " ", "_")</f>
+        <v>Absol</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>739</v>
+      </c>
+      <c r="C7" t="s">
+        <v>721</v>
+      </c>
+      <c r="D7" t="s">
+        <v>628</v>
+      </c>
+      <c r="E7" t="s">
+        <v>751</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Glaceon ex", Pokedex.Glaceon, Rarity.ex_SV_Tera, Types.Tera_Stellar_Water, Sets.Prismatic_Evolutions, 26),</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="str">
+        <f>IF(RIGHT(J7, 2) = "ex", LEFT(J7, LEN(J7) - 2) &amp; " ex", J7)</f>
+        <v>Absol</v>
+      </c>
+      <c r="L7" t="str">
+        <f>SUBSTITUTE(IF(RIGHT(J7, 2) = "ex", LEFT(J7, LEN(J7) - 2), J7), " ", "_")</f>
+        <v>Absol</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C8" t="s">
+        <v>740</v>
+      </c>
+      <c r="D8" t="s">
+        <v>520</v>
+      </c>
+      <c r="E8" t="s">
+        <v>751</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Wellspring Mask Ogerpon ex", Pokedex.Wellspring_Mask_Ogerpon, Rarity.ex_SV_Tera, Types.Tera_Wellspring_Mask, Sets.Prismatic_Evolutions, 27),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>751</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Pikachu ex", Pokedex.Pikachu, Rarity.ex_SV, Types.Lightning, Sets.Prismatic_Evolutions, 28),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>741</v>
+      </c>
+      <c r="C10" t="s">
+        <v>722</v>
+      </c>
+      <c r="D10" t="s">
+        <v>629</v>
+      </c>
+      <c r="E10" t="s">
+        <v>751</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Jolteon ex", Pokedex.Jolteon, Rarity.ex_SV_Tera, Types.Tera_Stellar_Lightning, Sets.Prismatic_Evolutions, 30),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>751</v>
+      </c>
+      <c r="F11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Iron Hands ex", Pokedex.Iron_Hands, Rarity.ex_SV_Future, Types.Lightning, Sets.Prismatic_Evolutions, 31),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>531</v>
+      </c>
+      <c r="C12" t="s">
+        <v>481</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>751</v>
+      </c>
+      <c r="F12" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Iron Thorns ex", Pokedex.Iron_Thorns, Rarity.ex_SV_Future, Types.Lightning, Sets.Prismatic_Evolutions, 32),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>742</v>
+      </c>
+      <c r="C13" t="s">
+        <v>723</v>
+      </c>
+      <c r="D13" t="s">
+        <v>702</v>
+      </c>
+      <c r="E13" t="s">
+        <v>751</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Espeon ex", Pokedex.Espeon, Rarity.ex_SV_Tera, Types.Tera_Stellar_Psychic, Sets.Prismatic_Evolutions, 34),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>684</v>
+      </c>
+      <c r="C14" t="s">
+        <v>685</v>
+      </c>
+      <c r="D14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E14" t="s">
+        <v>751</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Sylveon ex", Pokedex.Sylveon, Rarity.ex_SV_Tera, Types.Tera_Stellar_Psychic, Sets.Prismatic_Evolutions, 41),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>620</v>
+      </c>
+      <c r="C15" t="s">
+        <v>334</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>751</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Lucario ex", Pokedex.Lucario, Rarity.ex_SV, Types.Fighting, Sets.Prismatic_Evolutions, 51),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>751</v>
+      </c>
+      <c r="F16" t="s">
+        <v>235</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Sandy Shocks ex", Pokedex.Sandy_Shocks, Rarity.ex_SV_Ancient, Types.Fighting, Sets.Prismatic_Evolutions, 56),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>536</v>
+      </c>
+      <c r="C17" t="s">
+        <v>743</v>
+      </c>
+      <c r="D17" t="s">
+        <v>521</v>
+      </c>
+      <c r="E17" t="s">
+        <v>751</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Cornerstone Mask Ogerpon ex", Pokedex.Cornerstone_Mask_Ogerpon, Rarity.ex_SV_Tera, Types.Tera_Cornerstone_Mask, Sets.Prismatic_Evolutions, 58),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>744</v>
+      </c>
+      <c r="C18" t="s">
+        <v>724</v>
+      </c>
+      <c r="D18" t="s">
+        <v>704</v>
+      </c>
+      <c r="E18" t="s">
+        <v>751</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Umbreon ex", Pokedex.Umbreon, Rarity.ex_SV_Tera, Types.Tera_Stellar_Darkness, Sets.Prismatic_Evolutions, 60),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>751</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Tyranitar ex", Pokedex.Tyranitar, Rarity.ex_SV, Types.Darkness, Sets.Prismatic_Evolutions, 64),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>537</v>
+      </c>
+      <c r="C20" t="s">
+        <v>538</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>751</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Dragapult ex", Pokedex.Dragapult, Rarity.ex_SV_Tera, Types.Tera_Dragon, Sets.Prismatic_Evolutions, 73),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>745</v>
+      </c>
+      <c r="C21" t="s">
+        <v>500</v>
+      </c>
+      <c r="D21" t="s">
+        <v>706</v>
+      </c>
+      <c r="E21" t="s">
+        <v>751</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Eevee ex", Pokedex.Eevee, Rarity.ex_SV_Tera, Types.Tera_Stellar_Colorless, Sets.Prismatic_Evolutions, 75),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>746</v>
+      </c>
+      <c r="C22" t="s">
+        <v>352</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>751</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Snorlax ex", Pokedex.Snorlax, Rarity.ex_SV, Types.Colorless, Sets.Prismatic_Evolutions, 76),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>747</v>
+      </c>
+      <c r="C23" t="s">
+        <v>748</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>751</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Lugia ex", Pokedex.Lugia, Rarity.ex_SV, Types.Colorless, Sets.Prismatic_Evolutions, 82),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>749</v>
+      </c>
+      <c r="C24" t="s">
+        <v>373</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>751</v>
+      </c>
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Noivern ex", Pokedex.Noivern, Rarity.ex_SV, Types.Colorless, Sets.Prismatic_Evolutions, 91),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>624</v>
+      </c>
+      <c r="C25" t="s">
+        <v>625</v>
+      </c>
+      <c r="D25" t="s">
+        <v>630</v>
+      </c>
+      <c r="E25" t="s">
+        <v>751</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Terapagos ex", Pokedex.Terapagos, Rarity.ex_SV_Tera, Types.Tera_Stellar_Terapagos, Sets.Prismatic_Evolutions, 92),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>116</v>
+      </c>
+      <c r="B26" t="s">
+        <v>728</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" t="s">
+        <v>751</v>
+      </c>
+      <c r="F26" t="s">
+        <v>469</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Max Rod", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Item, Sets.Prismatic_Evolutions, 116),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>117</v>
+      </c>
+      <c r="B27" t="s">
+        <v>437</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" t="s">
+        <v>751</v>
+      </c>
+      <c r="F27" t="s">
+        <v>469</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Maximum Belt", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Tool, Sets.Prismatic_Evolutions, 117),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>439</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>751</v>
+      </c>
+      <c r="F28" t="s">
+        <v>469</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Prime Catcher", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Item, Sets.Prismatic_Evolutions, 119),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>128</v>
+      </c>
+      <c r="B29" t="s">
+        <v>510</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" t="s">
+        <v>751</v>
+      </c>
+      <c r="F29" t="s">
+        <v>469</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Scoop Up Cyclone", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Item, Sets.Prismatic_Evolutions, 128),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>129</v>
+      </c>
+      <c r="B30" t="s">
+        <v>607</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" t="s">
+        <v>751</v>
+      </c>
+      <c r="F30" t="s">
+        <v>469</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Sparkling Crystal", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Tool, Sets.Prismatic_Evolutions, 129),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
+        <v>729</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>751</v>
+      </c>
+      <c r="F31" t="s">
+        <v>469</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Treasure Tracker", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Item, Sets.Prismatic_Evolutions, 131),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s">
+        <v>725</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" t="s">
+        <v>751</v>
+      </c>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Amarys", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Prismatic_Evolutions, 132),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>133</v>
+      </c>
+      <c r="B33" t="s">
+        <v>730</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" t="s">
+        <v>751</v>
+      </c>
+      <c r="F33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Atticus", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Prismatic_Evolutions, 133),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>134</v>
+      </c>
+      <c r="B34" t="s">
+        <v>730</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>751</v>
+      </c>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Atticus", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Prismatic_Evolutions, 134),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>135</v>
+      </c>
+      <c r="B35" t="s">
+        <v>731</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" t="s">
+        <v>751</v>
+      </c>
+      <c r="F35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Brassius", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Prismatic_Evolutions, 135),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
+        <v>433</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" t="s">
+        <v>751</v>
+      </c>
+      <c r="F36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Eri", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Prismatic_Evolutions, 136),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s">
+        <v>726</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" t="s">
+        <v>751</v>
+      </c>
+      <c r="F37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Friends in Paldea", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Prismatic_Evolutions, 137),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>138</v>
+      </c>
+      <c r="B38" t="s">
+        <v>732</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" t="s">
+        <v>751</v>
+      </c>
+      <c r="F38" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Giacomo", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Prismatic_Evolutions, 138),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>727</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" t="s">
+        <v>751</v>
+      </c>
+      <c r="F39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Larry's Skill", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Prismatic_Evolutions, 139),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>140</v>
+      </c>
+      <c r="B40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" t="s">
+        <v>751</v>
+      </c>
+      <c r="F40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Mela", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Prismatic_Evolutions, 140),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" t="s">
+        <v>751</v>
+      </c>
+      <c r="F41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Ortega", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Prismatic_Evolutions, 141),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>142</v>
+      </c>
+      <c r="B42" t="s">
+        <v>733</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" t="s">
+        <v>751</v>
+      </c>
+      <c r="F42" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Raifort", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Prismatic_Evolutions, 142),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>143</v>
+      </c>
+      <c r="B43" t="s">
+        <v>734</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" t="s">
+        <v>751</v>
+      </c>
+      <c r="F43" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Tyme", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Prismatic_Evolutions, 143),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>144</v>
+      </c>
+      <c r="B44" t="s">
+        <v>735</v>
+      </c>
+      <c r="C44" t="s">
+        <v>718</v>
+      </c>
+      <c r="D44" t="s">
+        <v>750</v>
+      </c>
+      <c r="E44" t="s">
+        <v>751</v>
+      </c>
+      <c r="F44" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Leafeon ex", Pokedex.Leafeon, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Grass, Sets.Prismatic_Evolutions, 144),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>145</v>
+      </c>
+      <c r="B45" t="s">
+        <v>524</v>
+      </c>
+      <c r="C45" t="s">
+        <v>717</v>
+      </c>
+      <c r="D45" t="s">
+        <v>518</v>
+      </c>
+      <c r="E45" t="s">
+        <v>751</v>
+      </c>
+      <c r="F45" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Teal Mask Ogerpon ex", Pokedex.Teal_Mask_Ogerpon, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Teal_Mask, Sets.Prismatic_Evolutions, 145),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>146</v>
+      </c>
+      <c r="B46" t="s">
+        <v>736</v>
+      </c>
+      <c r="C46" t="s">
+        <v>719</v>
+      </c>
+      <c r="D46" t="s">
+        <v>627</v>
+      </c>
+      <c r="E46" t="s">
+        <v>751</v>
+      </c>
+      <c r="F46" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Flareon ex", Pokedex.Flareon, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Fire, Sets.Prismatic_Evolutions, 146),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>147</v>
+      </c>
+      <c r="B47" t="s">
+        <v>676</v>
+      </c>
+      <c r="C47" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" t="s">
+        <v>627</v>
+      </c>
+      <c r="E47" t="s">
+        <v>751</v>
+      </c>
+      <c r="F47" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Ceruledge ex", Pokedex.Ceruledge, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Fire, Sets.Prismatic_Evolutions, 147),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>148</v>
+      </c>
+      <c r="B48" t="s">
+        <v>527</v>
+      </c>
+      <c r="C48" t="s">
+        <v>737</v>
+      </c>
+      <c r="D48" t="s">
+        <v>519</v>
+      </c>
+      <c r="E48" t="s">
+        <v>751</v>
+      </c>
+      <c r="F48" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Hearthflame Mask Ogerpon ex", Pokedex.Hearthflame_Mask_Ogerpon, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Heartflame_Mask, Sets.Prismatic_Evolutions, 148),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>149</v>
+      </c>
+      <c r="B49" t="s">
+        <v>738</v>
+      </c>
+      <c r="C49" t="s">
+        <v>720</v>
+      </c>
+      <c r="D49" t="s">
+        <v>628</v>
+      </c>
+      <c r="E49" t="s">
+        <v>751</v>
+      </c>
+      <c r="F49" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Vaporeon ex", Pokedex.Vaporeon, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Water, Sets.Prismatic_Evolutions, 149),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>150</v>
+      </c>
+      <c r="B50" t="s">
+        <v>739</v>
+      </c>
+      <c r="C50" t="s">
+        <v>721</v>
+      </c>
+      <c r="D50" t="s">
+        <v>628</v>
+      </c>
+      <c r="E50" t="s">
+        <v>751</v>
+      </c>
+      <c r="F50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Glaceon ex", Pokedex.Glaceon, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Water, Sets.Prismatic_Evolutions, 150),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>151</v>
+      </c>
+      <c r="B51" t="s">
+        <v>528</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>751</v>
+      </c>
+      <c r="F51" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Palafin ex", Pokedex.Palafin, Rarity.ex_SV_Special_Art, Types.Water, Sets.Prismatic_Evolutions, 151),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>152</v>
+      </c>
+      <c r="B52" t="s">
+        <v>529</v>
+      </c>
+      <c r="C52" t="s">
+        <v>740</v>
+      </c>
+      <c r="D52" t="s">
+        <v>520</v>
+      </c>
+      <c r="E52" t="s">
+        <v>751</v>
+      </c>
+      <c r="F52" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Wellspring Mask Ogerpon ex", Pokedex.Wellspring_Mask_Ogerpon, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Wellspring_Mask, Sets.Prismatic_Evolutions, 152),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>153</v>
+      </c>
+      <c r="B53" t="s">
+        <v>741</v>
+      </c>
+      <c r="C53" t="s">
+        <v>722</v>
+      </c>
+      <c r="D53" t="s">
+        <v>629</v>
+      </c>
+      <c r="E53" t="s">
+        <v>751</v>
+      </c>
+      <c r="F53" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Jolteon ex", Pokedex.Jolteon, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Lightning, Sets.Prismatic_Evolutions, 153),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>154</v>
+      </c>
+      <c r="B54" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>751</v>
+      </c>
+      <c r="F54" t="s">
+        <v>473</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Iron Hands ex", Pokedex.Iron_Hands, Rarity.ex_SV_Future_Special_Art, Types.Lightning, Sets.Prismatic_Evolutions, 154),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s">
+        <v>742</v>
+      </c>
+      <c r="C55" t="s">
+        <v>723</v>
+      </c>
+      <c r="D55" t="s">
+        <v>702</v>
+      </c>
+      <c r="E55" t="s">
+        <v>751</v>
+      </c>
+      <c r="F55" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Espeon ex", Pokedex.Espeon, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Psychic, Sets.Prismatic_Evolutions, 155),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>156</v>
+      </c>
+      <c r="B56" t="s">
+        <v>684</v>
+      </c>
+      <c r="C56" t="s">
+        <v>685</v>
+      </c>
+      <c r="D56" t="s">
+        <v>702</v>
+      </c>
+      <c r="E56" t="s">
+        <v>751</v>
+      </c>
+      <c r="F56" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Sylveon ex", Pokedex.Sylveon, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Psychic, Sets.Prismatic_Evolutions, 156),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>157</v>
+      </c>
+      <c r="B57" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>751</v>
+      </c>
+      <c r="F57" t="s">
+        <v>473</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Iron Valiant ex", Pokedex.Iron_Valiant, Rarity.ex_SV_Future_Special_Art, Types.Psychic, Sets.Prismatic_Evolutions, 157),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>158</v>
+      </c>
+      <c r="B58" t="s">
+        <v>452</v>
+      </c>
+      <c r="C58" t="s">
+        <v>463</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>751</v>
+      </c>
+      <c r="F58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Iron Crown ex", Pokedex.Iron_Crown, Rarity.ex_SV_Future_Special_Art, Types.Psychic, Sets.Prismatic_Evolutions, 158),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>159</v>
+      </c>
+      <c r="B59" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" t="s">
+        <v>221</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>751</v>
+      </c>
+      <c r="F59" t="s">
+        <v>472</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Sandy Shocks ex", Pokedex.Sandy_Shocks, Rarity.ex_SV_Ancient_Special_Art, Types.Fighting, Sets.Prismatic_Evolutions, 159),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>160</v>
+      </c>
+      <c r="B60" t="s">
+        <v>536</v>
+      </c>
+      <c r="C60" t="s">
+        <v>743</v>
+      </c>
+      <c r="D60" t="s">
+        <v>521</v>
+      </c>
+      <c r="E60" t="s">
+        <v>751</v>
+      </c>
+      <c r="F60" t="s">
+        <v>84</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Cornerstone Mask Ogerpon ex", Pokedex.Cornerstone_Mask_Ogerpon, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Cornerstone_Mask, Sets.Prismatic_Evolutions, 160),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>161</v>
+      </c>
+      <c r="B61" t="s">
+        <v>744</v>
+      </c>
+      <c r="C61" t="s">
+        <v>724</v>
+      </c>
+      <c r="D61" t="s">
+        <v>704</v>
+      </c>
+      <c r="E61" t="s">
+        <v>751</v>
+      </c>
+      <c r="F61" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Umbreon ex", Pokedex.Umbreon, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Darkness, Sets.Prismatic_Evolutions, 161),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>162</v>
+      </c>
+      <c r="B62" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" t="s">
+        <v>222</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>751</v>
+      </c>
+      <c r="F62" t="s">
+        <v>472</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Roaring Moon ex", Pokedex.Roaring_Moon, Rarity.ex_SV_Ancient_Special_Art, Types.Darkness, Sets.Prismatic_Evolutions, 162),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>163</v>
+      </c>
+      <c r="B63" t="s">
+        <v>578</v>
+      </c>
+      <c r="C63" t="s">
+        <v>579</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>751</v>
+      </c>
+      <c r="F63" t="s">
+        <v>85</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Pecharunt ex", Pokedex.Pecharunt, Rarity.ex_SV_Special_Art, Types.Darkness, Sets.Prismatic_Evolutions, 163),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>164</v>
+      </c>
+      <c r="B64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" t="s">
+        <v>751</v>
+      </c>
+      <c r="F64" t="s">
+        <v>85</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Gholdengo ex", Pokedex.Gholdengo, Rarity.ex_SV_Special_Art, Types.Metal, Sets.Prismatic_Evolutions, 164),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>165</v>
+      </c>
+      <c r="B65" t="s">
+        <v>537</v>
+      </c>
+      <c r="C65" t="s">
+        <v>538</v>
+      </c>
+      <c r="D65" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" t="s">
+        <v>751</v>
+      </c>
+      <c r="F65" t="s">
+        <v>84</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="1"/>
+        <v>new Card("Dragapult ex", Pokedex.Dragapult, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Dragon, Sets.Prismatic_Evolutions, 165),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>166</v>
+      </c>
+      <c r="B66" t="s">
+        <v>459</v>
+      </c>
+      <c r="C66" t="s">
+        <v>465</v>
+      </c>
+      <c r="D66" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" t="s">
+        <v>751</v>
+      </c>
+      <c r="F66" t="s">
+        <v>472</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" ref="G66:G80" si="2">"new Card(""" &amp; B66 &amp; """, Pokedex." &amp; C66 &amp; ", Rarity." &amp; F66 &amp; ", Types." &amp; D66 &amp; ", Sets." &amp; E66 &amp; ", " &amp; A66 &amp; "),"</f>
+        <v>new Card("Raging Bolt ex", Pokedex.Raging_Bolt, Rarity.ex_SV_Ancient_Special_Art, Types.Dragon, Sets.Prismatic_Evolutions, 166),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>167</v>
+      </c>
+      <c r="B67" t="s">
+        <v>745</v>
+      </c>
+      <c r="C67" t="s">
+        <v>500</v>
+      </c>
+      <c r="D67" t="s">
+        <v>706</v>
+      </c>
+      <c r="E67" t="s">
+        <v>751</v>
+      </c>
+      <c r="F67" t="s">
+        <v>84</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="2"/>
+        <v>new Card("Eevee ex", Pokedex.Eevee, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Colorless, Sets.Prismatic_Evolutions, 167),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>168</v>
+      </c>
+      <c r="B68" t="s">
+        <v>541</v>
+      </c>
+      <c r="C68" t="s">
+        <v>542</v>
+      </c>
+      <c r="D68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" t="s">
+        <v>751</v>
+      </c>
+      <c r="F68" t="s">
+        <v>85</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="2"/>
+        <v>new Card("Bloodmoon Ursaluna ex", Pokedex.Bloodmoon_Ursaluna, Rarity.ex_SV_Special_Art, Types.Colorless, Sets.Prismatic_Evolutions, 168),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>169</v>
+      </c>
+      <c r="B69" t="s">
+        <v>624</v>
+      </c>
+      <c r="C69" t="s">
+        <v>625</v>
+      </c>
+      <c r="D69" t="s">
+        <v>630</v>
+      </c>
+      <c r="E69" t="s">
+        <v>751</v>
+      </c>
+      <c r="F69" t="s">
+        <v>84</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="2"/>
+        <v>new Card("Terapagos ex", Pokedex.Terapagos, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Terapagos, Sets.Prismatic_Evolutions, 169),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>170</v>
+      </c>
+      <c r="B70" t="s">
+        <v>725</v>
+      </c>
+      <c r="C70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" t="s">
+        <v>751</v>
+      </c>
+      <c r="F70" t="s">
+        <v>755</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="2"/>
+        <v>new Card("Amarys", Pokedex.NVT, Rarity.Special_Art_Trainer_SV_Border, Types.Supporter, Sets.Prismatic_Evolutions, 170),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>171</v>
+      </c>
+      <c r="B71" t="s">
+        <v>602</v>
+      </c>
+      <c r="C71" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" t="s">
+        <v>751</v>
+      </c>
+      <c r="F71" t="s">
+        <v>755</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="2"/>
+        <v>new Card("Crispin", Pokedex.NVT, Rarity.Special_Art_Trainer_SV_Border, Types.Supporter, Sets.Prismatic_Evolutions, 171),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>172</v>
+      </c>
+      <c r="B72" t="s">
+        <v>660</v>
+      </c>
+      <c r="C72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" t="s">
+        <v>751</v>
+      </c>
+      <c r="F72" t="s">
+        <v>755</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="2"/>
+        <v>new Card("Drayton", Pokedex.NVT, Rarity.Special_Art_Trainer_SV_Border, Types.Supporter, Sets.Prismatic_Evolutions, 172),</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>173</v>
+      </c>
+      <c r="B73" t="s">
+        <v>560</v>
+      </c>
+      <c r="C73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73" t="s">
+        <v>751</v>
+      </c>
+      <c r="F73" t="s">
+        <v>86</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="2"/>
+        <v>new Card("Janine's Secret Art", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Prismatic_Evolutions, 173),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>174</v>
+      </c>
+      <c r="B74" t="s">
+        <v>506</v>
+      </c>
+      <c r="C74" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" t="s">
+        <v>751</v>
+      </c>
+      <c r="F74" t="s">
+        <v>86</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="2"/>
+        <v>new Card("Kieran", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Prismatic_Evolutions, 174),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>175</v>
+      </c>
+      <c r="B75" t="s">
+        <v>606</v>
+      </c>
+      <c r="C75" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75" t="s">
+        <v>751</v>
+      </c>
+      <c r="F75" t="s">
+        <v>755</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="2"/>
+        <v>new Card("Lacey", Pokedex.NVT, Rarity.Special_Art_Trainer_SV_Border, Types.Supporter, Sets.Prismatic_Evolutions, 175),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>176</v>
+      </c>
+      <c r="B76" t="s">
+        <v>446</v>
+      </c>
+      <c r="C76" t="s">
+        <v>460</v>
+      </c>
+      <c r="D76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>751</v>
+      </c>
+      <c r="F76" t="s">
+        <v>752</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="2"/>
+        <v>new Card("Iron Leaves ex", Pokedex.Iron_Leaves, Rarity.ex_SV_Gold_Silhouette_Future, Types.Grass, Sets.Prismatic_Evolutions, 176),</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>177</v>
+      </c>
+      <c r="B77" t="s">
+        <v>524</v>
+      </c>
+      <c r="C77" t="s">
+        <v>717</v>
+      </c>
+      <c r="D77" t="s">
+        <v>518</v>
+      </c>
+      <c r="E77" t="s">
+        <v>751</v>
+      </c>
+      <c r="F77" t="s">
+        <v>753</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="2"/>
+        <v>new Card("Teal Mask Ogerpon ex", Pokedex.Teal_Mask_Ogerpon, Rarity.ex_SV_Gold_Silhouette_Tera, Types.Tera_Teal_Mask, Sets.Prismatic_Evolutions, 177),</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>178</v>
+      </c>
+      <c r="B78" t="s">
+        <v>450</v>
+      </c>
+      <c r="C78" t="s">
+        <v>462</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>751</v>
+      </c>
+      <c r="F78" t="s">
+        <v>754</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="2"/>
+        <v>new Card("Walking Wake ex", Pokedex.Walking_Wake, Rarity.ex_SV_Gold_Silhouette_Ancient, Types.Water, Sets.Prismatic_Evolutions, 178),</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>179</v>
+      </c>
+      <c r="B79" t="s">
+        <v>476</v>
+      </c>
+      <c r="C79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" t="s">
+        <v>629</v>
+      </c>
+      <c r="E79" t="s">
+        <v>751</v>
+      </c>
+      <c r="F79" t="s">
+        <v>753</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="2"/>
+        <v>new Card("Pikachu ex", Pokedex.Pikachu, Rarity.ex_SV_Gold_Silhouette_Tera, Types.Tera_Stellar_Lightning, Sets.Prismatic_Evolutions, 179),</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>180</v>
+      </c>
+      <c r="B80" t="s">
+        <v>624</v>
+      </c>
+      <c r="C80" t="s">
+        <v>625</v>
+      </c>
+      <c r="D80" t="s">
+        <v>630</v>
+      </c>
+      <c r="E80" t="s">
+        <v>751</v>
+      </c>
+      <c r="F80" t="s">
+        <v>753</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="2"/>
+        <v>new Card("Terapagos ex", Pokedex.Terapagos, Rarity.ex_SV_Gold_Silhouette_Tera, Types.Tera_Stellar_Terapagos, Sets.Prismatic_Evolutions, 180),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5F96F9-1156-44CE-8686-B127A4E0F488}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
@@ -5027,7 +7128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5254EFC-8A47-4896-9112-37C6F31202C5}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -8964,8 +11065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B155BDF-297A-453A-ABE7-136CAC26393B}">
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12915,8 +15016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF03968-F52C-4A27-B811-3AC9359A3C1B}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14802,8 +16903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFFABD2-C62A-492F-BCC0-E097FFBBAB8B}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17785,8 +19886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F418748F-D738-402F-B110-C874A568DB73}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17832,7 +19933,7 @@
         <v>78</v>
       </c>
       <c r="G2" t="str">
-        <f>"new Card(""" &amp; B2 &amp; """, Pokedex." &amp; C2 &amp; ", Rarity." &amp; F2 &amp; ", Types." &amp; D2 &amp; ", Sets." &amp; E2 &amp; ", " &amp; A2 &amp; "),"</f>
+        <f t="shared" ref="G2:G33" si="0">"new Card(""" &amp; B2 &amp; """, Pokedex." &amp; C2 &amp; ", Rarity." &amp; F2 &amp; ", Types." &amp; D2 &amp; ", Sets." &amp; E2 &amp; ", " &amp; A2 &amp; "),"</f>
         <v>new Card("Hydrapple ex", Pokedex.Hydrapple, Rarity.ex_SV, Types.Grass, Sets.Stellar_Crown, 14),</v>
       </c>
     </row>
@@ -17856,7 +19957,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="str">
-        <f>"new Card(""" &amp; B3 &amp; """, Pokedex." &amp; C3 &amp; ", Rarity." &amp; F3 &amp; ", Types." &amp; D3 &amp; ", Sets." &amp; E3 &amp; ", " &amp; A3 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Cinderace ex", Pokedex.Cinderace, Rarity.ex_SV_Tera, Types.Tera_Stellar_Fire, Sets.Stellar_Crown, 28),</v>
       </c>
     </row>
@@ -17880,7 +19981,7 @@
         <v>78</v>
       </c>
       <c r="G4" t="str">
-        <f>"new Card(""" &amp; B4 &amp; """, Pokedex." &amp; C4 &amp; ", Rarity." &amp; F4 &amp; ", Types." &amp; D4 &amp; ", Sets." &amp; E4 &amp; ", " &amp; A4 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Blastoise ex", Pokedex.Blastoise, Rarity.ex_SV, Types.Water, Sets.Stellar_Crown, 30),</v>
       </c>
     </row>
@@ -17904,7 +20005,7 @@
         <v>79</v>
       </c>
       <c r="G5" t="str">
-        <f>"new Card(""" &amp; B5 &amp; """, Pokedex." &amp; C5 &amp; ", Rarity." &amp; F5 &amp; ", Types." &amp; D5 &amp; ", Sets." &amp; E5 &amp; ", " &amp; A5 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Lapras ex", Pokedex.Lapras, Rarity.ex_SV_Tera, Types.Tera_Stellar_Water, Sets.Stellar_Crown, 32),</v>
       </c>
     </row>
@@ -17928,7 +20029,7 @@
         <v>78</v>
       </c>
       <c r="G6" t="str">
-        <f>"new Card(""" &amp; B6 &amp; """, Pokedex." &amp; C6 &amp; ", Rarity." &amp; F6 &amp; ", Types." &amp; D6 &amp; ", Sets." &amp; E6 &amp; ", " &amp; A6 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Greninja ex", Pokedex.Greninja, Rarity.ex_SV, Types.Water, Sets.Stellar_Crown, 41),</v>
       </c>
     </row>
@@ -17952,7 +20053,7 @@
         <v>79</v>
       </c>
       <c r="G7" t="str">
-        <f>"new Card(""" &amp; B7 &amp; """, Pokedex." &amp; C7 &amp; ", Rarity." &amp; F7 &amp; ", Types." &amp; D7 &amp; ", Sets." &amp; E7 &amp; ", " &amp; A7 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Galvantula ex", Pokedex.Galvantula, Rarity.ex_SV_Tera, Types.Tera_Stellar_Lightning, Sets.Stellar_Crown, 51),</v>
       </c>
     </row>
@@ -17976,7 +20077,7 @@
         <v>78</v>
       </c>
       <c r="G8" t="str">
-        <f>"new Card(""" &amp; B8 &amp; """, Pokedex." &amp; C8 &amp; ", Rarity." &amp; F8 &amp; ", Types." &amp; D8 &amp; ", Sets." &amp; E8 &amp; ", " &amp; A8 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Dachsbun ex", Pokedex.Dachsbun, Rarity.ex_SV, Types.Psychic, Sets.Stellar_Crown, 67),</v>
       </c>
     </row>
@@ -18000,7 +20101,7 @@
         <v>78</v>
       </c>
       <c r="G9" t="str">
-        <f>"new Card(""" &amp; B9 &amp; """, Pokedex." &amp; C9 &amp; ", Rarity." &amp; F9 &amp; ", Types." &amp; D9 &amp; ", Sets." &amp; E9 &amp; ", " &amp; A9 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Medicham ex", Pokedex.Medicham, Rarity.ex_SV, Types.Fighting, Sets.Stellar_Crown, 80),</v>
       </c>
     </row>
@@ -18024,7 +20125,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="str">
-        <f>"new Card(""" &amp; B10 &amp; """, Pokedex." &amp; C10 &amp; ", Rarity." &amp; F10 &amp; ", Types." &amp; D10 &amp; ", Sets." &amp; E10 &amp; ", " &amp; A10 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Lucario ex", Pokedex.Lucario, Rarity.ex_SV, Types.Fighting, Sets.Stellar_Crown, 82),</v>
       </c>
     </row>
@@ -18048,7 +20149,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="str">
-        <f>"new Card(""" &amp; B11 &amp; """, Pokedex." &amp; C11 &amp; ", Rarity." &amp; F11 &amp; ", Types." &amp; D11 &amp; ", Sets." &amp; E11 &amp; ", " &amp; A11 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Garganacl ex", Pokedex.Garganacl, Rarity.ex_SV, Types.Fighting, Sets.Stellar_Crown, 89),</v>
       </c>
     </row>
@@ -18072,7 +20173,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="str">
-        <f>"new Card(""" &amp; B12 &amp; """, Pokedex." &amp; C12 &amp; ", Rarity." &amp; F12 &amp; ", Types." &amp; D12 &amp; ", Sets." &amp; E12 &amp; ", " &amp; A12 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Melmetal ex", Pokedex.Melmetal, Rarity.ex_SV, Types.Metal, Sets.Stellar_Crown, 105),</v>
       </c>
     </row>
@@ -18096,7 +20197,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="str">
-        <f>"new Card(""" &amp; B13 &amp; """, Pokedex." &amp; C13 &amp; ", Rarity." &amp; F13 &amp; ", Types." &amp; D13 &amp; ", Sets." &amp; E13 &amp; ", " &amp; A13 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Orthworm ex", Pokedex.Orthworm, Rarity.ex_SV, Types.Metal, Sets.Stellar_Crown, 110),</v>
       </c>
     </row>
@@ -18120,7 +20221,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="str">
-        <f>"new Card(""" &amp; B14 &amp; """, Pokedex." &amp; C14 &amp; ", Rarity." &amp; F14 &amp; ", Types." &amp; D14 &amp; ", Sets." &amp; E14 &amp; ", " &amp; A14 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Terapagos ex", Pokedex.Terapagos, Rarity.ex_SV_Tera, Types.Tera_Stellar_Terapagos, Sets.Stellar_Crown, 128),</v>
       </c>
     </row>
@@ -18144,7 +20245,7 @@
         <v>469</v>
       </c>
       <c r="G15" t="str">
-        <f>"new Card(""" &amp; B15 &amp; """, Pokedex." &amp; C15 &amp; ", Rarity." &amp; F15 &amp; ", Types." &amp; D15 &amp; ", Sets." &amp; E15 &amp; ", " &amp; A15 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Deluxe Bomb", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Tool, Sets.Stellar_Crown, 134),</v>
       </c>
     </row>
@@ -18168,7 +20269,7 @@
         <v>469</v>
       </c>
       <c r="G16" t="str">
-        <f>"new Card(""" &amp; B16 &amp; """, Pokedex." &amp; C16 &amp; ", Rarity." &amp; F16 &amp; ", Types." &amp; D16 &amp; ", Sets." &amp; E16 &amp; ", " &amp; A16 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Grand Tree", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Stadium, Sets.Stellar_Crown, 136),</v>
       </c>
     </row>
@@ -18192,7 +20293,7 @@
         <v>469</v>
       </c>
       <c r="G17" t="str">
-        <f>"new Card(""" &amp; B17 &amp; """, Pokedex." &amp; C17 &amp; ", Rarity." &amp; F17 &amp; ", Types." &amp; D17 &amp; ", Sets." &amp; E17 &amp; ", " &amp; A17 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Sparkling Crystal", Pokedex.NVT, Rarity.Ace_Spec_SV, Types.Tool, Sets.Stellar_Crown, 142),</v>
       </c>
     </row>
@@ -18216,7 +20317,7 @@
         <v>80</v>
       </c>
       <c r="G18" t="str">
-        <f>"new Card(""" &amp; B18 &amp; """, Pokedex." &amp; C18 &amp; ", Rarity." &amp; F18 &amp; ", Types." &amp; D18 &amp; ", Sets." &amp; E18 &amp; ", " &amp; A18 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Bulbasaur", Pokedex.Bulbasaur, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Stellar_Crown, 143),</v>
       </c>
     </row>
@@ -18240,7 +20341,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="str">
-        <f>"new Card(""" &amp; B19 &amp; """, Pokedex." &amp; C19 &amp; ", Rarity." &amp; F19 &amp; ", Types." &amp; D19 &amp; ", Sets." &amp; E19 &amp; ", " &amp; A19 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Ledian", Pokedex.Ledian, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Stellar_Crown, 144),</v>
       </c>
     </row>
@@ -18264,7 +20365,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="str">
-        <f>"new Card(""" &amp; B20 &amp; """, Pokedex." &amp; C20 &amp; ", Rarity." &amp; F20 &amp; ", Types." &amp; D20 &amp; ", Sets." &amp; E20 &amp; ", " &amp; A20 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Lileep", Pokedex.Lileep, Rarity.Special_Art_Pokemon_SV, Types.Grass, Sets.Stellar_Crown, 145),</v>
       </c>
     </row>
@@ -18288,7 +20389,7 @@
         <v>80</v>
       </c>
       <c r="G21" t="str">
-        <f>"new Card(""" &amp; B21 &amp; """, Pokedex." &amp; C21 &amp; ", Rarity." &amp; F21 &amp; ", Types." &amp; D21 &amp; ", Sets." &amp; E21 &amp; ", " &amp; A21 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Turtonator", Pokedex.Turtonator, Rarity.Special_Art_Pokemon_SV, Types.Fire, Sets.Stellar_Crown, 146),</v>
       </c>
     </row>
@@ -18312,7 +20413,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="str">
-        <f>"new Card(""" &amp; B22 &amp; """, Pokedex." &amp; C22 &amp; ", Rarity." &amp; F22 &amp; ", Types." &amp; D22 &amp; ", Sets." &amp; E22 &amp; ", " &amp; A22 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Raboot", Pokedex.Raboot, Rarity.Special_Art_Pokemon_SV, Types.Fire, Sets.Stellar_Crown, 147),</v>
       </c>
     </row>
@@ -18336,7 +20437,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="str">
-        <f>"new Card(""" &amp; B23 &amp; """, Pokedex." &amp; C23 &amp; ", Rarity." &amp; F23 &amp; ", Types." &amp; D23 &amp; ", Sets." &amp; E23 &amp; ", " &amp; A23 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Squirtle", Pokedex.Squirtle, Rarity.Special_Art_Pokemon_SV, Types.Water, Sets.Stellar_Crown, 148),</v>
       </c>
     </row>
@@ -18360,7 +20461,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="str">
-        <f>"new Card(""" &amp; B24 &amp; """, Pokedex." &amp; C24 &amp; ", Rarity." &amp; F24 &amp; ", Types." &amp; D24 &amp; ", Sets." &amp; E24 &amp; ", " &amp; A24 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Crabominable", Pokedex.Crabominable, Rarity.Special_Art_Pokemon_SV, Types.Water, Sets.Stellar_Crown, 149),</v>
       </c>
     </row>
@@ -18384,7 +20485,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="str">
-        <f>"new Card(""" &amp; B25 &amp; """, Pokedex." &amp; C25 &amp; ", Rarity." &amp; F25 &amp; ", Types." &amp; D25 &amp; ", Sets." &amp; E25 &amp; ", " &amp; A25 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Joltik", Pokedex.Joltik, Rarity.Special_Art_Pokemon_SV, Types.Lightning, Sets.Stellar_Crown, 150),</v>
       </c>
     </row>
@@ -18408,7 +20509,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="str">
-        <f>"new Card(""" &amp; B26 &amp; """, Pokedex." &amp; C26 &amp; ", Rarity." &amp; F26 &amp; ", Types." &amp; D26 &amp; ", Sets." &amp; E26 &amp; ", " &amp; A26 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Zeraora", Pokedex.Zeraora, Rarity.Special_Art_Pokemon_SV, Types.Lightning, Sets.Stellar_Crown, 151),</v>
       </c>
     </row>
@@ -18432,7 +20533,7 @@
         <v>80</v>
       </c>
       <c r="G27" t="str">
-        <f>"new Card(""" &amp; B27 &amp; """, Pokedex." &amp; C27 &amp; ", Rarity." &amp; F27 &amp; ", Types." &amp; D27 &amp; ", Sets." &amp; E27 &amp; ", " &amp; A27 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Milcery", Pokedex.Milcery, Rarity.Special_Art_Pokemon_SV, Types.Psychic, Sets.Stellar_Crown, 152),</v>
       </c>
     </row>
@@ -18456,7 +20557,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="str">
-        <f>"new Card(""" &amp; B28 &amp; """, Pokedex." &amp; C28 &amp; ", Rarity." &amp; F28 &amp; ", Types." &amp; D28 &amp; ", Sets." &amp; E28 &amp; ", " &amp; A28 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Meditite", Pokedex.Meditite, Rarity.Special_Art_Pokemon_SV, Types.Fighting, Sets.Stellar_Crown, 153),</v>
       </c>
     </row>
@@ -18480,7 +20581,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="str">
-        <f>"new Card(""" &amp; B29 &amp; """, Pokedex." &amp; C29 &amp; ", Rarity." &amp; F29 &amp; ", Types." &amp; D29 &amp; ", Sets." &amp; E29 &amp; ", " &amp; A29 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Gulpin", Pokedex.Gulpin, Rarity.Special_Art_Pokemon_SV, Types.Darkness, Sets.Stellar_Crown, 154),</v>
       </c>
     </row>
@@ -18504,7 +20605,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="str">
-        <f>"new Card(""" &amp; B30 &amp; """, Pokedex." &amp; C30 &amp; ", Rarity." &amp; F30 &amp; ", Types." &amp; D30 &amp; ", Sets." &amp; E30 &amp; ", " &amp; A30 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Archaludon", Pokedex.Archaludon, Rarity.Special_Art_Pokemon_SV, Types.Metal, Sets.Stellar_Crown, 155),</v>
       </c>
     </row>
@@ -18528,7 +20629,7 @@
         <v>82</v>
       </c>
       <c r="G31" t="str">
-        <f>"new Card(""" &amp; B31 &amp; """, Pokedex." &amp; C31 &amp; ", Rarity." &amp; F31 &amp; ", Types." &amp; D31 &amp; ", Sets." &amp; E31 &amp; ", " &amp; A31 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Hydrapple ex", Pokedex.Hydrapple, Rarity.ex_SV_Full_Art, Types.Grass, Sets.Stellar_Crown, 156),</v>
       </c>
     </row>
@@ -18552,7 +20653,7 @@
         <v>81</v>
       </c>
       <c r="G32" t="str">
-        <f>"new Card(""" &amp; B32 &amp; """, Pokedex." &amp; C32 &amp; ", Rarity." &amp; F32 &amp; ", Types." &amp; D32 &amp; ", Sets." &amp; E32 &amp; ", " &amp; A32 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Cinderace ex", Pokedex.Cinderace, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Stellar_Fire, Sets.Stellar_Crown, 157),</v>
       </c>
     </row>
@@ -18576,7 +20677,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="str">
-        <f>"new Card(""" &amp; B33 &amp; """, Pokedex." &amp; C33 &amp; ", Rarity." &amp; F33 &amp; ", Types." &amp; D33 &amp; ", Sets." &amp; E33 &amp; ", " &amp; A33 &amp; "),"</f>
+        <f t="shared" si="0"/>
         <v>new Card("Lapras ex", Pokedex.Lapras, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Stellar_Water, Sets.Stellar_Crown, 158),</v>
       </c>
     </row>
@@ -18600,7 +20701,7 @@
         <v>81</v>
       </c>
       <c r="G34" t="str">
-        <f>"new Card(""" &amp; B34 &amp; """, Pokedex." &amp; C34 &amp; ", Rarity." &amp; F34 &amp; ", Types." &amp; D34 &amp; ", Sets." &amp; E34 &amp; ", " &amp; A34 &amp; "),"</f>
+        <f t="shared" ref="G34:G65" si="1">"new Card(""" &amp; B34 &amp; """, Pokedex." &amp; C34 &amp; ", Rarity." &amp; F34 &amp; ", Types." &amp; D34 &amp; ", Sets." &amp; E34 &amp; ", " &amp; A34 &amp; "),"</f>
         <v>new Card("Galvantula ex", Pokedex.Galvantula, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Stellar_Lightning, Sets.Stellar_Crown, 159),</v>
       </c>
     </row>
@@ -18624,7 +20725,7 @@
         <v>82</v>
       </c>
       <c r="G35" t="str">
-        <f>"new Card(""" &amp; B35 &amp; """, Pokedex." &amp; C35 &amp; ", Rarity." &amp; F35 &amp; ", Types." &amp; D35 &amp; ", Sets." &amp; E35 &amp; ", " &amp; A35 &amp; "),"</f>
+        <f t="shared" si="1"/>
         <v>new Card("Dachsbun ex", Pokedex.Dachsbun, Rarity.ex_SV_Full_Art, Types.Psychic, Sets.Stellar_Crown, 160),</v>
       </c>
     </row>
@@ -18648,7 +20749,7 @@
         <v>82</v>
       </c>
       <c r="G36" t="str">
-        <f>"new Card(""" &amp; B36 &amp; """, Pokedex." &amp; C36 &amp; ", Rarity." &amp; F36 &amp; ", Types." &amp; D36 &amp; ", Sets." &amp; E36 &amp; ", " &amp; A36 &amp; "),"</f>
+        <f t="shared" si="1"/>
         <v>new Card("Medicham ex", Pokedex.Medicham, Rarity.ex_SV_Full_Art, Types.Fighting, Sets.Stellar_Crown, 161),</v>
       </c>
     </row>
@@ -18672,7 +20773,7 @@
         <v>82</v>
       </c>
       <c r="G37" t="str">
-        <f>"new Card(""" &amp; B37 &amp; """, Pokedex." &amp; C37 &amp; ", Rarity." &amp; F37 &amp; ", Types." &amp; D37 &amp; ", Sets." &amp; E37 &amp; ", " &amp; A37 &amp; "),"</f>
+        <f t="shared" si="1"/>
         <v>new Card("Orthworm ex", Pokedex.Orthworm, Rarity.ex_SV_Full_Art, Types.Metal, Sets.Stellar_Crown, 162),</v>
       </c>
     </row>
@@ -18696,7 +20797,7 @@
         <v>83</v>
       </c>
       <c r="G38" t="str">
-        <f>"new Card(""" &amp; B38 &amp; """, Pokedex." &amp; C38 &amp; ", Rarity." &amp; F38 &amp; ", Types." &amp; D38 &amp; ", Sets." &amp; E38 &amp; ", " &amp; A38 &amp; "),"</f>
+        <f t="shared" si="1"/>
         <v>new Card("Briar", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Stellar_Crown, 163),</v>
       </c>
     </row>
@@ -18720,7 +20821,7 @@
         <v>83</v>
       </c>
       <c r="G39" t="str">
-        <f>"new Card(""" &amp; B39 &amp; """, Pokedex." &amp; C39 &amp; ", Rarity." &amp; F39 &amp; ", Types." &amp; D39 &amp; ", Sets." &amp; E39 &amp; ", " &amp; A39 &amp; "),"</f>
+        <f t="shared" si="1"/>
         <v>new Card("Crispin", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Stellar_Crown, 164),</v>
       </c>
     </row>
@@ -18744,7 +20845,7 @@
         <v>83</v>
       </c>
       <c r="G40" t="str">
-        <f>"new Card(""" &amp; B40 &amp; """, Pokedex." &amp; C40 &amp; ", Rarity." &amp; F40 &amp; ", Types." &amp; D40 &amp; ", Sets." &amp; E40 &amp; ", " &amp; A40 &amp; "),"</f>
+        <f t="shared" si="1"/>
         <v>new Card("Kofu", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Stellar_Crown, 165),</v>
       </c>
     </row>
@@ -18768,7 +20869,7 @@
         <v>83</v>
       </c>
       <c r="G41" t="str">
-        <f>"new Card(""" &amp; B41 &amp; """, Pokedex." &amp; C41 &amp; ", Rarity." &amp; F41 &amp; ", Types." &amp; D41 &amp; ", Sets." &amp; E41 &amp; ", " &amp; A41 &amp; "),"</f>
+        <f t="shared" si="1"/>
         <v>new Card("Lacey", Pokedex.NVT, Rarity.Full_Art_Trainer_SV, Types.Supporter, Sets.Stellar_Crown, 166),</v>
       </c>
     </row>
@@ -18792,7 +20893,7 @@
         <v>85</v>
       </c>
       <c r="G42" t="str">
-        <f>"new Card(""" &amp; B42 &amp; """, Pokedex." &amp; C42 &amp; ", Rarity." &amp; F42 &amp; ", Types." &amp; D42 &amp; ", Sets." &amp; E42 &amp; ", " &amp; A42 &amp; "),"</f>
+        <f t="shared" si="1"/>
         <v>new Card("Hydrapple ex", Pokedex.Hydrapple, Rarity.ex_SV_Special_Art, Types.Grass, Sets.Stellar_Crown, 167),</v>
       </c>
     </row>
@@ -18816,7 +20917,7 @@
         <v>84</v>
       </c>
       <c r="G43" t="str">
-        <f>"new Card(""" &amp; B43 &amp; """, Pokedex." &amp; C43 &amp; ", Rarity." &amp; F43 &amp; ", Types." &amp; D43 &amp; ", Sets." &amp; E43 &amp; ", " &amp; A43 &amp; "),"</f>
+        <f t="shared" si="1"/>
         <v>new Card("Galvantula ex", Pokedex.Galvantula, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Lightning, Sets.Stellar_Crown, 168),</v>
       </c>
     </row>
@@ -18840,7 +20941,7 @@
         <v>85</v>
       </c>
       <c r="G44" t="str">
-        <f>"new Card(""" &amp; B44 &amp; """, Pokedex." &amp; C44 &amp; ", Rarity." &amp; F44 &amp; ", Types." &amp; D44 &amp; ", Sets." &amp; E44 &amp; ", " &amp; A44 &amp; "),"</f>
+        <f t="shared" si="1"/>
         <v>new Card("Dachsbun ex", Pokedex.Dachsbun, Rarity.ex_SV_Special_Art, Types.Psychic, Sets.Stellar_Crown, 169),</v>
       </c>
     </row>
@@ -18864,7 +20965,7 @@
         <v>84</v>
       </c>
       <c r="G45" t="str">
-        <f>"new Card(""" &amp; B45 &amp; """, Pokedex." &amp; C45 &amp; ", Rarity." &amp; F45 &amp; ", Types." &amp; D45 &amp; ", Sets." &amp; E45 &amp; ", " &amp; A45 &amp; "),"</f>
+        <f t="shared" si="1"/>
         <v>new Card("Terapagos ex", Pokedex.Terapagos, Rarity.ex_SV_Tera_Special_Art, Types.Tera_Stellar_Terapagos, Sets.Stellar_Crown, 170),</v>
       </c>
     </row>
@@ -18888,7 +20989,7 @@
         <v>86</v>
       </c>
       <c r="G46" t="str">
-        <f>"new Card(""" &amp; B46 &amp; """, Pokedex." &amp; C46 &amp; ", Rarity." &amp; F46 &amp; ", Types." &amp; D46 &amp; ", Sets." &amp; E46 &amp; ", " &amp; A46 &amp; "),"</f>
+        <f t="shared" si="1"/>
         <v>new Card("Briar", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Stellar_Crown, 171),</v>
       </c>
     </row>
@@ -18912,7 +21013,7 @@
         <v>86</v>
       </c>
       <c r="G47" t="str">
-        <f>"new Card(""" &amp; B47 &amp; """, Pokedex." &amp; C47 &amp; ", Rarity." &amp; F47 &amp; ", Types." &amp; D47 &amp; ", Sets." &amp; E47 &amp; ", " &amp; A47 &amp; "),"</f>
+        <f t="shared" si="1"/>
         <v>new Card("Lacey", Pokedex.NVT, Rarity.Special_Art_Trainer_SV, Types.Supporter, Sets.Stellar_Crown, 172),</v>
       </c>
     </row>
@@ -18936,7 +21037,7 @@
         <v>87</v>
       </c>
       <c r="G48" t="str">
-        <f>"new Card(""" &amp; B48 &amp; """, Pokedex." &amp; C48 &amp; ", Rarity." &amp; F48 &amp; ", Types." &amp; D48 &amp; ", Sets." &amp; E48 &amp; ", " &amp; A48 &amp; "),"</f>
+        <f t="shared" si="1"/>
         <v>new Card("Terapagos ex", Pokedex.Terapagos, Rarity.ex_SV_Tera_Gold, Types.Tera_Stellar_Terapagos, Sets.Stellar_Crown, 173),</v>
       </c>
     </row>
@@ -18960,7 +21061,7 @@
         <v>88</v>
       </c>
       <c r="G49" t="str">
-        <f>"new Card(""" &amp; B49 &amp; """, Pokedex." &amp; C49 &amp; ", Rarity." &amp; F49 &amp; ", Types." &amp; D49 &amp; ", Sets." &amp; E49 &amp; ", " &amp; A49 &amp; "),"</f>
+        <f t="shared" si="1"/>
         <v>new Card("Area Zero Underdepths", Pokedex.NVT, Rarity.Gold_Stadium_SV, Types.Stadium, Sets.Stellar_Crown, 174),</v>
       </c>
     </row>
@@ -18984,7 +21085,7 @@
         <v>133</v>
       </c>
       <c r="G50" t="str">
-        <f>"new Card(""" &amp; B50 &amp; """, Pokedex." &amp; C50 &amp; ", Rarity." &amp; F50 &amp; ", Types." &amp; D50 &amp; ", Sets." &amp; E50 &amp; ", " &amp; A50 &amp; "),"</f>
+        <f t="shared" si="1"/>
         <v>new Card("Bravery Charm", Pokedex.NVT, Rarity.Gold_Item_SV, Types.Tool, Sets.Stellar_Crown, 175),</v>
       </c>
     </row>
@@ -18997,8 +21098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BB20D5-122A-48D9-B1F1-D43938A4D39A}">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/docs/UltraRareCards.xlsx
+++ b/docs/UltraRareCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\PHP\TCG\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C878C103-FB4D-4925-B2D0-221899490343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A962279-2734-4001-ACAD-69B0E8722515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10584" yWindow="0" windowWidth="12600" windowHeight="8892" firstSheet="7" activeTab="9" xr2:uid="{E655B03A-0615-48A1-906C-9E73CC102A05}"/>
+    <workbookView xWindow="9756" yWindow="2832" windowWidth="12600" windowHeight="8892" firstSheet="7" activeTab="10" xr2:uid="{E655B03A-0615-48A1-906C-9E73CC102A05}"/>
   </bookViews>
   <sheets>
     <sheet name="SV OBF" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4209" uniqueCount="762">
   <si>
     <t>Grass</t>
   </si>
@@ -2315,6 +2315,24 @@
   </si>
   <si>
     <t>Special_Art_Trainer_SV_Border</t>
+  </si>
+  <si>
+    <t>Kyogre ex</t>
+  </si>
+  <si>
+    <t>Kyogre</t>
+  </si>
+  <si>
+    <t>Xerneas</t>
+  </si>
+  <si>
+    <t>Dialga</t>
+  </si>
+  <si>
+    <t>Xerneas ex</t>
+  </si>
+  <si>
+    <t>Dialga ex</t>
   </si>
 </sst>
 </file>
@@ -4030,7 +4048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16A4167-E9A2-49D0-8EAC-D962881281E3}">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
@@ -6014,10 +6032,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5F96F9-1156-44CE-8686-B127A4E0F488}">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6042,7 +6060,7 @@
         <v>385</v>
       </c>
       <c r="G1" t="str">
-        <f t="shared" ref="G1:G45" si="0">"new Card(""" &amp; B1 &amp; """, Pokedex." &amp; C1 &amp; ", Rarity." &amp; F1 &amp; ", Types." &amp; D1 &amp; ", Sets." &amp; E1 &amp; ", " &amp; A1 &amp; "),"</f>
+        <f t="shared" ref="G1:G49" si="0">"new Card(""" &amp; B1 &amp; """, Pokedex." &amp; C1 &amp; ", Rarity." &amp; F1 &amp; ", Types." &amp; D1 &amp; ", Sets." &amp; E1 &amp; ", " &amp; A1 &amp; "),"</f>
         <v>new Card("Fidough", Pokedex.Fidough, Rarity.Shiny_Vault_SV, Types.Psychic, Sets.SV_Promo, 69),</v>
       </c>
     </row>
@@ -7121,6 +7139,102 @@
       <c r="G45" t="str">
         <f t="shared" si="0"/>
         <v>new Card("Magneton", Pokedex.Magneton, Rarity.Special_Art_Pokemon_SV, Types.Lightning, Sets.SV_Promo, 159),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>173</v>
+      </c>
+      <c r="B46" t="s">
+        <v>500</v>
+      </c>
+      <c r="C46" t="s">
+        <v>500</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>406</v>
+      </c>
+      <c r="F46" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Eevee", Pokedex.Eevee, Rarity.Special_Art_Pokemon_SV, Types.Colorless, Sets.SV_Promo, 173),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>178</v>
+      </c>
+      <c r="B47" t="s">
+        <v>756</v>
+      </c>
+      <c r="C47" t="s">
+        <v>757</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>406</v>
+      </c>
+      <c r="F47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Kyogre ex", Pokedex.Kyogre, Rarity.ex_SV, Types.Water, Sets.SV_Promo, 178),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>179</v>
+      </c>
+      <c r="B48" t="s">
+        <v>760</v>
+      </c>
+      <c r="C48" t="s">
+        <v>758</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>406</v>
+      </c>
+      <c r="F48" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Xerneas ex", Pokedex.Xerneas, Rarity.ex_SV, Types.Psychic, Sets.SV_Promo, 179),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>180</v>
+      </c>
+      <c r="B49" t="s">
+        <v>761</v>
+      </c>
+      <c r="C49" t="s">
+        <v>759</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>406</v>
+      </c>
+      <c r="F49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>new Card("Dialga ex", Pokedex.Dialga, Rarity.ex_SV, Types.Metal, Sets.SV_Promo, 180),</v>
       </c>
     </row>
   </sheetData>
@@ -20701,7 +20815,7 @@
         <v>81</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" ref="G34:G65" si="1">"new Card(""" &amp; B34 &amp; """, Pokedex." &amp; C34 &amp; ", Rarity." &amp; F34 &amp; ", Types." &amp; D34 &amp; ", Sets." &amp; E34 &amp; ", " &amp; A34 &amp; "),"</f>
+        <f t="shared" ref="G34:G50" si="1">"new Card(""" &amp; B34 &amp; """, Pokedex." &amp; C34 &amp; ", Rarity." &amp; F34 &amp; ", Types." &amp; D34 &amp; ", Sets." &amp; E34 &amp; ", " &amp; A34 &amp; "),"</f>
         <v>new Card("Galvantula ex", Pokedex.Galvantula, Rarity.ex_SV_Tera_Full_Art, Types.Tera_Stellar_Lightning, Sets.Stellar_Crown, 159),</v>
       </c>
     </row>
